--- a/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
+++ b/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21261179-544D-4F26-B740-C7B7749CC65F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2478F799-FCA5-428E-B271-865AB0C042BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5436,8 +5436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,7 +6051,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B44" t="s">
@@ -6065,7 +6065,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B45" t="s">
@@ -6079,7 +6079,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B46" t="s">
@@ -6093,7 +6093,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B47" t="s">
@@ -6107,7 +6107,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B48" t="s">
@@ -6121,7 +6121,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B49" t="s">
@@ -6135,7 +6135,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B50" t="s">
@@ -6149,7 +6149,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B51" t="s">
@@ -6163,7 +6163,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B52" t="s">
@@ -6177,7 +6177,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B53" t="s">
@@ -6191,7 +6191,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B54" t="s">
@@ -6205,7 +6205,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B55" t="s">
@@ -6219,7 +6219,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B56" t="s">
@@ -6233,7 +6233,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B57" t="s">
@@ -6247,7 +6247,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B58" t="s">
@@ -6261,7 +6261,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B59" t="s">
@@ -6275,7 +6275,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B60" t="s">
@@ -6289,7 +6289,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B61" t="s">
@@ -6303,7 +6303,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B62" t="s">
@@ -6317,7 +6317,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B63" t="s">
@@ -6331,7 +6331,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B64" t="s">
@@ -6345,7 +6345,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B65" t="s">
@@ -6359,7 +6359,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B66" t="s">
@@ -6373,7 +6373,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B67" t="s">
@@ -6387,7 +6387,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>243</v>
       </c>
       <c r="B68" t="s">
@@ -6401,7 +6401,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B69" t="s">
@@ -6415,7 +6415,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B70" t="s">
@@ -6429,7 +6429,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B71" t="s">
@@ -6443,7 +6443,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B72" t="s">
@@ -6457,7 +6457,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B73" t="s">
@@ -6471,7 +6471,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B74" t="s">
@@ -6485,7 +6485,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B75" t="s">
@@ -6499,7 +6499,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B76" t="s">
@@ -6513,7 +6513,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B77" t="s">
@@ -6527,7 +6527,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B78" t="s">
@@ -6541,7 +6541,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B79" t="s">
@@ -6555,7 +6555,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B80" t="s">
@@ -6569,7 +6569,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B81" t="s">
@@ -6583,7 +6583,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>288</v>
       </c>
       <c r="B82" t="s">
@@ -6597,7 +6597,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B83" t="s">
@@ -6611,7 +6611,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B84" t="s">
@@ -6625,7 +6625,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B85" t="s">
@@ -6639,7 +6639,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B86" t="s">
@@ -6653,7 +6653,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B87" t="s">
@@ -6667,7 +6667,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>307</v>
       </c>
       <c r="B88" t="s">
@@ -6681,7 +6681,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B89" t="s">
@@ -6695,7 +6695,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B90" t="s">
@@ -6709,7 +6709,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B91" t="s">
@@ -6723,7 +6723,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B92" t="s">
@@ -6737,7 +6737,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B93" t="s">
@@ -6751,7 +6751,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B94" t="s">
@@ -6765,7 +6765,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B95" t="s">
@@ -6779,7 +6779,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B96" t="s">
@@ -6793,7 +6793,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B97" t="s">
@@ -6807,7 +6807,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B98" t="s">
@@ -6821,7 +6821,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B99" t="s">
@@ -6835,7 +6835,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B100" t="s">
@@ -6849,7 +6849,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B101" t="s">

--- a/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
+++ b/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2478F799-FCA5-428E-B271-865AB0C042BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FD473-6007-4F24-AAD4-96AB87C4407A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1590,9 +1590,6 @@
     <t>DEE869500515</t>
   </si>
   <si>
-    <t>Don't Stop Believin'</t>
-  </si>
-  <si>
     <t>Journey</t>
   </si>
   <si>
@@ -1759,9 +1756,6 @@
   </si>
   <si>
     <t>GBAAM0201086</t>
-  </si>
-  <si>
-    <t>White Wedding - Pt. 1</t>
   </si>
   <si>
     <t>Billy Idol</t>
@@ -5096,6 +5090,50 @@
   </si>
   <si>
     <t>Phänomenal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Don't Stop Believin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White Wedding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Pt. 1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5436,8 +5474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5492,7 +5530,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -5506,7 +5544,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -5604,7 +5642,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -5618,7 +5656,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -5646,7 +5684,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -5702,7 +5740,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -5730,7 +5768,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -5772,7 +5810,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -6863,7 +6901,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>350</v>
       </c>
       <c r="B102" t="s">
@@ -6877,7 +6915,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B103" t="s">
@@ -6891,7 +6929,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B104" t="s">
@@ -6905,7 +6943,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B105" t="s">
@@ -6919,7 +6957,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B106" t="s">
@@ -6933,7 +6971,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>365</v>
       </c>
       <c r="B107" t="s">
@@ -6947,7 +6985,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B108" t="s">
@@ -6961,7 +6999,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B109" t="s">
@@ -6975,7 +7013,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B110" t="s">
@@ -6989,7 +7027,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>378</v>
       </c>
       <c r="B111" t="s">
@@ -7003,7 +7041,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B112" t="s">
@@ -7017,7 +7055,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>385</v>
       </c>
       <c r="B113" t="s">
@@ -7031,7 +7069,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B114" t="s">
@@ -7045,7 +7083,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B115" t="s">
@@ -7059,7 +7097,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B116" t="s">
@@ -7073,7 +7111,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>396</v>
       </c>
       <c r="B117" t="s">
@@ -7087,7 +7125,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B118" t="s">
@@ -7101,7 +7139,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>404</v>
       </c>
       <c r="B119" t="s">
@@ -7115,7 +7153,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="A120" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B120" t="s">
@@ -7129,7 +7167,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="A121" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B121" t="s">
@@ -7143,7 +7181,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="A122" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B122" t="s">
@@ -7157,7 +7195,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="A123" s="1" t="s">
         <v>420</v>
       </c>
       <c r="B123" t="s">
@@ -7171,7 +7209,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="A124" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B124" t="s">
@@ -7185,7 +7223,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="A125" s="1" t="s">
         <v>427</v>
       </c>
       <c r="B125" t="s">
@@ -7199,7 +7237,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="A126" s="1" t="s">
         <v>431</v>
       </c>
       <c r="B126" t="s">
@@ -7213,7 +7251,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="A127" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B127" t="s">
@@ -7227,7 +7265,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="A128" s="1" t="s">
         <v>437</v>
       </c>
       <c r="B128" t="s">
@@ -7241,7 +7279,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="A129" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B129" t="s">
@@ -7255,7 +7293,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="A130" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B130" t="s">
@@ -7269,7 +7307,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="A131" s="1" t="s">
         <v>449</v>
       </c>
       <c r="B131" t="s">
@@ -7283,7 +7321,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="A132" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B132" t="s">
@@ -7297,7 +7335,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="A133" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B133" t="s">
@@ -7311,7 +7349,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="A134" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B134" t="s">
@@ -7325,7 +7363,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="A135" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B135" t="s">
@@ -7339,7 +7377,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="A136" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B136" t="s">
@@ -7353,7 +7391,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="1" t="s">
         <v>471</v>
       </c>
       <c r="B137" t="s">
@@ -7367,7 +7405,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="A138" s="1" t="s">
         <v>474</v>
       </c>
       <c r="B138" t="s">
@@ -7381,7 +7419,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="A139" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B139" t="s">
@@ -7395,7 +7433,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="A140" s="1" t="s">
         <v>480</v>
       </c>
       <c r="B140" t="s">
@@ -7409,7 +7447,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="A141" s="1" t="s">
         <v>484</v>
       </c>
       <c r="B141" t="s">
@@ -7423,7 +7461,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B142" t="s">
@@ -7437,7 +7475,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+      <c r="A143" s="1" t="s">
         <v>490</v>
       </c>
       <c r="B143" t="s">
@@ -7451,7 +7489,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+      <c r="A144" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B144" t="s">
@@ -7465,7 +7503,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="A145" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B145" t="s">
@@ -7479,7 +7517,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="A146" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B146" t="s">
@@ -7493,7 +7531,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="A147" s="2" t="s">
         <v>504</v>
       </c>
       <c r="B147" t="s">
@@ -7507,7 +7545,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="A148" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B148" t="s">
@@ -7521,7 +7559,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="A149" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B149" t="s">
@@ -7535,7 +7573,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="A150" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B150" t="s">
@@ -7549,7 +7587,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="A151" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B151" t="s">
@@ -7564,524 +7602,524 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B152" t="s">
         <v>516</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>517</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>518</v>
       </c>
-      <c r="D152" t="s">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
         <v>520</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>521</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>522</v>
       </c>
-      <c r="D153" t="s">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>523</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>524</v>
       </c>
       <c r="B154" t="s">
         <v>453</v>
       </c>
       <c r="C154" t="s">
+        <v>524</v>
+      </c>
+      <c r="D154" t="s">
         <v>525</v>
       </c>
-      <c r="D154" t="s">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
         <v>527</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>528</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>529</v>
       </c>
-      <c r="D155" t="s">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
         <v>531</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>532</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>533</v>
       </c>
-      <c r="D156" t="s">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
         <v>535</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>536</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>537</v>
       </c>
-      <c r="D157" t="s">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
+        <v>531</v>
+      </c>
+      <c r="C158" t="s">
         <v>539</v>
       </c>
-      <c r="B158" t="s">
-        <v>532</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>540</v>
       </c>
-      <c r="D158" t="s">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="B159" t="s">
         <v>542</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>543</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>544</v>
       </c>
-      <c r="D159" t="s">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="B160" t="s">
         <v>546</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>547</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>548</v>
       </c>
-      <c r="D160" t="s">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>549</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>550</v>
       </c>
       <c r="B161" t="s">
         <v>369</v>
       </c>
       <c r="C161" t="s">
+        <v>550</v>
+      </c>
+      <c r="D161" t="s">
         <v>551</v>
       </c>
-      <c r="D161" t="s">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
         <v>553</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>554</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>555</v>
       </c>
-      <c r="D162" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
         <v>557</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>558</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>559</v>
       </c>
-      <c r="D163" t="s">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
         <v>561</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>562</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>563</v>
       </c>
-      <c r="D164" t="s">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
         <v>565</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>566</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>567</v>
       </c>
-      <c r="D165" t="s">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B166" t="s">
         <v>569</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>570</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>571</v>
-      </c>
-      <c r="D166" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B167" t="s">
+        <v>572</v>
+      </c>
+      <c r="C167" t="s">
+        <v>572</v>
+      </c>
+      <c r="D167" t="s">
         <v>573</v>
       </c>
-      <c r="B167" t="s">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C167" t="s">
-        <v>574</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="B168" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="C168" t="s">
         <v>576</v>
       </c>
-      <c r="B168" t="s">
+      <c r="D168" t="s">
         <v>577</v>
       </c>
-      <c r="C168" t="s">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="D168" t="s">
+      <c r="B169" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C169" t="s">
         <v>580</v>
       </c>
-      <c r="B169" t="s">
+      <c r="D169" t="s">
         <v>581</v>
       </c>
-      <c r="C169" t="s">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D169" t="s">
+      <c r="B170" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="C170" t="s">
         <v>584</v>
       </c>
-      <c r="B170" t="s">
+      <c r="D170" t="s">
         <v>585</v>
       </c>
-      <c r="C170" t="s">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D170" t="s">
+      <c r="B171" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C171" t="s">
         <v>588</v>
       </c>
-      <c r="B171" t="s">
+      <c r="D171" t="s">
         <v>589</v>
       </c>
-      <c r="C171" t="s">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="D171" t="s">
+      <c r="B172" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="C172" t="s">
         <v>592</v>
       </c>
-      <c r="B172" t="s">
+      <c r="D172" t="s">
         <v>593</v>
       </c>
-      <c r="C172" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="D172" t="s">
+      <c r="B173" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C173" t="s">
         <v>596</v>
       </c>
-      <c r="B173" t="s">
+      <c r="D173" t="s">
         <v>597</v>
       </c>
-      <c r="C173" t="s">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="D173" t="s">
+      <c r="B174" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="C174" t="s">
         <v>600</v>
       </c>
-      <c r="B174" t="s">
+      <c r="D174" t="s">
         <v>601</v>
       </c>
-      <c r="C174" t="s">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D174" t="s">
+      <c r="B175" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="C175" t="s">
         <v>604</v>
       </c>
-      <c r="B175" t="s">
+      <c r="D175" t="s">
         <v>605</v>
       </c>
-      <c r="C175" t="s">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="D175" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>608</v>
       </c>
       <c r="B176" t="s">
         <v>456</v>
       </c>
       <c r="C176" t="s">
+        <v>607</v>
+      </c>
+      <c r="D176" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B177" t="s">
+        <v>520</v>
+      </c>
+      <c r="C177" t="s">
+        <v>521</v>
+      </c>
+      <c r="D177" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D176" t="s">
+      <c r="B178" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>520</v>
-      </c>
-      <c r="B177" t="s">
-        <v>521</v>
-      </c>
-      <c r="C177" t="s">
-        <v>522</v>
-      </c>
-      <c r="D177" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="C178" t="s">
         <v>611</v>
       </c>
-      <c r="B178" t="s">
+      <c r="D178" t="s">
         <v>612</v>
       </c>
-      <c r="C178" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="D178" t="s">
+      <c r="B179" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C179" t="s">
         <v>615</v>
       </c>
-      <c r="B179" t="s">
+      <c r="D179" t="s">
         <v>616</v>
       </c>
-      <c r="C179" t="s">
-        <v>617</v>
-      </c>
-      <c r="D179" t="s">
-        <v>618</v>
-      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B180" t="s">
         <v>265</v>
       </c>
       <c r="C180" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D180" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="A181" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B181" t="s">
+        <v>619</v>
+      </c>
+      <c r="C181" t="s">
+        <v>619</v>
+      </c>
+      <c r="D181" t="s">
         <v>620</v>
       </c>
-      <c r="B181" t="s">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C181" t="s">
-        <v>621</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="B182" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="C182" t="s">
         <v>623</v>
       </c>
-      <c r="B182" t="s">
+      <c r="D182" t="s">
         <v>624</v>
       </c>
-      <c r="C182" t="s">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="D182" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>627</v>
       </c>
       <c r="B183" t="s">
         <v>356</v>
       </c>
       <c r="C183" t="s">
+        <v>626</v>
+      </c>
+      <c r="D183" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="D183" t="s">
+      <c r="B184" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C184" t="s">
+        <v>628</v>
+      </c>
+      <c r="D184" t="s">
         <v>630</v>
       </c>
-      <c r="B184" t="s">
-        <v>631</v>
-      </c>
-      <c r="C184" t="s">
-        <v>630</v>
-      </c>
-      <c r="D184" t="s">
-        <v>632</v>
-      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="A185" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B185" t="s">
         <v>43</v>
       </c>
       <c r="C185" t="s">
+        <v>631</v>
+      </c>
+      <c r="D185" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D185" t="s">
+      <c r="B186" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C186" t="s">
         <v>635</v>
       </c>
-      <c r="B186" t="s">
+      <c r="D186" t="s">
         <v>636</v>
       </c>
-      <c r="C186" t="s">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="D186" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>639</v>
       </c>
       <c r="B187" t="s">
         <v>356</v>
       </c>
       <c r="C187" t="s">
+        <v>638</v>
+      </c>
+      <c r="D187" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="D187" t="s">
+      <c r="B188" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="C188" t="s">
         <v>642</v>
       </c>
-      <c r="B188" t="s">
+      <c r="D188" t="s">
         <v>643</v>
       </c>
-      <c r="C188" t="s">
-        <v>644</v>
-      </c>
-      <c r="D188" t="s">
-        <v>645</v>
-      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="A189" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B189" t="s">
@@ -8095,185 +8133,185 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="A190" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B190" t="s">
+        <v>645</v>
+      </c>
+      <c r="C190" t="s">
         <v>646</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>647</v>
       </c>
-      <c r="C190" t="s">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D190" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>650</v>
       </c>
       <c r="B191" t="s">
         <v>177</v>
       </c>
       <c r="C191" t="s">
+        <v>649</v>
+      </c>
+      <c r="D191" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="D191" t="s">
+      <c r="B192" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C192" t="s">
         <v>653</v>
       </c>
-      <c r="B192" t="s">
+      <c r="D192" t="s">
         <v>654</v>
       </c>
-      <c r="C192" t="s">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="D192" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>657</v>
       </c>
       <c r="B193" t="s">
         <v>488</v>
       </c>
       <c r="C193" t="s">
+        <v>656</v>
+      </c>
+      <c r="D193" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D193" t="s">
+      <c r="B194" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
+      <c r="C194" t="s">
         <v>660</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D194" t="s">
         <v>661</v>
       </c>
-      <c r="C194" t="s">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D194" t="s">
+      <c r="B195" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="C195" t="s">
         <v>664</v>
       </c>
-      <c r="B195" t="s">
+      <c r="D195" t="s">
         <v>665</v>
       </c>
-      <c r="C195" t="s">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="D195" t="s">
+      <c r="B196" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="C196" t="s">
         <v>668</v>
       </c>
-      <c r="B196" t="s">
+      <c r="D196" t="s">
         <v>669</v>
       </c>
-      <c r="C196" t="s">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>670</v>
-      </c>
-      <c r="D196" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>672</v>
       </c>
       <c r="B197" t="s">
         <v>165</v>
       </c>
       <c r="C197" t="s">
+        <v>671</v>
+      </c>
+      <c r="D197" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="D197" t="s">
+      <c r="B198" t="s">
+        <v>634</v>
+      </c>
+      <c r="C198" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="D198" t="s">
         <v>675</v>
       </c>
-      <c r="B198" t="s">
-        <v>636</v>
-      </c>
-      <c r="C198" t="s">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="D198" t="s">
+      <c r="B199" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C199" t="s">
         <v>678</v>
       </c>
-      <c r="B199" t="s">
+      <c r="D199" t="s">
         <v>679</v>
       </c>
-      <c r="C199" t="s">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="D199" t="s">
+      <c r="B200" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="C200" t="s">
         <v>682</v>
       </c>
-      <c r="B200" t="s">
+      <c r="D200" t="s">
         <v>683</v>
       </c>
-      <c r="C200" t="s">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="D200" t="s">
+      <c r="B201" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C201" t="s">
+        <v>684</v>
+      </c>
+      <c r="D201" t="s">
         <v>686</v>
-      </c>
-      <c r="B201" t="s">
-        <v>687</v>
-      </c>
-      <c r="C201" t="s">
-        <v>686</v>
-      </c>
-      <c r="D201" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>687</v>
+      </c>
+      <c r="B202" t="s">
+        <v>688</v>
+      </c>
+      <c r="C202" t="s">
+        <v>687</v>
+      </c>
+      <c r="D202" t="s">
         <v>689</v>
-      </c>
-      <c r="B202" t="s">
-        <v>690</v>
-      </c>
-      <c r="C202" t="s">
-        <v>689</v>
-      </c>
-      <c r="D202" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -8284,7 +8322,7 @@
         <v>464</v>
       </c>
       <c r="C203" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D203" t="s">
         <v>466</v>
@@ -8292,170 +8330,170 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>691</v>
+      </c>
+      <c r="B204" t="s">
+        <v>692</v>
+      </c>
+      <c r="C204" t="s">
         <v>693</v>
       </c>
-      <c r="B204" t="s">
+      <c r="D204" t="s">
         <v>694</v>
-      </c>
-      <c r="C204" t="s">
-        <v>695</v>
-      </c>
-      <c r="D204" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>695</v>
+      </c>
+      <c r="B205" t="s">
+        <v>696</v>
+      </c>
+      <c r="C205" t="s">
         <v>697</v>
       </c>
-      <c r="B205" t="s">
+      <c r="D205" t="s">
         <v>698</v>
-      </c>
-      <c r="C205" t="s">
-        <v>699</v>
-      </c>
-      <c r="D205" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>699</v>
+      </c>
+      <c r="B206" t="s">
+        <v>700</v>
+      </c>
+      <c r="C206" t="s">
         <v>701</v>
       </c>
-      <c r="B206" t="s">
+      <c r="D206" t="s">
         <v>702</v>
-      </c>
-      <c r="C206" t="s">
-        <v>703</v>
-      </c>
-      <c r="D206" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>703</v>
+      </c>
+      <c r="B207" t="s">
+        <v>704</v>
+      </c>
+      <c r="C207" t="s">
         <v>705</v>
       </c>
-      <c r="B207" t="s">
+      <c r="D207" t="s">
         <v>706</v>
-      </c>
-      <c r="C207" t="s">
-        <v>707</v>
-      </c>
-      <c r="D207" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>707</v>
+      </c>
+      <c r="B208" t="s">
+        <v>708</v>
+      </c>
+      <c r="C208" t="s">
         <v>709</v>
       </c>
-      <c r="B208" t="s">
+      <c r="D208" t="s">
         <v>710</v>
-      </c>
-      <c r="C208" t="s">
-        <v>711</v>
-      </c>
-      <c r="D208" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>711</v>
+      </c>
+      <c r="B209" t="s">
+        <v>712</v>
+      </c>
+      <c r="C209" t="s">
         <v>713</v>
       </c>
-      <c r="B209" t="s">
+      <c r="D209" t="s">
         <v>714</v>
-      </c>
-      <c r="C209" t="s">
-        <v>715</v>
-      </c>
-      <c r="D209" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>715</v>
+      </c>
+      <c r="B210" t="s">
+        <v>716</v>
+      </c>
+      <c r="C210" t="s">
         <v>717</v>
       </c>
-      <c r="B210" t="s">
+      <c r="D210" t="s">
         <v>718</v>
-      </c>
-      <c r="C210" t="s">
-        <v>719</v>
-      </c>
-      <c r="D210" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B211" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C211" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D211" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>721</v>
+      </c>
+      <c r="B212" t="s">
+        <v>722</v>
+      </c>
+      <c r="C212" t="s">
         <v>723</v>
       </c>
-      <c r="B212" t="s">
+      <c r="D212" t="s">
         <v>724</v>
-      </c>
-      <c r="C212" t="s">
-        <v>725</v>
-      </c>
-      <c r="D212" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>725</v>
+      </c>
+      <c r="B213" t="s">
+        <v>726</v>
+      </c>
+      <c r="C213" t="s">
+        <v>726</v>
+      </c>
+      <c r="D213" t="s">
         <v>727</v>
-      </c>
-      <c r="B213" t="s">
-        <v>728</v>
-      </c>
-      <c r="C213" t="s">
-        <v>728</v>
-      </c>
-      <c r="D213" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>728</v>
+      </c>
+      <c r="B214" t="s">
+        <v>729</v>
+      </c>
+      <c r="C214" t="s">
         <v>730</v>
       </c>
-      <c r="B214" t="s">
+      <c r="D214" t="s">
         <v>731</v>
-      </c>
-      <c r="C214" t="s">
-        <v>732</v>
-      </c>
-      <c r="D214" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>732</v>
+      </c>
+      <c r="B215" t="s">
+        <v>733</v>
+      </c>
+      <c r="C215" t="s">
         <v>734</v>
       </c>
-      <c r="B215" t="s">
+      <c r="D215" t="s">
         <v>735</v>
-      </c>
-      <c r="C215" t="s">
-        <v>736</v>
-      </c>
-      <c r="D215" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -8469,203 +8507,203 @@
         <v>218</v>
       </c>
       <c r="D216" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>737</v>
+      </c>
+      <c r="B217" t="s">
+        <v>738</v>
+      </c>
+      <c r="C217" t="s">
         <v>739</v>
       </c>
-      <c r="B217" t="s">
+      <c r="D217" t="s">
         <v>740</v>
-      </c>
-      <c r="C217" t="s">
-        <v>741</v>
-      </c>
-      <c r="D217" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B218" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C218" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D218" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>743</v>
+      </c>
+      <c r="B219" t="s">
+        <v>744</v>
+      </c>
+      <c r="C219" t="s">
         <v>745</v>
       </c>
-      <c r="B219" t="s">
+      <c r="D219" t="s">
         <v>746</v>
-      </c>
-      <c r="C219" t="s">
-        <v>747</v>
-      </c>
-      <c r="D219" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>747</v>
+      </c>
+      <c r="B220" t="s">
+        <v>748</v>
+      </c>
+      <c r="C220" t="s">
+        <v>748</v>
+      </c>
+      <c r="D220" t="s">
         <v>749</v>
-      </c>
-      <c r="B220" t="s">
-        <v>750</v>
-      </c>
-      <c r="C220" t="s">
-        <v>750</v>
-      </c>
-      <c r="D220" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>750</v>
+      </c>
+      <c r="B221" t="s">
+        <v>751</v>
+      </c>
+      <c r="C221" t="s">
         <v>752</v>
       </c>
-      <c r="B221" t="s">
+      <c r="D221" t="s">
         <v>753</v>
-      </c>
-      <c r="C221" t="s">
-        <v>754</v>
-      </c>
-      <c r="D221" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>754</v>
+      </c>
+      <c r="B222" t="s">
+        <v>755</v>
+      </c>
+      <c r="C222" t="s">
         <v>756</v>
       </c>
-      <c r="B222" t="s">
+      <c r="D222" t="s">
         <v>757</v>
-      </c>
-      <c r="C222" t="s">
-        <v>758</v>
-      </c>
-      <c r="D222" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>758</v>
+      </c>
+      <c r="B223" t="s">
+        <v>759</v>
+      </c>
+      <c r="C223" t="s">
         <v>760</v>
       </c>
-      <c r="B223" t="s">
+      <c r="D223" t="s">
         <v>761</v>
-      </c>
-      <c r="C223" t="s">
-        <v>762</v>
-      </c>
-      <c r="D223" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>762</v>
+      </c>
+      <c r="B224" t="s">
+        <v>763</v>
+      </c>
+      <c r="C224" t="s">
         <v>764</v>
       </c>
-      <c r="B224" t="s">
+      <c r="D224" t="s">
         <v>765</v>
-      </c>
-      <c r="C224" t="s">
-        <v>766</v>
-      </c>
-      <c r="D224" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>766</v>
+      </c>
+      <c r="B225" t="s">
+        <v>767</v>
+      </c>
+      <c r="C225" t="s">
         <v>768</v>
       </c>
-      <c r="B225" t="s">
+      <c r="D225" t="s">
         <v>769</v>
-      </c>
-      <c r="C225" t="s">
-        <v>770</v>
-      </c>
-      <c r="D225" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>770</v>
+      </c>
+      <c r="B226" t="s">
+        <v>771</v>
+      </c>
+      <c r="C226" t="s">
         <v>772</v>
       </c>
-      <c r="B226" t="s">
+      <c r="D226" t="s">
         <v>773</v>
-      </c>
-      <c r="C226" t="s">
-        <v>774</v>
-      </c>
-      <c r="D226" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>774</v>
+      </c>
+      <c r="B227" t="s">
+        <v>751</v>
+      </c>
+      <c r="C227" t="s">
+        <v>775</v>
+      </c>
+      <c r="D227" t="s">
         <v>776</v>
-      </c>
-      <c r="B227" t="s">
-        <v>753</v>
-      </c>
-      <c r="C227" t="s">
-        <v>777</v>
-      </c>
-      <c r="D227" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>777</v>
+      </c>
+      <c r="B228" t="s">
+        <v>778</v>
+      </c>
+      <c r="C228" t="s">
         <v>779</v>
       </c>
-      <c r="B228" t="s">
+      <c r="D228" t="s">
         <v>780</v>
-      </c>
-      <c r="C228" t="s">
-        <v>781</v>
-      </c>
-      <c r="D228" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>781</v>
+      </c>
+      <c r="B229" t="s">
+        <v>782</v>
+      </c>
+      <c r="C229" t="s">
         <v>783</v>
       </c>
-      <c r="B229" t="s">
+      <c r="D229" t="s">
         <v>784</v>
-      </c>
-      <c r="C229" t="s">
-        <v>785</v>
-      </c>
-      <c r="D229" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>785</v>
+      </c>
+      <c r="B230" t="s">
+        <v>786</v>
+      </c>
+      <c r="C230" t="s">
         <v>787</v>
       </c>
-      <c r="B230" t="s">
+      <c r="D230" t="s">
         <v>788</v>
-      </c>
-      <c r="C230" t="s">
-        <v>789</v>
-      </c>
-      <c r="D230" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -8673,195 +8711,195 @@
         <v>2002</v>
       </c>
       <c r="B231" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C231">
         <v>2002</v>
       </c>
       <c r="D231" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>791</v>
+      </c>
+      <c r="B232" t="s">
+        <v>792</v>
+      </c>
+      <c r="C232" t="s">
+        <v>791</v>
+      </c>
+      <c r="D232" t="s">
         <v>793</v>
-      </c>
-      <c r="B232" t="s">
-        <v>794</v>
-      </c>
-      <c r="C232" t="s">
-        <v>793</v>
-      </c>
-      <c r="D232" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B233" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C233" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D233" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>796</v>
+      </c>
+      <c r="B234" t="s">
+        <v>797</v>
+      </c>
+      <c r="C234" t="s">
+        <v>796</v>
+      </c>
+      <c r="D234" t="s">
         <v>798</v>
-      </c>
-      <c r="B234" t="s">
-        <v>799</v>
-      </c>
-      <c r="C234" t="s">
-        <v>798</v>
-      </c>
-      <c r="D234" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B235" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C235">
         <v>1989</v>
       </c>
       <c r="D235" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B236" t="s">
         <v>318</v>
       </c>
       <c r="C236" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D236" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B237" t="s">
         <v>177</v>
       </c>
       <c r="C237" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="D237" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>806</v>
+      </c>
+      <c r="B238" t="s">
+        <v>807</v>
+      </c>
+      <c r="C238" t="s">
+        <v>806</v>
+      </c>
+      <c r="D238" t="s">
         <v>808</v>
-      </c>
-      <c r="B238" t="s">
-        <v>809</v>
-      </c>
-      <c r="C238" t="s">
-        <v>808</v>
-      </c>
-      <c r="D238" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B239" t="s">
         <v>105</v>
       </c>
       <c r="C239" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D239" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B240" t="s">
         <v>105</v>
       </c>
       <c r="C240" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D240" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>814</v>
+      </c>
+      <c r="B241" t="s">
+        <v>815</v>
+      </c>
+      <c r="C241" t="s">
+        <v>814</v>
+      </c>
+      <c r="D241" t="s">
         <v>816</v>
-      </c>
-      <c r="B241" t="s">
-        <v>817</v>
-      </c>
-      <c r="C241" t="s">
-        <v>816</v>
-      </c>
-      <c r="D241" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B242" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C242" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D242" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>819</v>
+      </c>
+      <c r="B243" t="s">
+        <v>820</v>
+      </c>
+      <c r="C243" t="s">
+        <v>819</v>
+      </c>
+      <c r="D243" t="s">
         <v>821</v>
-      </c>
-      <c r="B243" t="s">
-        <v>822</v>
-      </c>
-      <c r="C243" t="s">
-        <v>821</v>
-      </c>
-      <c r="D243" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B244" t="s">
         <v>54</v>
       </c>
       <c r="C244" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D244" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
@@ -8880,86 +8918,86 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>825</v>
+      </c>
+      <c r="B246" t="s">
+        <v>826</v>
+      </c>
+      <c r="C246" t="s">
         <v>827</v>
       </c>
-      <c r="B246" t="s">
+      <c r="D246" t="s">
         <v>828</v>
-      </c>
-      <c r="C246" t="s">
-        <v>829</v>
-      </c>
-      <c r="D246" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>829</v>
+      </c>
+      <c r="B247" t="s">
+        <v>826</v>
+      </c>
+      <c r="C247" t="s">
+        <v>830</v>
+      </c>
+      <c r="D247" t="s">
         <v>831</v>
-      </c>
-      <c r="B247" t="s">
-        <v>828</v>
-      </c>
-      <c r="C247" t="s">
-        <v>832</v>
-      </c>
-      <c r="D247" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>832</v>
+      </c>
+      <c r="B248" t="s">
+        <v>826</v>
+      </c>
+      <c r="C248" t="s">
+        <v>833</v>
+      </c>
+      <c r="D248" t="s">
         <v>834</v>
-      </c>
-      <c r="B248" t="s">
-        <v>828</v>
-      </c>
-      <c r="C248" t="s">
-        <v>835</v>
-      </c>
-      <c r="D248" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B249" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C249" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D249" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B250" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C250" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D250" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>839</v>
+      </c>
+      <c r="B251" t="s">
+        <v>840</v>
+      </c>
+      <c r="C251" t="s">
+        <v>839</v>
+      </c>
+      <c r="D251" t="s">
         <v>841</v>
-      </c>
-      <c r="B251" t="s">
-        <v>842</v>
-      </c>
-      <c r="C251" t="s">
-        <v>841</v>
-      </c>
-      <c r="D251" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
@@ -8970,7 +9008,7 @@
         <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D252" t="s">
         <v>299</v>
@@ -8978,44 +9016,44 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>843</v>
+      </c>
+      <c r="B253" t="s">
+        <v>844</v>
+      </c>
+      <c r="C253" t="s">
         <v>845</v>
       </c>
-      <c r="B253" t="s">
+      <c r="D253" t="s">
         <v>846</v>
-      </c>
-      <c r="C253" t="s">
-        <v>847</v>
-      </c>
-      <c r="D253" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>847</v>
+      </c>
+      <c r="B254" t="s">
+        <v>848</v>
+      </c>
+      <c r="C254" t="s">
         <v>849</v>
       </c>
-      <c r="B254" t="s">
+      <c r="D254" t="s">
         <v>850</v>
-      </c>
-      <c r="C254" t="s">
-        <v>851</v>
-      </c>
-      <c r="D254" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>851</v>
+      </c>
+      <c r="B255" t="s">
+        <v>852</v>
+      </c>
+      <c r="C255" t="s">
         <v>853</v>
       </c>
-      <c r="B255" t="s">
+      <c r="D255" t="s">
         <v>854</v>
-      </c>
-      <c r="C255" t="s">
-        <v>855</v>
-      </c>
-      <c r="D255" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -9034,72 +9072,72 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B257" t="s">
         <v>96</v>
       </c>
       <c r="C257" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D257" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>858</v>
+      </c>
+      <c r="B258" t="s">
+        <v>859</v>
+      </c>
+      <c r="C258" t="s">
         <v>860</v>
       </c>
-      <c r="B258" t="s">
+      <c r="D258" t="s">
         <v>861</v>
-      </c>
-      <c r="C258" t="s">
-        <v>862</v>
-      </c>
-      <c r="D258" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>862</v>
+      </c>
+      <c r="B259" t="s">
+        <v>863</v>
+      </c>
+      <c r="C259" t="s">
         <v>864</v>
       </c>
-      <c r="B259" t="s">
+      <c r="D259" t="s">
         <v>865</v>
-      </c>
-      <c r="C259" t="s">
-        <v>866</v>
-      </c>
-      <c r="D259" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B260" t="s">
         <v>318</v>
       </c>
       <c r="C260" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D260" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>869</v>
+      </c>
+      <c r="B261" t="s">
+        <v>870</v>
+      </c>
+      <c r="C261" t="s">
         <v>871</v>
       </c>
-      <c r="B261" t="s">
+      <c r="D261" t="s">
         <v>872</v>
-      </c>
-      <c r="C261" t="s">
-        <v>873</v>
-      </c>
-      <c r="D261" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -9118,371 +9156,371 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>873</v>
+      </c>
+      <c r="B263" t="s">
+        <v>874</v>
+      </c>
+      <c r="C263" t="s">
         <v>875</v>
       </c>
-      <c r="B263" t="s">
+      <c r="D263" t="s">
         <v>876</v>
-      </c>
-      <c r="C263" t="s">
-        <v>877</v>
-      </c>
-      <c r="D263" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B264" t="s">
         <v>165</v>
       </c>
       <c r="C264" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D264" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B265" t="s">
         <v>225</v>
       </c>
       <c r="C265" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D265" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B266" t="s">
         <v>318</v>
       </c>
       <c r="C266" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D266" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>886</v>
+      </c>
+      <c r="B267" t="s">
+        <v>887</v>
+      </c>
+      <c r="C267" t="s">
         <v>888</v>
       </c>
-      <c r="B267" t="s">
+      <c r="D267" t="s">
         <v>889</v>
-      </c>
-      <c r="C267" t="s">
-        <v>890</v>
-      </c>
-      <c r="D267" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>890</v>
+      </c>
+      <c r="B268" t="s">
+        <v>891</v>
+      </c>
+      <c r="C268" t="s">
         <v>892</v>
       </c>
-      <c r="B268" t="s">
+      <c r="D268" t="s">
         <v>893</v>
-      </c>
-      <c r="C268" t="s">
-        <v>894</v>
-      </c>
-      <c r="D268" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>894</v>
+      </c>
+      <c r="B269" t="s">
+        <v>895</v>
+      </c>
+      <c r="C269" t="s">
         <v>896</v>
       </c>
-      <c r="B269" t="s">
+      <c r="D269" t="s">
         <v>897</v>
-      </c>
-      <c r="C269" t="s">
-        <v>898</v>
-      </c>
-      <c r="D269" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>898</v>
+      </c>
+      <c r="B270" t="s">
+        <v>899</v>
+      </c>
+      <c r="C270" t="s">
         <v>900</v>
       </c>
-      <c r="B270" t="s">
+      <c r="D270" t="s">
         <v>901</v>
-      </c>
-      <c r="C270" t="s">
-        <v>902</v>
-      </c>
-      <c r="D270" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>902</v>
+      </c>
+      <c r="B271" t="s">
+        <v>899</v>
+      </c>
+      <c r="C271" t="s">
+        <v>903</v>
+      </c>
+      <c r="D271" t="s">
         <v>904</v>
-      </c>
-      <c r="B271" t="s">
-        <v>901</v>
-      </c>
-      <c r="C271" t="s">
-        <v>905</v>
-      </c>
-      <c r="D271" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B272" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C272" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D272" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B273" t="s">
         <v>169</v>
       </c>
       <c r="C273" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D273" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>910</v>
+      </c>
+      <c r="B274" t="s">
+        <v>911</v>
+      </c>
+      <c r="C274" t="s">
         <v>912</v>
       </c>
-      <c r="B274" t="s">
+      <c r="D274" t="s">
         <v>913</v>
-      </c>
-      <c r="C274" t="s">
-        <v>914</v>
-      </c>
-      <c r="D274" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>914</v>
+      </c>
+      <c r="B275" t="s">
+        <v>915</v>
+      </c>
+      <c r="C275" t="s">
         <v>916</v>
       </c>
-      <c r="B275" t="s">
+      <c r="D275" t="s">
         <v>917</v>
-      </c>
-      <c r="C275" t="s">
-        <v>918</v>
-      </c>
-      <c r="D275" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B276" t="s">
         <v>194</v>
       </c>
       <c r="C276" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D276" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B277" t="s">
         <v>251</v>
       </c>
       <c r="C277" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D277" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>924</v>
+      </c>
+      <c r="B278" t="s">
+        <v>925</v>
+      </c>
+      <c r="C278" t="s">
+        <v>925</v>
+      </c>
+      <c r="D278" t="s">
         <v>926</v>
-      </c>
-      <c r="B278" t="s">
-        <v>927</v>
-      </c>
-      <c r="C278" t="s">
-        <v>927</v>
-      </c>
-      <c r="D278" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B279" t="s">
         <v>165</v>
       </c>
       <c r="C279" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D279" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>930</v>
+      </c>
+      <c r="B280" t="s">
+        <v>931</v>
+      </c>
+      <c r="C280" t="s">
+        <v>930</v>
+      </c>
+      <c r="D280" t="s">
         <v>932</v>
-      </c>
-      <c r="B280" t="s">
-        <v>933</v>
-      </c>
-      <c r="C280" t="s">
-        <v>932</v>
-      </c>
-      <c r="D280" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>933</v>
+      </c>
+      <c r="B281" t="s">
+        <v>934</v>
+      </c>
+      <c r="C281" t="s">
         <v>935</v>
       </c>
-      <c r="B281" t="s">
+      <c r="D281" t="s">
         <v>936</v>
-      </c>
-      <c r="C281" t="s">
-        <v>937</v>
-      </c>
-      <c r="D281" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>937</v>
+      </c>
+      <c r="B282" t="s">
+        <v>938</v>
+      </c>
+      <c r="C282" t="s">
         <v>939</v>
       </c>
-      <c r="B282" t="s">
+      <c r="D282" t="s">
         <v>940</v>
-      </c>
-      <c r="C282" t="s">
-        <v>941</v>
-      </c>
-      <c r="D282" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>941</v>
+      </c>
+      <c r="B283" t="s">
+        <v>942</v>
+      </c>
+      <c r="C283" t="s">
         <v>943</v>
       </c>
-      <c r="B283" t="s">
+      <c r="D283" t="s">
         <v>944</v>
-      </c>
-      <c r="C283" t="s">
-        <v>945</v>
-      </c>
-      <c r="D283" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>945</v>
+      </c>
+      <c r="B284" t="s">
+        <v>946</v>
+      </c>
+      <c r="C284" t="s">
         <v>947</v>
       </c>
-      <c r="B284" t="s">
+      <c r="D284" t="s">
         <v>948</v>
-      </c>
-      <c r="C284" t="s">
-        <v>949</v>
-      </c>
-      <c r="D284" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>949</v>
+      </c>
+      <c r="B285" t="s">
+        <v>950</v>
+      </c>
+      <c r="C285" t="s">
         <v>951</v>
       </c>
-      <c r="B285" t="s">
+      <c r="D285" t="s">
         <v>952</v>
-      </c>
-      <c r="C285" t="s">
-        <v>953</v>
-      </c>
-      <c r="D285" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>953</v>
+      </c>
+      <c r="B286" t="s">
+        <v>938</v>
+      </c>
+      <c r="C286" t="s">
+        <v>954</v>
+      </c>
+      <c r="D286" t="s">
         <v>955</v>
-      </c>
-      <c r="B286" t="s">
-        <v>940</v>
-      </c>
-      <c r="C286" t="s">
-        <v>956</v>
-      </c>
-      <c r="D286" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>956</v>
+      </c>
+      <c r="B287" t="s">
+        <v>957</v>
+      </c>
+      <c r="C287" t="s">
         <v>958</v>
       </c>
-      <c r="B287" t="s">
+      <c r="D287" t="s">
         <v>959</v>
-      </c>
-      <c r="C287" t="s">
-        <v>960</v>
-      </c>
-      <c r="D287" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B288" t="s">
         <v>259</v>
       </c>
       <c r="C288" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D288" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B289" t="s">
         <v>131</v>
@@ -9491,35 +9529,35 @@
         <v>132</v>
       </c>
       <c r="D289" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>965</v>
+      </c>
+      <c r="B290" t="s">
+        <v>966</v>
+      </c>
+      <c r="C290" t="s">
         <v>967</v>
       </c>
-      <c r="B290" t="s">
+      <c r="D290" t="s">
         <v>968</v>
-      </c>
-      <c r="C290" t="s">
-        <v>969</v>
-      </c>
-      <c r="D290" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>969</v>
+      </c>
+      <c r="B291" t="s">
+        <v>970</v>
+      </c>
+      <c r="C291" t="s">
         <v>971</v>
       </c>
-      <c r="B291" t="s">
+      <c r="D291" t="s">
         <v>972</v>
-      </c>
-      <c r="C291" t="s">
-        <v>973</v>
-      </c>
-      <c r="D291" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -9530,7 +9568,7 @@
         <v>31</v>
       </c>
       <c r="C292" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D292" t="s">
         <v>33</v>
@@ -9538,954 +9576,954 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>974</v>
+      </c>
+      <c r="B293" t="s">
+        <v>975</v>
+      </c>
+      <c r="C293" t="s">
+        <v>975</v>
+      </c>
+      <c r="D293" t="s">
         <v>976</v>
-      </c>
-      <c r="B293" t="s">
-        <v>977</v>
-      </c>
-      <c r="C293" t="s">
-        <v>977</v>
-      </c>
-      <c r="D293" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>977</v>
+      </c>
+      <c r="B294" t="s">
+        <v>978</v>
+      </c>
+      <c r="C294" t="s">
         <v>979</v>
       </c>
-      <c r="B294" t="s">
+      <c r="D294" t="s">
         <v>980</v>
-      </c>
-      <c r="C294" t="s">
-        <v>981</v>
-      </c>
-      <c r="D294" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>981</v>
+      </c>
+      <c r="B295" t="s">
+        <v>982</v>
+      </c>
+      <c r="C295" t="s">
         <v>983</v>
       </c>
-      <c r="B295" t="s">
+      <c r="D295" t="s">
         <v>984</v>
-      </c>
-      <c r="C295" t="s">
-        <v>985</v>
-      </c>
-      <c r="D295" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>985</v>
+      </c>
+      <c r="B296" t="s">
+        <v>986</v>
+      </c>
+      <c r="C296" t="s">
         <v>987</v>
       </c>
-      <c r="B296" t="s">
+      <c r="D296" t="s">
         <v>988</v>
-      </c>
-      <c r="C296" t="s">
-        <v>989</v>
-      </c>
-      <c r="D296" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>989</v>
+      </c>
+      <c r="B297" t="s">
+        <v>990</v>
+      </c>
+      <c r="C297" t="s">
         <v>991</v>
       </c>
-      <c r="B297" t="s">
+      <c r="D297" t="s">
         <v>992</v>
-      </c>
-      <c r="C297" t="s">
-        <v>993</v>
-      </c>
-      <c r="D297" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>993</v>
+      </c>
+      <c r="B298" t="s">
+        <v>994</v>
+      </c>
+      <c r="C298" t="s">
+        <v>993</v>
+      </c>
+      <c r="D298" t="s">
         <v>995</v>
-      </c>
-      <c r="B298" t="s">
-        <v>996</v>
-      </c>
-      <c r="C298" t="s">
-        <v>995</v>
-      </c>
-      <c r="D298" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>996</v>
+      </c>
+      <c r="B299" t="s">
+        <v>997</v>
+      </c>
+      <c r="C299" t="s">
+        <v>997</v>
+      </c>
+      <c r="D299" t="s">
         <v>998</v>
-      </c>
-      <c r="B299" t="s">
-        <v>999</v>
-      </c>
-      <c r="C299" t="s">
-        <v>999</v>
-      </c>
-      <c r="D299" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>999</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C300" t="s">
         <v>1001</v>
       </c>
-      <c r="B300" t="s">
+      <c r="D300" t="s">
         <v>1002</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D300" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B301" t="s">
+        <v>849</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D301" t="s">
         <v>1005</v>
-      </c>
-      <c r="B301" t="s">
-        <v>851</v>
-      </c>
-      <c r="C301" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D301" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C302" t="s">
         <v>1008</v>
       </c>
-      <c r="B302" t="s">
+      <c r="D302" t="s">
         <v>1009</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D302" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C303" t="s">
         <v>1012</v>
       </c>
-      <c r="B303" t="s">
+      <c r="D303" t="s">
         <v>1013</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D303" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C304" t="s">
         <v>1016</v>
       </c>
-      <c r="B304" t="s">
+      <c r="D304" t="s">
         <v>1017</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D304" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B305" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C305" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D305" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B306" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C306" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D306" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C307" t="s">
         <v>1024</v>
       </c>
-      <c r="B307" t="s">
+      <c r="D307" t="s">
         <v>1025</v>
-      </c>
-      <c r="C307" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D307" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C308" t="s">
         <v>1028</v>
       </c>
-      <c r="B308" t="s">
+      <c r="D308" t="s">
         <v>1029</v>
-      </c>
-      <c r="C308" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D308" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D309" t="s">
         <v>1032</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C309" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D309" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B310" t="s">
         <v>96</v>
       </c>
       <c r="C310" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D310" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D311" t="s">
         <v>1038</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C311" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D311" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B312" t="s">
+        <v>800</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D312" t="s">
         <v>1041</v>
-      </c>
-      <c r="B312" t="s">
-        <v>802</v>
-      </c>
-      <c r="C312" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D312" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C313" t="s">
         <v>1044</v>
       </c>
-      <c r="B313" t="s">
+      <c r="D313" t="s">
         <v>1045</v>
-      </c>
-      <c r="C313" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D313" t="s">
-        <v>1047</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B314" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C314" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="D314" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D315" t="s">
         <v>1050</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C315" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D315" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D316" t="s">
         <v>1053</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C316" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D316" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C317" t="s">
         <v>1056</v>
       </c>
-      <c r="B317" t="s">
+      <c r="D317" t="s">
         <v>1057</v>
-      </c>
-      <c r="C317" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D317" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C318" t="s">
         <v>1060</v>
       </c>
-      <c r="B318" t="s">
+      <c r="D318" t="s">
         <v>1061</v>
-      </c>
-      <c r="C318" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D318" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B319" t="s">
         <v>35</v>
       </c>
       <c r="C319" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D319" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C320" t="s">
         <v>1067</v>
       </c>
-      <c r="B320" t="s">
+      <c r="D320" t="s">
         <v>1068</v>
-      </c>
-      <c r="C320" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D320" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C321" t="s">
         <v>1071</v>
       </c>
-      <c r="B321" t="s">
+      <c r="D321" t="s">
         <v>1072</v>
-      </c>
-      <c r="C321" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D321" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
       </c>
       <c r="C322" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D322" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C323" t="s">
         <v>1078</v>
       </c>
-      <c r="B323" t="s">
+      <c r="D323" t="s">
         <v>1079</v>
-      </c>
-      <c r="C323" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D323" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C324" t="s">
         <v>1082</v>
       </c>
-      <c r="B324" t="s">
+      <c r="D324" t="s">
         <v>1083</v>
-      </c>
-      <c r="C324" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D324" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C325" t="s">
         <v>1086</v>
       </c>
-      <c r="B325" t="s">
+      <c r="D325" t="s">
         <v>1087</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D325" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B326" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C326" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D326" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B327" t="s">
         <v>229</v>
       </c>
       <c r="C327" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D327" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B328" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C328" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D328" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C329" t="s">
         <v>1097</v>
       </c>
-      <c r="B329" t="s">
+      <c r="D329" t="s">
         <v>1098</v>
-      </c>
-      <c r="C329" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D329" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B330" t="s">
         <v>16</v>
       </c>
       <c r="C330" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D330" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B331" t="s">
         <v>251</v>
       </c>
       <c r="C331" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D331" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C332" t="s">
         <v>1106</v>
       </c>
-      <c r="B332" t="s">
+      <c r="D332" t="s">
         <v>1107</v>
-      </c>
-      <c r="C332" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C333" t="s">
         <v>1110</v>
       </c>
-      <c r="B333" t="s">
+      <c r="D333" t="s">
         <v>1111</v>
-      </c>
-      <c r="C333" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C334" t="s">
         <v>1114</v>
       </c>
-      <c r="B334" t="s">
+      <c r="D334" t="s">
         <v>1115</v>
-      </c>
-      <c r="C334" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B335" t="s">
+        <v>975</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D335" t="s">
         <v>1118</v>
-      </c>
-      <c r="B335" t="s">
-        <v>977</v>
-      </c>
-      <c r="C335" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D336" t="s">
         <v>1121</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C337" t="s">
         <v>1124</v>
       </c>
-      <c r="B337" t="s">
+      <c r="D337" t="s">
         <v>1125</v>
-      </c>
-      <c r="C337" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D337" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C338" t="s">
         <v>1128</v>
       </c>
-      <c r="B338" t="s">
+      <c r="D338" t="s">
         <v>1129</v>
-      </c>
-      <c r="C338" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C339" t="s">
         <v>1132</v>
       </c>
-      <c r="B339" t="s">
+      <c r="D339" t="s">
         <v>1133</v>
-      </c>
-      <c r="C339" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B340" t="s">
+        <v>712</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D340" t="s">
         <v>1136</v>
-      </c>
-      <c r="B340" t="s">
-        <v>714</v>
-      </c>
-      <c r="C340" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C341" t="s">
         <v>1139</v>
       </c>
-      <c r="B341" t="s">
+      <c r="D341" t="s">
         <v>1140</v>
-      </c>
-      <c r="C341" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D341" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D342" t="s">
         <v>1143</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C343" t="s">
         <v>1146</v>
       </c>
-      <c r="B343" t="s">
+      <c r="D343" t="s">
         <v>1147</v>
-      </c>
-      <c r="C343" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D344" t="s">
         <v>1150</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C344" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="B345" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C345" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D345" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C346" t="s">
         <v>1155</v>
       </c>
-      <c r="B346" t="s">
+      <c r="D346" t="s">
         <v>1156</v>
-      </c>
-      <c r="C346" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D346" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C347" t="s">
         <v>1159</v>
       </c>
-      <c r="B347" t="s">
+      <c r="D347" t="s">
         <v>1160</v>
-      </c>
-      <c r="C347" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C348" t="s">
         <v>1163</v>
       </c>
-      <c r="B348" t="s">
+      <c r="D348" t="s">
         <v>1164</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C349" t="s">
         <v>1167</v>
       </c>
-      <c r="B349" t="s">
+      <c r="D349" t="s">
         <v>1168</v>
-      </c>
-      <c r="C349" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D350" t="s">
         <v>1171</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D351" t="s">
         <v>1174</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D351" t="s">
-        <v>1176</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C352" t="s">
         <v>1177</v>
       </c>
-      <c r="B352" t="s">
+      <c r="D352" t="s">
         <v>1178</v>
-      </c>
-      <c r="C352" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1180</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C353" t="s">
         <v>1181</v>
       </c>
-      <c r="B353" t="s">
+      <c r="D353" t="s">
         <v>1182</v>
-      </c>
-      <c r="C353" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C354" t="s">
         <v>1185</v>
       </c>
-      <c r="B354" t="s">
+      <c r="D354" t="s">
         <v>1186</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C355" t="s">
         <v>1189</v>
       </c>
-      <c r="B355" t="s">
+      <c r="D355" t="s">
         <v>1190</v>
-      </c>
-      <c r="C355" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C356" t="s">
         <v>1193</v>
       </c>
-      <c r="B356" t="s">
+      <c r="D356" t="s">
         <v>1194</v>
-      </c>
-      <c r="C356" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D356" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D357" t="s">
         <v>1197</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C358" t="s">
         <v>1200</v>
       </c>
-      <c r="B358" t="s">
+      <c r="D358" t="s">
         <v>1201</v>
-      </c>
-      <c r="C358" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C359" t="s">
         <v>1204</v>
       </c>
-      <c r="B359" t="s">
+      <c r="D359" t="s">
         <v>1205</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D360" t="s">
         <v>1208</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -10496,105 +10534,105 @@
         <v>58</v>
       </c>
       <c r="C361" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D361" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C362" t="s">
         <v>1213</v>
       </c>
-      <c r="B362" t="s">
+      <c r="D362" t="s">
         <v>1214</v>
-      </c>
-      <c r="C362" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D362" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C363" t="s">
         <v>1217</v>
       </c>
-      <c r="B363" t="s">
+      <c r="D363" t="s">
         <v>1218</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C364" t="s">
         <v>1221</v>
       </c>
-      <c r="B364" t="s">
+      <c r="D364" t="s">
         <v>1222</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1223</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C365" t="s">
         <v>1225</v>
       </c>
-      <c r="B365" t="s">
+      <c r="D365" t="s">
         <v>1226</v>
-      </c>
-      <c r="C365" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D366" t="s">
         <v>1229</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1230</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B367" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C367" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D367" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B368" t="s">
         <v>428</v>
       </c>
       <c r="C368" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D368" t="s">
         <v>430</v>
@@ -10602,16 +10640,16 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C369" t="s">
         <v>1236</v>
       </c>
-      <c r="B369" t="s">
+      <c r="D369" t="s">
         <v>1237</v>
-      </c>
-      <c r="C369" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -10625,49 +10663,49 @@
         <v>65</v>
       </c>
       <c r="D370" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B371" t="s">
         <v>417</v>
       </c>
       <c r="C371" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D371" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C372" t="s">
         <v>1244</v>
       </c>
-      <c r="B372" t="s">
+      <c r="D372" t="s">
         <v>1245</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B373" t="s">
         <v>109</v>
       </c>
       <c r="C373" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D373" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -10686,86 +10724,86 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B375" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C375" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D375" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C376" t="s">
         <v>1252</v>
       </c>
-      <c r="B376" t="s">
+      <c r="D376" t="s">
         <v>1253</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C377" t="s">
         <v>1256</v>
       </c>
-      <c r="B377" t="s">
+      <c r="D377" t="s">
         <v>1257</v>
-      </c>
-      <c r="C377" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B378" t="s">
         <v>289</v>
       </c>
       <c r="C378" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D378" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C379" t="s">
         <v>1263</v>
       </c>
-      <c r="B379" t="s">
+      <c r="D379" t="s">
         <v>1264</v>
-      </c>
-      <c r="C379" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D380" t="s">
         <v>1267</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C380" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -10773,88 +10811,88 @@
         <v>17</v>
       </c>
       <c r="B381" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C381">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C382" t="s">
         <v>1272</v>
       </c>
-      <c r="B382" t="s">
+      <c r="D382" t="s">
         <v>1273</v>
-      </c>
-      <c r="C382" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C383" t="s">
         <v>1276</v>
       </c>
-      <c r="B383" t="s">
+      <c r="D383" t="s">
         <v>1277</v>
-      </c>
-      <c r="C383" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C384" t="s">
         <v>1280</v>
       </c>
-      <c r="B384" t="s">
+      <c r="D384" t="s">
         <v>1281</v>
-      </c>
-      <c r="C384" t="s">
-        <v>1282</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C385" t="s">
         <v>1284</v>
       </c>
-      <c r="B385" t="s">
+      <c r="D385" t="s">
         <v>1285</v>
-      </c>
-      <c r="C385" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B386" t="s">
         <v>460</v>
       </c>
       <c r="C386" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D386" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B387" t="s">
         <v>221</v>
@@ -10863,119 +10901,119 @@
         <v>222</v>
       </c>
       <c r="D387" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B388" t="s">
         <v>96</v>
       </c>
       <c r="C388" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D388" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C389" t="s">
         <v>1296</v>
       </c>
-      <c r="B389" t="s">
+      <c r="D389" t="s">
         <v>1297</v>
-      </c>
-      <c r="C389" t="s">
-        <v>1298</v>
-      </c>
-      <c r="D389" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B390" t="s">
         <v>96</v>
       </c>
       <c r="C390" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D390" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D391" t="s">
         <v>1302</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C391" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B392" t="s">
         <v>155</v>
       </c>
       <c r="C392" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D392" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B393" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C393" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D393" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B394" t="s">
         <v>169</v>
       </c>
       <c r="C394" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D394" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D395" t="s">
         <v>1312</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C395" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D395" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -10986,7 +11024,7 @@
         <v>16</v>
       </c>
       <c r="C396" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D396" t="s">
         <v>18</v>
@@ -10994,41 +11032,41 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C397" t="s">
+        <v>695</v>
+      </c>
+      <c r="D397" t="s">
         <v>1315</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C397" t="s">
-        <v>697</v>
-      </c>
-      <c r="D397" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C398" t="s">
         <v>1318</v>
       </c>
-      <c r="B398" t="s">
+      <c r="D398" t="s">
         <v>1319</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B399" t="s">
         <v>177</v>
       </c>
       <c r="C399" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D399" t="s">
         <v>179</v>
@@ -11036,352 +11074,352 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B400" t="s">
         <v>112</v>
       </c>
       <c r="C400" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D400" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B401" t="s">
         <v>155</v>
       </c>
       <c r="C401" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D401" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C402" t="s">
         <v>1328</v>
       </c>
-      <c r="B402" t="s">
+      <c r="D402" t="s">
         <v>1329</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D402" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C403" t="s">
         <v>1332</v>
       </c>
-      <c r="B403" t="s">
+      <c r="D403" t="s">
         <v>1333</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D403" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C404" t="s">
         <v>1336</v>
       </c>
-      <c r="B404" t="s">
+      <c r="D404" t="s">
         <v>1337</v>
-      </c>
-      <c r="C404" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D405" t="s">
         <v>1340</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D405" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B406" t="s">
         <v>112</v>
       </c>
       <c r="C406" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="D406" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D407" t="s">
         <v>1345</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C407" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D407" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B408" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C408" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="D408" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D409" t="s">
         <v>1350</v>
-      </c>
-      <c r="B409" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1350</v>
-      </c>
-      <c r="D409" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C410" t="s">
         <v>1353</v>
       </c>
-      <c r="B410" t="s">
+      <c r="D410" t="s">
         <v>1354</v>
-      </c>
-      <c r="C410" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B411" t="s">
         <v>162</v>
       </c>
       <c r="C411" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="D411" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C412" t="s">
         <v>1359</v>
       </c>
-      <c r="B412" t="s">
+      <c r="D412" t="s">
         <v>1360</v>
-      </c>
-      <c r="C412" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B413" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C413" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="D413" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B414" t="s">
         <v>206</v>
       </c>
       <c r="C414" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D414" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C415" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D415" t="s">
         <v>1367</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C416" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D416" t="s">
         <v>1370</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D416" t="s">
-        <v>1372</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C417" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D417" t="s">
         <v>1373</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C417" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D417" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C418" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D418" t="s">
         <v>1376</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B419" t="s">
+        <v>848</v>
+      </c>
+      <c r="C419" t="s">
+        <v>847</v>
+      </c>
+      <c r="D419" t="s">
         <v>850</v>
-      </c>
-      <c r="C419" t="s">
-        <v>849</v>
-      </c>
-      <c r="D419" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C420" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D420" t="s">
         <v>1379</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C420" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D420" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C421" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D421" t="s">
         <v>1382</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C422" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D422" t="s">
         <v>1385</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C422" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C423" t="s">
         <v>1388</v>
       </c>
-      <c r="B423" t="s">
+      <c r="D423" t="s">
         <v>1389</v>
-      </c>
-      <c r="C423" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C424" t="s">
         <v>1392</v>
       </c>
-      <c r="B424" t="s">
+      <c r="D424" t="s">
         <v>1393</v>
-      </c>
-      <c r="C424" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -11392,7 +11430,7 @@
         <v>272</v>
       </c>
       <c r="C425" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D425" t="s">
         <v>273</v>
@@ -11400,142 +11438,142 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C426" t="s">
         <v>1397</v>
       </c>
-      <c r="B426" t="s">
+      <c r="D426" t="s">
         <v>1398</v>
-      </c>
-      <c r="C426" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D426" t="s">
-        <v>1400</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C427" t="s">
         <v>1401</v>
       </c>
-      <c r="B427" t="s">
+      <c r="D427" t="s">
         <v>1402</v>
-      </c>
-      <c r="C427" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D427" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D428" t="s">
         <v>1405</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C428" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D428" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B429" t="s">
         <v>155</v>
       </c>
       <c r="C429" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D429" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C430" t="s">
         <v>1411</v>
       </c>
-      <c r="B430" t="s">
+      <c r="D430" t="s">
         <v>1412</v>
-      </c>
-      <c r="C430" t="s">
-        <v>1413</v>
-      </c>
-      <c r="D430" t="s">
-        <v>1414</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C431" t="s">
         <v>1415</v>
       </c>
-      <c r="B431" t="s">
+      <c r="D431" t="s">
         <v>1416</v>
-      </c>
-      <c r="C431" t="s">
-        <v>1417</v>
-      </c>
-      <c r="D431" t="s">
-        <v>1418</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C432" t="s">
         <v>1419</v>
       </c>
-      <c r="B432" t="s">
+      <c r="D432" t="s">
         <v>1420</v>
-      </c>
-      <c r="C432" t="s">
-        <v>1421</v>
-      </c>
-      <c r="D432" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C433" t="s">
         <v>1423</v>
       </c>
-      <c r="B433" t="s">
+      <c r="D433" t="s">
         <v>1424</v>
-      </c>
-      <c r="C433" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D433" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B434" t="s">
         <v>262</v>
       </c>
       <c r="C434" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="D434" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C435" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D435" t="s">
         <v>1429</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C435" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D435" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -11546,7 +11584,7 @@
         <v>255</v>
       </c>
       <c r="C436" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="D436" t="s">
         <v>257</v>
@@ -11554,44 +11592,44 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C437" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D437" t="s">
         <v>1433</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C437" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D437" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D438" t="s">
         <v>1436</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1437</v>
-      </c>
-      <c r="C438" t="s">
-        <v>1436</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1438</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B439" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D439" t="s">
         <v>1194</v>
-      </c>
-      <c r="C439" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D439" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -11624,632 +11662,632 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B442" t="s">
         <v>102</v>
       </c>
       <c r="C442" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D442" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B443" t="s">
         <v>262</v>
       </c>
       <c r="C443" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="D443" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B444" t="s">
         <v>83</v>
       </c>
       <c r="C444" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D444" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B445" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C445" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D445" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C446" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D446" t="s">
         <v>1450</v>
-      </c>
-      <c r="B446" t="s">
-        <v>1451</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1450</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B447" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C447" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D447" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B448" t="s">
         <v>112</v>
       </c>
       <c r="C448" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="D448" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B449" t="s">
+        <v>610</v>
+      </c>
+      <c r="C449" t="s">
+        <v>609</v>
+      </c>
+      <c r="D449" t="s">
         <v>612</v>
-      </c>
-      <c r="C449" t="s">
-        <v>611</v>
-      </c>
-      <c r="D449" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C450" t="s">
         <v>1457</v>
       </c>
-      <c r="B450" t="s">
+      <c r="D450" t="s">
         <v>1458</v>
-      </c>
-      <c r="C450" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D450" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C451" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D451" t="s">
         <v>1461</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C451" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D451" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C452" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D452" t="s">
         <v>1464</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C452" t="s">
-        <v>1464</v>
-      </c>
-      <c r="D452" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B453" t="s">
+        <v>531</v>
+      </c>
+      <c r="C453" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D453" t="s">
         <v>1467</v>
-      </c>
-      <c r="B453" t="s">
-        <v>532</v>
-      </c>
-      <c r="C453" t="s">
-        <v>1468</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B454" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C454" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="D454" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>530</v>
+      </c>
+      <c r="B455" t="s">
         <v>531</v>
       </c>
-      <c r="B455" t="s">
-        <v>532</v>
-      </c>
       <c r="C455" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="D455" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B456" t="s">
+        <v>531</v>
+      </c>
+      <c r="C456" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D456" t="s">
         <v>1472</v>
-      </c>
-      <c r="B456" t="s">
-        <v>532</v>
-      </c>
-      <c r="C456" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C457" t="s">
         <v>1475</v>
       </c>
-      <c r="B457" t="s">
+      <c r="D457" t="s">
         <v>1476</v>
-      </c>
-      <c r="C457" t="s">
-        <v>1477</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B458" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C458" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D458" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B459" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C459" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="D459" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C460" t="s">
         <v>1483</v>
       </c>
-      <c r="B460" t="s">
+      <c r="D460" t="s">
         <v>1484</v>
-      </c>
-      <c r="C460" t="s">
-        <v>1485</v>
-      </c>
-      <c r="D460" t="s">
-        <v>1486</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C461" t="s">
         <v>1487</v>
       </c>
-      <c r="B461" t="s">
+      <c r="D461" t="s">
         <v>1488</v>
-      </c>
-      <c r="C461" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D461" t="s">
-        <v>1490</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C462" t="s">
         <v>1491</v>
       </c>
-      <c r="B462" t="s">
+      <c r="D462" t="s">
         <v>1492</v>
-      </c>
-      <c r="C462" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D462" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C463" t="s">
         <v>1495</v>
       </c>
-      <c r="B463" t="s">
+      <c r="D463" t="s">
         <v>1496</v>
-      </c>
-      <c r="C463" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D463" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C464" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D464" t="s">
         <v>1499</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C464" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C465" t="s">
         <v>1502</v>
       </c>
-      <c r="B465" t="s">
+      <c r="D465" t="s">
         <v>1503</v>
-      </c>
-      <c r="C465" t="s">
-        <v>1504</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C466" t="s">
         <v>1506</v>
       </c>
-      <c r="B466" t="s">
+      <c r="D466" t="s">
         <v>1507</v>
-      </c>
-      <c r="C466" t="s">
-        <v>1508</v>
-      </c>
-      <c r="D466" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C467" t="s">
         <v>1510</v>
       </c>
-      <c r="B467" t="s">
+      <c r="D467" t="s">
         <v>1511</v>
-      </c>
-      <c r="C467" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D467" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C468" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D468" t="s">
         <v>1514</v>
-      </c>
-      <c r="B468" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D468" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C469" t="s">
         <v>1517</v>
       </c>
-      <c r="B469" t="s">
+      <c r="D469" t="s">
         <v>1518</v>
-      </c>
-      <c r="C469" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D469" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C470" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D470" t="s">
         <v>1521</v>
-      </c>
-      <c r="B470" t="s">
-        <v>1522</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C471" t="s">
         <v>1524</v>
       </c>
-      <c r="B471" t="s">
+      <c r="D471" t="s">
         <v>1525</v>
-      </c>
-      <c r="C471" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D471" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C472" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D472" t="s">
         <v>1528</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C472" t="s">
-        <v>1528</v>
-      </c>
-      <c r="D472" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C473" t="s">
         <v>1531</v>
       </c>
-      <c r="B473" t="s">
+      <c r="D473" t="s">
         <v>1532</v>
-      </c>
-      <c r="C473" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D473" t="s">
-        <v>1534</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C474" t="s">
         <v>1535</v>
       </c>
-      <c r="B474" t="s">
+      <c r="D474" t="s">
         <v>1536</v>
-      </c>
-      <c r="C474" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C475" t="s">
         <v>1539</v>
       </c>
-      <c r="B475" t="s">
+      <c r="D475" t="s">
         <v>1540</v>
-      </c>
-      <c r="C475" t="s">
-        <v>1541</v>
-      </c>
-      <c r="D475" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C476" t="s">
         <v>1543</v>
       </c>
-      <c r="B476" t="s">
+      <c r="D476" t="s">
         <v>1544</v>
-      </c>
-      <c r="C476" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C477" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D477" t="s">
         <v>1547</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B478" t="s">
+        <v>852</v>
+      </c>
+      <c r="C478" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D478" t="s">
         <v>1550</v>
-      </c>
-      <c r="B478" t="s">
-        <v>854</v>
-      </c>
-      <c r="C478" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B479" t="s">
         <v>356</v>
       </c>
       <c r="C479" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D479" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C480" t="s">
         <v>1555</v>
       </c>
-      <c r="B480" t="s">
+      <c r="D480" t="s">
         <v>1556</v>
-      </c>
-      <c r="C480" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D480" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C481" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D481" t="s">
         <v>1559</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1560</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C482" t="s">
         <v>1562</v>
       </c>
-      <c r="B482" t="s">
+      <c r="D482" t="s">
         <v>1563</v>
-      </c>
-      <c r="C482" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C483" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D483" t="s">
         <v>1197</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C483" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D483" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B484" t="s">
+        <v>681</v>
+      </c>
+      <c r="C484" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D484" t="s">
         <v>1566</v>
-      </c>
-      <c r="B484" t="s">
-        <v>683</v>
-      </c>
-      <c r="C484" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D484" t="s">
-        <v>1568</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C485" t="s">
         <v>1569</v>
       </c>
-      <c r="B485" t="s">
+      <c r="D485" t="s">
         <v>1570</v>
-      </c>
-      <c r="C485" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C486" t="s">
         <v>1573</v>
       </c>
-      <c r="B486" t="s">
+      <c r="D486" t="s">
         <v>1574</v>
-      </c>
-      <c r="C486" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -12260,7 +12298,7 @@
         <v>62</v>
       </c>
       <c r="C487" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="D487" t="s">
         <v>64</v>
@@ -12268,49 +12306,49 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C488" t="s">
         <v>1578</v>
       </c>
-      <c r="B488" t="s">
+      <c r="D488" t="s">
         <v>1579</v>
-      </c>
-      <c r="C488" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C489" t="s">
         <v>1582</v>
       </c>
-      <c r="B489" t="s">
+      <c r="D489" t="s">
         <v>1583</v>
-      </c>
-      <c r="C489" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D489" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C490" t="s">
         <v>1586</v>
       </c>
-      <c r="B490" t="s">
+      <c r="D490" t="s">
         <v>1587</v>
-      </c>
-      <c r="C490" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="B491" t="s">
         <v>460</v>
@@ -12319,21 +12357,21 @@
         <v>461</v>
       </c>
       <c r="D491" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C492" t="s">
         <v>1591</v>
       </c>
-      <c r="B492" t="s">
+      <c r="D492" t="s">
         <v>1592</v>
-      </c>
-      <c r="C492" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1594</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -12344,7 +12382,7 @@
         <v>135</v>
       </c>
       <c r="C493" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="D493" t="s">
         <v>137</v>
@@ -12352,198 +12390,198 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="B494" t="s">
         <v>255</v>
       </c>
       <c r="C494" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D494" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C495" t="s">
         <v>1599</v>
       </c>
-      <c r="B495" t="s">
+      <c r="D495" t="s">
         <v>1600</v>
-      </c>
-      <c r="C495" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B496" t="s">
+        <v>685</v>
+      </c>
+      <c r="C496" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D496" t="s">
         <v>1603</v>
-      </c>
-      <c r="B496" t="s">
-        <v>687</v>
-      </c>
-      <c r="C496" t="s">
-        <v>1604</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C497" t="s">
         <v>1606</v>
       </c>
-      <c r="B497" t="s">
+      <c r="D497" t="s">
         <v>1607</v>
-      </c>
-      <c r="C497" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C498" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D498" t="s">
         <v>1610</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1610</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C499" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D499" t="s">
         <v>1613</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C499" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B500" t="s">
         <v>435</v>
       </c>
       <c r="C500" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D500" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C501" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D501" t="s">
         <v>1618</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C502" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D502" t="s">
         <v>1621</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C502" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B503" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="C503" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="D503" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C504" t="s">
         <v>1626</v>
       </c>
-      <c r="B504" t="s">
+      <c r="D504" t="s">
         <v>1627</v>
-      </c>
-      <c r="C504" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C505" t="s">
         <v>1401</v>
       </c>
-      <c r="B505" t="s">
+      <c r="D505" t="s">
         <v>1402</v>
-      </c>
-      <c r="C505" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C506" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D506" t="s">
         <v>1461</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C507" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D507" t="s">
         <v>1630</v>
-      </c>
-      <c r="B507" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1632</v>
       </c>
     </row>
   </sheetData>

--- a/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
+++ b/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FD473-6007-4F24-AAD4-96AB87C4407A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18485D-7764-4CB2-AF94-71D285FFD659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2316,9 +2316,6 @@
     <t>USEE10340526</t>
   </si>
   <si>
-    <t>When Did Your Heart Go Missing?</t>
-  </si>
-  <si>
     <t>Rooney</t>
   </si>
   <si>
@@ -5133,6 +5130,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Pt. 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When Did Your Heart Go Missing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
     </r>
   </si>
 </sst>
@@ -5474,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5530,7 +5549,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -5544,7 +5563,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -5642,7 +5661,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -5656,7 +5675,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -5684,7 +5703,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -5740,7 +5759,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -5768,7 +5787,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -5810,7 +5829,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -7602,7 +7621,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B152" t="s">
         <v>516</v>
@@ -7812,7 +7831,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B167" t="s">
         <v>572</v>
@@ -8301,7 +8320,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="A202" s="1" t="s">
         <v>687</v>
       </c>
       <c r="B202" t="s">
@@ -8315,7 +8334,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="A203" s="1" t="s">
         <v>463</v>
       </c>
       <c r="B203" t="s">
@@ -8329,7 +8348,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="A204" s="2" t="s">
         <v>691</v>
       </c>
       <c r="B204" t="s">
@@ -8343,7 +8362,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="A205" s="1" t="s">
         <v>695</v>
       </c>
       <c r="B205" t="s">
@@ -8357,7 +8376,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="A206" s="1" t="s">
         <v>699</v>
       </c>
       <c r="B206" t="s">
@@ -8371,7 +8390,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="1" t="s">
         <v>703</v>
       </c>
       <c r="B207" t="s">
@@ -8385,7 +8404,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="A208" s="1" t="s">
         <v>707</v>
       </c>
       <c r="B208" t="s">
@@ -8399,7 +8418,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="A209" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B209" t="s">
@@ -8413,7 +8432,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="A210" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B210" t="s">
@@ -8427,7 +8446,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="A211" s="1" t="s">
         <v>719</v>
       </c>
       <c r="B211" t="s">
@@ -8441,7 +8460,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="A212" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B212" t="s">
@@ -8455,7 +8474,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="A213" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B213" t="s">
@@ -8469,7 +8488,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="A214" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B214" t="s">
@@ -8483,7 +8502,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="A215" s="1" t="s">
         <v>732</v>
       </c>
       <c r="B215" t="s">
@@ -8497,7 +8516,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="A216" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B216" t="s">
@@ -8511,7 +8530,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="A217" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B217" t="s">
@@ -8525,7 +8544,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="A218" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B218" t="s">
@@ -8539,7 +8558,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="A219" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B219" t="s">
@@ -8553,7 +8572,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="A220" s="2" t="s">
         <v>747</v>
       </c>
       <c r="B220" t="s">
@@ -8567,7 +8586,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="A221" s="1" t="s">
         <v>750</v>
       </c>
       <c r="B221" t="s">
@@ -8581,7 +8600,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="A222" s="1" t="s">
         <v>754</v>
       </c>
       <c r="B222" t="s">
@@ -8596,114 +8615,114 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B223" t="s">
         <v>758</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>759</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>760</v>
       </c>
-      <c r="D223" t="s">
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
+      <c r="B224" t="s">
         <v>762</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>763</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>764</v>
       </c>
-      <c r="D224" t="s">
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="B225" t="s">
         <v>766</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>767</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>768</v>
       </c>
-      <c r="D225" t="s">
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="B226" t="s">
         <v>770</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>771</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>772</v>
       </c>
-      <c r="D226" t="s">
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>774</v>
       </c>
       <c r="B227" t="s">
         <v>751</v>
       </c>
       <c r="C227" t="s">
+        <v>774</v>
+      </c>
+      <c r="D227" t="s">
         <v>775</v>
       </c>
-      <c r="D227" t="s">
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="B228" t="s">
         <v>777</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>778</v>
       </c>
-      <c r="C228" t="s">
+      <c r="D228" t="s">
         <v>779</v>
       </c>
-      <c r="D228" t="s">
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="B229" t="s">
         <v>781</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>782</v>
       </c>
-      <c r="C229" t="s">
+      <c r="D229" t="s">
         <v>783</v>
       </c>
-      <c r="D229" t="s">
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
+      <c r="B230" t="s">
         <v>785</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>786</v>
       </c>
-      <c r="C230" t="s">
+      <c r="D230" t="s">
         <v>787</v>
-      </c>
-      <c r="D230" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -8711,199 +8730,199 @@
         <v>2002</v>
       </c>
       <c r="B231" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C231">
         <v>2002</v>
       </c>
       <c r="D231" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
+      <c r="B232" t="s">
         <v>791</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
+        <v>790</v>
+      </c>
+      <c r="D232" t="s">
         <v>792</v>
       </c>
-      <c r="C232" t="s">
-        <v>791</v>
-      </c>
-      <c r="D232" t="s">
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
         <v>793</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>794</v>
       </c>
       <c r="B233" t="s">
         <v>610</v>
       </c>
       <c r="C233" t="s">
+        <v>793</v>
+      </c>
+      <c r="D233" t="s">
         <v>794</v>
       </c>
-      <c r="D233" t="s">
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="B234" t="s">
         <v>796</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
+        <v>795</v>
+      </c>
+      <c r="D234" t="s">
         <v>797</v>
       </c>
-      <c r="C234" t="s">
-        <v>796</v>
-      </c>
-      <c r="D234" t="s">
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="B235" t="s">
         <v>799</v>
-      </c>
-      <c r="B235" t="s">
-        <v>800</v>
       </c>
       <c r="C235">
         <v>1989</v>
       </c>
       <c r="D235" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>801</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>802</v>
       </c>
       <c r="B236" t="s">
         <v>318</v>
       </c>
       <c r="C236" t="s">
+        <v>801</v>
+      </c>
+      <c r="D236" t="s">
         <v>802</v>
       </c>
-      <c r="D236" t="s">
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
         <v>803</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>804</v>
       </c>
       <c r="B237" t="s">
         <v>177</v>
       </c>
       <c r="C237" t="s">
+        <v>803</v>
+      </c>
+      <c r="D237" t="s">
         <v>804</v>
       </c>
-      <c r="D237" t="s">
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="B238" t="s">
         <v>806</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
+        <v>805</v>
+      </c>
+      <c r="D238" t="s">
         <v>807</v>
       </c>
-      <c r="C238" t="s">
-        <v>806</v>
-      </c>
-      <c r="D238" t="s">
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>808</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>809</v>
       </c>
       <c r="B239" t="s">
         <v>105</v>
       </c>
       <c r="C239" t="s">
+        <v>809</v>
+      </c>
+      <c r="D239" t="s">
         <v>810</v>
       </c>
-      <c r="D239" t="s">
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>811</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>812</v>
       </c>
       <c r="B240" t="s">
         <v>105</v>
       </c>
       <c r="C240" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D240" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="B241" t="s">
         <v>814</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
+        <v>813</v>
+      </c>
+      <c r="D241" t="s">
         <v>815</v>
       </c>
-      <c r="C241" t="s">
-        <v>814</v>
-      </c>
-      <c r="D241" t="s">
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="B242" t="s">
+        <v>791</v>
+      </c>
+      <c r="C242" t="s">
+        <v>816</v>
+      </c>
+      <c r="D242" t="s">
         <v>817</v>
       </c>
-      <c r="B242" t="s">
-        <v>792</v>
-      </c>
-      <c r="C242" t="s">
-        <v>817</v>
-      </c>
-      <c r="D242" t="s">
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="B243" t="s">
         <v>819</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
+        <v>818</v>
+      </c>
+      <c r="D243" t="s">
         <v>820</v>
       </c>
-      <c r="C243" t="s">
-        <v>819</v>
-      </c>
-      <c r="D243" t="s">
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>821</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>822</v>
       </c>
       <c r="B244" t="s">
         <v>54</v>
       </c>
       <c r="C244" t="s">
+        <v>822</v>
+      </c>
+      <c r="D244" t="s">
         <v>823</v>
       </c>
-      <c r="D244" t="s">
-        <v>824</v>
-      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="A245" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B245" t="s">
@@ -8917,147 +8936,147 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="A246" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B246" t="s">
         <v>825</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>826</v>
       </c>
-      <c r="C246" t="s">
+      <c r="D246" t="s">
         <v>827</v>
       </c>
-      <c r="D246" t="s">
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="B247" t="s">
+        <v>825</v>
+      </c>
+      <c r="C247" t="s">
         <v>829</v>
       </c>
-      <c r="B247" t="s">
-        <v>826</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="D247" t="s">
         <v>830</v>
       </c>
-      <c r="D247" t="s">
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="B248" t="s">
+        <v>825</v>
+      </c>
+      <c r="C248" t="s">
         <v>832</v>
       </c>
-      <c r="B248" t="s">
-        <v>826</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="D248" t="s">
         <v>833</v>
       </c>
-      <c r="D248" t="s">
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="B249" t="s">
+        <v>825</v>
+      </c>
+      <c r="C249" t="s">
+        <v>832</v>
+      </c>
+      <c r="D249" t="s">
         <v>835</v>
       </c>
-      <c r="B249" t="s">
-        <v>826</v>
-      </c>
-      <c r="C249" t="s">
-        <v>833</v>
-      </c>
-      <c r="D249" t="s">
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="B250" t="s">
+        <v>825</v>
+      </c>
+      <c r="C250" t="s">
+        <v>832</v>
+      </c>
+      <c r="D250" t="s">
         <v>837</v>
       </c>
-      <c r="B250" t="s">
-        <v>826</v>
-      </c>
-      <c r="C250" t="s">
-        <v>833</v>
-      </c>
-      <c r="D250" t="s">
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="B251" t="s">
         <v>839</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
+        <v>838</v>
+      </c>
+      <c r="D251" t="s">
         <v>840</v>
       </c>
-      <c r="C251" t="s">
-        <v>839</v>
-      </c>
-      <c r="D251" t="s">
-        <v>841</v>
-      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="A252" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B252" t="s">
         <v>255</v>
       </c>
       <c r="C252" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D252" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="A253" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B253" t="s">
         <v>843</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>844</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
         <v>845</v>
       </c>
-      <c r="D253" t="s">
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="B254" t="s">
         <v>847</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>848</v>
       </c>
-      <c r="C254" t="s">
+      <c r="D254" t="s">
         <v>849</v>
       </c>
-      <c r="D254" t="s">
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="B255" t="s">
         <v>851</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>852</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
         <v>853</v>
       </c>
-      <c r="D255" t="s">
-        <v>854</v>
-      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="A256" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B256" t="s">
@@ -9071,77 +9090,77 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>855</v>
+      <c r="A257" s="1" t="s">
+        <v>854</v>
       </c>
       <c r="B257" t="s">
         <v>96</v>
       </c>
       <c r="C257" t="s">
+        <v>855</v>
+      </c>
+      <c r="D257" t="s">
         <v>856</v>
       </c>
-      <c r="D257" t="s">
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="B258" t="s">
         <v>858</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>859</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>860</v>
       </c>
-      <c r="D258" t="s">
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="B259" t="s">
         <v>862</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>863</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
         <v>864</v>
       </c>
-      <c r="D259" t="s">
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>865</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>866</v>
       </c>
       <c r="B260" t="s">
         <v>318</v>
       </c>
       <c r="C260" t="s">
+        <v>866</v>
+      </c>
+      <c r="D260" t="s">
         <v>867</v>
       </c>
-      <c r="D260" t="s">
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="B261" t="s">
         <v>869</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>870</v>
       </c>
-      <c r="C261" t="s">
+      <c r="D261" t="s">
         <v>871</v>
       </c>
-      <c r="D261" t="s">
-        <v>872</v>
-      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="A262" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B262" t="s">
@@ -9155,372 +9174,372 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
+      <c r="A263" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B263" t="s">
         <v>873</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>874</v>
       </c>
-      <c r="C263" t="s">
+      <c r="D263" t="s">
         <v>875</v>
       </c>
-      <c r="D263" t="s">
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>876</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>877</v>
       </c>
       <c r="B264" t="s">
         <v>165</v>
       </c>
       <c r="C264" t="s">
+        <v>877</v>
+      </c>
+      <c r="D264" t="s">
         <v>878</v>
       </c>
-      <c r="D264" t="s">
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>879</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>880</v>
       </c>
       <c r="B265" t="s">
         <v>225</v>
       </c>
       <c r="C265" t="s">
+        <v>880</v>
+      </c>
+      <c r="D265" t="s">
         <v>881</v>
       </c>
-      <c r="D265" t="s">
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>882</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>883</v>
       </c>
       <c r="B266" t="s">
         <v>318</v>
       </c>
       <c r="C266" t="s">
+        <v>883</v>
+      </c>
+      <c r="D266" t="s">
         <v>884</v>
       </c>
-      <c r="D266" t="s">
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
+      <c r="B267" t="s">
         <v>886</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>887</v>
       </c>
-      <c r="C267" t="s">
+      <c r="D267" t="s">
         <v>888</v>
       </c>
-      <c r="D267" t="s">
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+      <c r="B268" t="s">
         <v>890</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>891</v>
       </c>
-      <c r="C268" t="s">
+      <c r="D268" t="s">
         <v>892</v>
       </c>
-      <c r="D268" t="s">
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+      <c r="B269" t="s">
         <v>894</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>895</v>
       </c>
-      <c r="C269" t="s">
+      <c r="D269" t="s">
         <v>896</v>
       </c>
-      <c r="D269" t="s">
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
+      <c r="B270" t="s">
         <v>898</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>899</v>
       </c>
-      <c r="C270" t="s">
+      <c r="D270" t="s">
         <v>900</v>
       </c>
-      <c r="D270" t="s">
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+      <c r="B271" t="s">
+        <v>898</v>
+      </c>
+      <c r="C271" t="s">
         <v>902</v>
       </c>
-      <c r="B271" t="s">
-        <v>899</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="D271" t="s">
         <v>903</v>
       </c>
-      <c r="D271" t="s">
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
+      <c r="B272" t="s">
+        <v>898</v>
+      </c>
+      <c r="C272" t="s">
+        <v>904</v>
+      </c>
+      <c r="D272" t="s">
         <v>905</v>
       </c>
-      <c r="B272" t="s">
-        <v>899</v>
-      </c>
-      <c r="C272" t="s">
-        <v>905</v>
-      </c>
-      <c r="D272" t="s">
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>906</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>907</v>
       </c>
       <c r="B273" t="s">
         <v>169</v>
       </c>
       <c r="C273" t="s">
+        <v>907</v>
+      </c>
+      <c r="D273" t="s">
         <v>908</v>
       </c>
-      <c r="D273" t="s">
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
+      <c r="B274" t="s">
         <v>910</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>911</v>
       </c>
-      <c r="C274" t="s">
+      <c r="D274" t="s">
         <v>912</v>
       </c>
-      <c r="D274" t="s">
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
+      <c r="B275" t="s">
         <v>914</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>915</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
         <v>916</v>
       </c>
-      <c r="D275" t="s">
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>917</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>918</v>
       </c>
       <c r="B276" t="s">
         <v>194</v>
       </c>
       <c r="C276" t="s">
+        <v>918</v>
+      </c>
+      <c r="D276" t="s">
         <v>919</v>
       </c>
-      <c r="D276" t="s">
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>920</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>921</v>
       </c>
       <c r="B277" t="s">
         <v>251</v>
       </c>
       <c r="C277" t="s">
+        <v>921</v>
+      </c>
+      <c r="D277" t="s">
         <v>922</v>
       </c>
-      <c r="D277" t="s">
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
+      <c r="B278" t="s">
         <v>924</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
+        <v>924</v>
+      </c>
+      <c r="D278" t="s">
         <v>925</v>
       </c>
-      <c r="C278" t="s">
-        <v>925</v>
-      </c>
-      <c r="D278" t="s">
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>926</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>927</v>
       </c>
       <c r="B279" t="s">
         <v>165</v>
       </c>
       <c r="C279" t="s">
+        <v>927</v>
+      </c>
+      <c r="D279" t="s">
         <v>928</v>
       </c>
-      <c r="D279" t="s">
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+      <c r="B280" t="s">
         <v>930</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
+        <v>929</v>
+      </c>
+      <c r="D280" t="s">
         <v>931</v>
       </c>
-      <c r="C280" t="s">
-        <v>930</v>
-      </c>
-      <c r="D280" t="s">
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
+      <c r="B281" t="s">
         <v>933</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>934</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
         <v>935</v>
       </c>
-      <c r="D281" t="s">
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
+      <c r="B282" t="s">
         <v>937</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>938</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
         <v>939</v>
       </c>
-      <c r="D282" t="s">
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
+      <c r="B283" t="s">
         <v>941</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>942</v>
       </c>
-      <c r="C283" t="s">
+      <c r="D283" t="s">
         <v>943</v>
       </c>
-      <c r="D283" t="s">
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
+      <c r="B284" t="s">
         <v>945</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>946</v>
       </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
         <v>947</v>
       </c>
-      <c r="D284" t="s">
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
+      <c r="B285" t="s">
         <v>949</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>950</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
         <v>951</v>
       </c>
-      <c r="D285" t="s">
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
+      <c r="B286" t="s">
+        <v>937</v>
+      </c>
+      <c r="C286" t="s">
         <v>953</v>
       </c>
-      <c r="B286" t="s">
-        <v>938</v>
-      </c>
-      <c r="C286" t="s">
+      <c r="D286" t="s">
         <v>954</v>
       </c>
-      <c r="D286" t="s">
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+      <c r="B287" t="s">
         <v>956</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>957</v>
       </c>
-      <c r="C287" t="s">
+      <c r="D287" t="s">
         <v>958</v>
       </c>
-      <c r="D287" t="s">
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>959</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>960</v>
       </c>
       <c r="B288" t="s">
         <v>259</v>
       </c>
       <c r="C288" t="s">
+        <v>960</v>
+      </c>
+      <c r="D288" t="s">
         <v>961</v>
       </c>
-      <c r="D288" t="s">
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>962</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>963</v>
       </c>
       <c r="B289" t="s">
         <v>131</v>
@@ -9529,1001 +9548,1001 @@
         <v>132</v>
       </c>
       <c r="D289" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+      <c r="B290" t="s">
         <v>965</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>966</v>
       </c>
-      <c r="C290" t="s">
+      <c r="D290" t="s">
         <v>967</v>
       </c>
-      <c r="D290" t="s">
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
+      <c r="B291" t="s">
         <v>969</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
         <v>970</v>
       </c>
-      <c r="C291" t="s">
+      <c r="D291" t="s">
         <v>971</v>
       </c>
-      <c r="D291" t="s">
-        <v>972</v>
-      </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+      <c r="A292" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B292" t="s">
         <v>31</v>
       </c>
       <c r="C292" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D292" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+      <c r="A293" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B293" t="s">
         <v>974</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
+        <v>974</v>
+      </c>
+      <c r="D293" t="s">
         <v>975</v>
       </c>
-      <c r="C293" t="s">
-        <v>975</v>
-      </c>
-      <c r="D293" t="s">
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
+      <c r="B294" t="s">
         <v>977</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>978</v>
       </c>
-      <c r="C294" t="s">
+      <c r="D294" t="s">
         <v>979</v>
       </c>
-      <c r="D294" t="s">
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+      <c r="B295" t="s">
         <v>981</v>
       </c>
-      <c r="B295" t="s">
+      <c r="C295" t="s">
         <v>982</v>
       </c>
-      <c r="C295" t="s">
+      <c r="D295" t="s">
         <v>983</v>
       </c>
-      <c r="D295" t="s">
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
+      <c r="B296" t="s">
         <v>985</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>986</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>987</v>
       </c>
-      <c r="D296" t="s">
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
+      <c r="B297" t="s">
         <v>989</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>990</v>
       </c>
-      <c r="C297" t="s">
+      <c r="D297" t="s">
         <v>991</v>
       </c>
-      <c r="D297" t="s">
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
+      <c r="B298" t="s">
         <v>993</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
+        <v>992</v>
+      </c>
+      <c r="D298" t="s">
         <v>994</v>
       </c>
-      <c r="C298" t="s">
-        <v>993</v>
-      </c>
-      <c r="D298" t="s">
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
+      <c r="B299" t="s">
         <v>996</v>
       </c>
-      <c r="B299" t="s">
+      <c r="C299" t="s">
+        <v>996</v>
+      </c>
+      <c r="D299" t="s">
         <v>997</v>
       </c>
-      <c r="C299" t="s">
-        <v>997</v>
-      </c>
-      <c r="D299" t="s">
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
+      <c r="B300" t="s">
         <v>999</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>1000</v>
       </c>
-      <c r="C300" t="s">
+      <c r="D300" t="s">
         <v>1001</v>
       </c>
-      <c r="D300" t="s">
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
+      <c r="B301" t="s">
+        <v>848</v>
+      </c>
+      <c r="C301" t="s">
         <v>1003</v>
       </c>
-      <c r="B301" t="s">
-        <v>849</v>
-      </c>
-      <c r="C301" t="s">
+      <c r="D301" t="s">
         <v>1004</v>
       </c>
-      <c r="D301" t="s">
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+      <c r="B302" t="s">
         <v>1006</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>1007</v>
       </c>
-      <c r="C302" t="s">
+      <c r="D302" t="s">
         <v>1008</v>
       </c>
-      <c r="D302" t="s">
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
+      <c r="B303" t="s">
         <v>1010</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>1011</v>
       </c>
-      <c r="C303" t="s">
+      <c r="D303" t="s">
         <v>1012</v>
       </c>
-      <c r="D303" t="s">
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
+      <c r="B304" t="s">
         <v>1014</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>1015</v>
       </c>
-      <c r="C304" t="s">
+      <c r="D304" t="s">
         <v>1016</v>
       </c>
-      <c r="D304" t="s">
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
+      <c r="B305" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D305" t="s">
         <v>1018</v>
       </c>
-      <c r="B305" t="s">
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C306" t="s">
         <v>1011</v>
       </c>
-      <c r="C305" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D305" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+      <c r="D306" t="s">
         <v>1020</v>
       </c>
-      <c r="B306" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C306" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D306" t="s">
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
+      <c r="B307" t="s">
         <v>1022</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>1023</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
         <v>1024</v>
       </c>
-      <c r="D307" t="s">
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
+      <c r="B308" t="s">
         <v>1026</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>1027</v>
       </c>
-      <c r="C308" t="s">
+      <c r="D308" t="s">
         <v>1028</v>
       </c>
-      <c r="D308" t="s">
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
+      <c r="B309" t="s">
         <v>1030</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D309" t="s">
         <v>1031</v>
       </c>
-      <c r="C309" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D309" t="s">
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>1032</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>1033</v>
       </c>
       <c r="B310" t="s">
         <v>96</v>
       </c>
       <c r="C310" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D310" t="s">
         <v>1034</v>
       </c>
-      <c r="D310" t="s">
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
+      <c r="B311" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C311" t="s">
         <v>1036</v>
       </c>
-      <c r="B311" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C311" t="s">
+      <c r="D311" t="s">
         <v>1037</v>
       </c>
-      <c r="D311" t="s">
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
+      <c r="B312" t="s">
+        <v>799</v>
+      </c>
+      <c r="C312" t="s">
         <v>1039</v>
       </c>
-      <c r="B312" t="s">
-        <v>800</v>
-      </c>
-      <c r="C312" t="s">
+      <c r="D312" t="s">
         <v>1040</v>
       </c>
-      <c r="D312" t="s">
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
+      <c r="B313" t="s">
         <v>1042</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>1043</v>
       </c>
-      <c r="C313" t="s">
+      <c r="D313" t="s">
         <v>1044</v>
       </c>
-      <c r="D313" t="s">
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>1045</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>1046</v>
       </c>
       <c r="B314" t="s">
         <v>634</v>
       </c>
       <c r="C314" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D314" t="s">
         <v>1046</v>
       </c>
-      <c r="D314" t="s">
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
+      <c r="B315" t="s">
         <v>1048</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D315" t="s">
         <v>1049</v>
       </c>
-      <c r="C315" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D315" t="s">
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
+      <c r="B316" t="s">
         <v>1051</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D316" t="s">
         <v>1052</v>
       </c>
-      <c r="C316" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D316" t="s">
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
+      <c r="B317" t="s">
         <v>1054</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>1055</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" t="s">
         <v>1056</v>
       </c>
-      <c r="D317" t="s">
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
+      <c r="B318" t="s">
         <v>1058</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
         <v>1059</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>1060</v>
       </c>
-      <c r="D318" t="s">
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>1061</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>1062</v>
       </c>
       <c r="B319" t="s">
         <v>35</v>
       </c>
       <c r="C319" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D319" t="s">
         <v>1063</v>
       </c>
-      <c r="D319" t="s">
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
+      <c r="B320" t="s">
         <v>1065</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>1066</v>
       </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>1067</v>
       </c>
-      <c r="D320" t="s">
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
+      <c r="B321" t="s">
         <v>1069</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
         <v>1070</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>1071</v>
       </c>
-      <c r="D321" t="s">
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
         <v>1072</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>1073</v>
       </c>
       <c r="B322" t="s">
         <v>9</v>
       </c>
       <c r="C322" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D322" t="s">
         <v>1074</v>
       </c>
-      <c r="D322" t="s">
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
+      <c r="B323" t="s">
         <v>1076</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>1077</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>1078</v>
       </c>
-      <c r="D323" t="s">
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
+      <c r="B324" t="s">
         <v>1080</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>1081</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>1082</v>
       </c>
-      <c r="D324" t="s">
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
+      <c r="B325" t="s">
         <v>1084</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>1085</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>1086</v>
       </c>
-      <c r="D325" t="s">
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
+      <c r="B326" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D326" t="s">
         <v>1088</v>
       </c>
-      <c r="B326" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C326" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D326" t="s">
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
         <v>1089</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>1090</v>
       </c>
       <c r="B327" t="s">
         <v>229</v>
       </c>
       <c r="C327" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D327" t="s">
         <v>1091</v>
       </c>
-      <c r="D327" t="s">
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
+      <c r="B328" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D328" t="s">
         <v>1093</v>
       </c>
-      <c r="B328" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C328" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D328" t="s">
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
+      <c r="B329" t="s">
         <v>1095</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>1096</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>1097</v>
       </c>
-      <c r="D329" t="s">
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
         <v>1098</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>1099</v>
       </c>
       <c r="B330" t="s">
         <v>16</v>
       </c>
       <c r="C330" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D330" t="s">
         <v>1100</v>
       </c>
-      <c r="D330" t="s">
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
         <v>1101</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>1102</v>
       </c>
       <c r="B331" t="s">
         <v>251</v>
       </c>
       <c r="C331" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D331" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+      <c r="B332" t="s">
         <v>1104</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>1105</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>1106</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B333" t="s">
         <v>1108</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>1109</v>
       </c>
-      <c r="C333" t="s">
+      <c r="D333" t="s">
         <v>1110</v>
-      </c>
-      <c r="D333" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B334" t="s">
         <v>1112</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>1113</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>1114</v>
-      </c>
-      <c r="D334" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B335" t="s">
+        <v>974</v>
+      </c>
+      <c r="C335" t="s">
         <v>1116</v>
       </c>
-      <c r="B335" t="s">
-        <v>975</v>
-      </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>1117</v>
-      </c>
-      <c r="D335" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B336" t="s">
         <v>1119</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D336" t="s">
         <v>1120</v>
-      </c>
-      <c r="C336" t="s">
-        <v>1120</v>
-      </c>
-      <c r="D336" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B337" t="s">
         <v>1122</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
         <v>1123</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>1124</v>
-      </c>
-      <c r="D337" t="s">
-        <v>1125</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B338" t="s">
         <v>1126</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>1127</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>1128</v>
-      </c>
-      <c r="D338" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B339" t="s">
         <v>1130</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
         <v>1131</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" t="s">
         <v>1132</v>
-      </c>
-      <c r="D339" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B340" t="s">
         <v>712</v>
       </c>
       <c r="C340" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D340" t="s">
         <v>1135</v>
-      </c>
-      <c r="D340" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B341" t="s">
         <v>1137</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
         <v>1138</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" t="s">
         <v>1139</v>
-      </c>
-      <c r="D341" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B342" t="s">
         <v>1141</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D342" t="s">
         <v>1142</v>
-      </c>
-      <c r="C342" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B343" t="s">
         <v>1144</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" t="s">
         <v>1145</v>
       </c>
-      <c r="C343" t="s">
+      <c r="D343" t="s">
         <v>1146</v>
-      </c>
-      <c r="D343" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C344" t="s">
         <v>1148</v>
       </c>
-      <c r="B344" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C344" t="s">
+      <c r="D344" t="s">
         <v>1149</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D345" t="s">
         <v>1151</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C345" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B346" t="s">
         <v>1153</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>1154</v>
       </c>
-      <c r="C346" t="s">
+      <c r="D346" t="s">
         <v>1155</v>
-      </c>
-      <c r="D346" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B347" t="s">
         <v>1157</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>1158</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>1159</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B348" t="s">
         <v>1161</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C348" t="s">
         <v>1162</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>1163</v>
-      </c>
-      <c r="D348" t="s">
-        <v>1164</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B349" t="s">
         <v>1165</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
         <v>1166</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" t="s">
         <v>1167</v>
-      </c>
-      <c r="D349" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B350" t="s">
         <v>1169</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C350" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D350" t="s">
         <v>1170</v>
-      </c>
-      <c r="C350" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D350" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B351" t="s">
         <v>1172</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D351" t="s">
         <v>1173</v>
-      </c>
-      <c r="C351" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D351" t="s">
-        <v>1174</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B352" t="s">
         <v>1175</v>
       </c>
-      <c r="B352" t="s">
+      <c r="C352" t="s">
         <v>1176</v>
       </c>
-      <c r="C352" t="s">
+      <c r="D352" t="s">
         <v>1177</v>
-      </c>
-      <c r="D352" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B353" t="s">
         <v>1179</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C353" t="s">
         <v>1180</v>
       </c>
-      <c r="C353" t="s">
+      <c r="D353" t="s">
         <v>1181</v>
-      </c>
-      <c r="D353" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B354" t="s">
         <v>1183</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C354" t="s">
         <v>1184</v>
       </c>
-      <c r="C354" t="s">
+      <c r="D354" t="s">
         <v>1185</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B355" t="s">
         <v>1187</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>1188</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
         <v>1189</v>
-      </c>
-      <c r="D355" t="s">
-        <v>1190</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B356" t="s">
         <v>1191</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C356" t="s">
         <v>1192</v>
       </c>
-      <c r="C356" t="s">
+      <c r="D356" t="s">
         <v>1193</v>
-      </c>
-      <c r="D356" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B357" t="s">
         <v>1195</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D357" t="s">
         <v>1196</v>
-      </c>
-      <c r="C357" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D357" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B358" t="s">
         <v>1198</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
         <v>1199</v>
       </c>
-      <c r="C358" t="s">
+      <c r="D358" t="s">
         <v>1200</v>
-      </c>
-      <c r="D358" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B359" t="s">
         <v>1202</v>
       </c>
-      <c r="B359" t="s">
+      <c r="C359" t="s">
         <v>1203</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>1204</v>
-      </c>
-      <c r="D359" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B360" t="s">
         <v>1206</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D360" t="s">
         <v>1207</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1207</v>
-      </c>
-      <c r="D360" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -10534,105 +10553,105 @@
         <v>58</v>
       </c>
       <c r="C361" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D361" t="s">
         <v>1209</v>
-      </c>
-      <c r="D361" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B362" t="s">
         <v>1211</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
         <v>1212</v>
       </c>
-      <c r="C362" t="s">
+      <c r="D362" t="s">
         <v>1213</v>
-      </c>
-      <c r="D362" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B363" t="s">
         <v>1215</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>1216</v>
       </c>
-      <c r="C363" t="s">
+      <c r="D363" t="s">
         <v>1217</v>
-      </c>
-      <c r="D363" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B364" t="s">
         <v>1219</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>1220</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
         <v>1221</v>
-      </c>
-      <c r="D364" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B365" t="s">
         <v>1223</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
         <v>1224</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
         <v>1225</v>
-      </c>
-      <c r="D365" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B366" t="s">
         <v>1227</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D366" t="s">
         <v>1228</v>
-      </c>
-      <c r="C366" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D366" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B367" t="s">
         <v>688</v>
       </c>
       <c r="C367" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D367" t="s">
         <v>1230</v>
-      </c>
-      <c r="D367" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B368" t="s">
         <v>428</v>
       </c>
       <c r="C368" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D368" t="s">
         <v>430</v>
@@ -10640,16 +10659,16 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B369" t="s">
         <v>1234</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C369" t="s">
         <v>1235</v>
       </c>
-      <c r="C369" t="s">
+      <c r="D369" t="s">
         <v>1236</v>
-      </c>
-      <c r="D369" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
@@ -10663,49 +10682,49 @@
         <v>65</v>
       </c>
       <c r="D370" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B371" t="s">
         <v>417</v>
       </c>
       <c r="C371" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D371" t="s">
         <v>1240</v>
-      </c>
-      <c r="D371" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B372" t="s">
         <v>1242</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
         <v>1243</v>
       </c>
-      <c r="C372" t="s">
+      <c r="D372" t="s">
         <v>1244</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B373" t="s">
         <v>109</v>
       </c>
       <c r="C373" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D373" t="s">
         <v>1246</v>
-      </c>
-      <c r="D373" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -10724,7 +10743,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B375" t="s">
         <v>738</v>
@@ -10733,77 +10752,77 @@
         <v>739</v>
       </c>
       <c r="D375" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B376" t="s">
         <v>1250</v>
       </c>
-      <c r="B376" t="s">
+      <c r="C376" t="s">
         <v>1251</v>
       </c>
-      <c r="C376" t="s">
+      <c r="D376" t="s">
         <v>1252</v>
-      </c>
-      <c r="D376" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B377" t="s">
         <v>1254</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>1255</v>
       </c>
-      <c r="C377" t="s">
+      <c r="D377" t="s">
         <v>1256</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B378" t="s">
         <v>289</v>
       </c>
       <c r="C378" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D378" t="s">
         <v>1259</v>
-      </c>
-      <c r="D378" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B379" t="s">
         <v>1261</v>
       </c>
-      <c r="B379" t="s">
+      <c r="C379" t="s">
         <v>1262</v>
       </c>
-      <c r="C379" t="s">
+      <c r="D379" t="s">
         <v>1263</v>
-      </c>
-      <c r="D379" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C380" t="s">
         <v>1265</v>
       </c>
-      <c r="B380" t="s">
-        <v>1262</v>
-      </c>
-      <c r="C380" t="s">
+      <c r="D380" t="s">
         <v>1266</v>
-      </c>
-      <c r="D380" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -10811,88 +10830,88 @@
         <v>17</v>
       </c>
       <c r="B381" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C381">
         <v>17</v>
       </c>
       <c r="D381" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B382" t="s">
         <v>1270</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
         <v>1271</v>
       </c>
-      <c r="C382" t="s">
+      <c r="D382" t="s">
         <v>1272</v>
-      </c>
-      <c r="D382" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B383" t="s">
         <v>1274</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
         <v>1275</v>
       </c>
-      <c r="C383" t="s">
+      <c r="D383" t="s">
         <v>1276</v>
-      </c>
-      <c r="D383" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B384" t="s">
         <v>1278</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C384" t="s">
         <v>1279</v>
       </c>
-      <c r="C384" t="s">
+      <c r="D384" t="s">
         <v>1280</v>
-      </c>
-      <c r="D384" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B385" t="s">
         <v>1282</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
         <v>1283</v>
       </c>
-      <c r="C385" t="s">
+      <c r="D385" t="s">
         <v>1284</v>
-      </c>
-      <c r="D385" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B386" t="s">
         <v>460</v>
       </c>
       <c r="C386" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D386" t="s">
         <v>1287</v>
-      </c>
-      <c r="D386" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B387" t="s">
         <v>221</v>
@@ -10901,119 +10920,119 @@
         <v>222</v>
       </c>
       <c r="D387" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B388" t="s">
         <v>96</v>
       </c>
       <c r="C388" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D388" t="s">
         <v>1292</v>
-      </c>
-      <c r="D388" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B389" t="s">
         <v>1294</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>1295</v>
       </c>
-      <c r="C389" t="s">
+      <c r="D389" t="s">
         <v>1296</v>
-      </c>
-      <c r="D389" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B390" t="s">
         <v>96</v>
       </c>
       <c r="C390" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D390" t="s">
         <v>1298</v>
-      </c>
-      <c r="D390" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B391" t="s">
         <v>1300</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D391" t="s">
         <v>1301</v>
-      </c>
-      <c r="C391" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D391" t="s">
-        <v>1302</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B392" t="s">
         <v>155</v>
       </c>
       <c r="C392" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D392" t="s">
         <v>1303</v>
-      </c>
-      <c r="D392" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B393" t="s">
+        <v>847</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D393" t="s">
         <v>1305</v>
-      </c>
-      <c r="B393" t="s">
-        <v>848</v>
-      </c>
-      <c r="C393" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D393" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="B394" t="s">
         <v>169</v>
       </c>
       <c r="C394" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D394" t="s">
         <v>1308</v>
-      </c>
-      <c r="D394" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B395" t="s">
         <v>1310</v>
       </c>
-      <c r="B395" t="s">
+      <c r="C395" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D395" t="s">
         <v>1311</v>
-      </c>
-      <c r="C395" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D395" t="s">
-        <v>1312</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
@@ -11024,7 +11043,7 @@
         <v>16</v>
       </c>
       <c r="C396" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D396" t="s">
         <v>18</v>
@@ -11032,41 +11051,41 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B397" t="s">
         <v>1313</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1314</v>
       </c>
       <c r="C397" t="s">
         <v>695</v>
       </c>
       <c r="D397" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B398" t="s">
         <v>1316</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>1317</v>
       </c>
-      <c r="C398" t="s">
+      <c r="D398" t="s">
         <v>1318</v>
-      </c>
-      <c r="D398" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B399" t="s">
         <v>177</v>
       </c>
       <c r="C399" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D399" t="s">
         <v>179</v>
@@ -11074,352 +11093,352 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B400" t="s">
         <v>112</v>
       </c>
       <c r="C400" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D400" t="s">
         <v>1321</v>
-      </c>
-      <c r="D400" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="B401" t="s">
         <v>155</v>
       </c>
       <c r="C401" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D401" t="s">
         <v>1324</v>
-      </c>
-      <c r="D401" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B402" t="s">
         <v>1326</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>1327</v>
       </c>
-      <c r="C402" t="s">
+      <c r="D402" t="s">
         <v>1328</v>
-      </c>
-      <c r="D402" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B403" t="s">
         <v>1330</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
         <v>1331</v>
       </c>
-      <c r="C403" t="s">
+      <c r="D403" t="s">
         <v>1332</v>
-      </c>
-      <c r="D403" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B404" t="s">
         <v>1334</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" t="s">
         <v>1335</v>
       </c>
-      <c r="C404" t="s">
+      <c r="D404" t="s">
         <v>1336</v>
-      </c>
-      <c r="D404" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B405" t="s">
         <v>1338</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D405" t="s">
         <v>1339</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D405" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B406" t="s">
         <v>112</v>
       </c>
       <c r="C406" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D406" t="s">
         <v>1341</v>
-      </c>
-      <c r="D406" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B407" t="s">
         <v>1343</v>
       </c>
-      <c r="B407" t="s">
+      <c r="C407" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D407" t="s">
         <v>1344</v>
-      </c>
-      <c r="C407" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D407" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B408" t="s">
         <v>1112</v>
       </c>
-      <c r="B408" t="s">
-        <v>1113</v>
-      </c>
       <c r="C408" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D408" t="s">
         <v>1346</v>
-      </c>
-      <c r="D408" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B409" t="s">
         <v>1348</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D409" t="s">
         <v>1349</v>
-      </c>
-      <c r="C409" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D409" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B410" t="s">
         <v>1351</v>
       </c>
-      <c r="B410" t="s">
+      <c r="C410" t="s">
         <v>1352</v>
       </c>
-      <c r="C410" t="s">
+      <c r="D410" t="s">
         <v>1353</v>
-      </c>
-      <c r="D410" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B411" t="s">
         <v>162</v>
       </c>
       <c r="C411" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D411" t="s">
         <v>1355</v>
-      </c>
-      <c r="D411" t="s">
-        <v>1356</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B412" t="s">
         <v>1357</v>
       </c>
-      <c r="B412" t="s">
+      <c r="C412" t="s">
         <v>1358</v>
       </c>
-      <c r="C412" t="s">
+      <c r="D412" t="s">
         <v>1359</v>
-      </c>
-      <c r="D412" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B413" t="s">
+        <v>791</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D413" t="s">
         <v>1361</v>
-      </c>
-      <c r="B413" t="s">
-        <v>792</v>
-      </c>
-      <c r="C413" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D413" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B414" t="s">
         <v>206</v>
       </c>
       <c r="C414" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D414" t="s">
         <v>1363</v>
-      </c>
-      <c r="D414" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B415" t="s">
         <v>1365</v>
       </c>
-      <c r="B415" t="s">
+      <c r="C415" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D415" t="s">
         <v>1366</v>
-      </c>
-      <c r="C415" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D415" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B416" t="s">
         <v>1368</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D416" t="s">
         <v>1369</v>
-      </c>
-      <c r="C416" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D416" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B417" t="s">
         <v>1371</v>
       </c>
-      <c r="B417" t="s">
+      <c r="C417" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D417" t="s">
         <v>1372</v>
-      </c>
-      <c r="C417" t="s">
-        <v>1371</v>
-      </c>
-      <c r="D417" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B418" t="s">
         <v>1374</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D418" t="s">
         <v>1375</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1374</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>846</v>
+      </c>
+      <c r="B419" t="s">
         <v>847</v>
       </c>
-      <c r="B419" t="s">
-        <v>848</v>
-      </c>
       <c r="C419" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D419" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B420" t="s">
         <v>1377</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D420" t="s">
         <v>1378</v>
-      </c>
-      <c r="C420" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D420" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B421" t="s">
         <v>1380</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D421" t="s">
         <v>1381</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D421" t="s">
-        <v>1382</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B422" t="s">
         <v>1383</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C422" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D422" t="s">
         <v>1384</v>
-      </c>
-      <c r="C422" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D422" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B423" t="s">
         <v>1386</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>1387</v>
       </c>
-      <c r="C423" t="s">
+      <c r="D423" t="s">
         <v>1388</v>
-      </c>
-      <c r="D423" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B424" t="s">
         <v>1390</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>1391</v>
       </c>
-      <c r="C424" t="s">
+      <c r="D424" t="s">
         <v>1392</v>
-      </c>
-      <c r="D424" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -11430,7 +11449,7 @@
         <v>272</v>
       </c>
       <c r="C425" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D425" t="s">
         <v>273</v>
@@ -11438,142 +11457,142 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B426" t="s">
         <v>1395</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
         <v>1396</v>
       </c>
-      <c r="C426" t="s">
+      <c r="D426" t="s">
         <v>1397</v>
-      </c>
-      <c r="D426" t="s">
-        <v>1398</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B427" t="s">
         <v>1399</v>
       </c>
-      <c r="B427" t="s">
+      <c r="C427" t="s">
         <v>1400</v>
       </c>
-      <c r="C427" t="s">
+      <c r="D427" t="s">
         <v>1401</v>
-      </c>
-      <c r="D427" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B428" t="s">
         <v>1403</v>
       </c>
-      <c r="B428" t="s">
+      <c r="C428" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D428" t="s">
         <v>1404</v>
-      </c>
-      <c r="C428" t="s">
-        <v>1403</v>
-      </c>
-      <c r="D428" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B429" t="s">
         <v>155</v>
       </c>
       <c r="C429" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D429" t="s">
         <v>1407</v>
-      </c>
-      <c r="D429" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B430" t="s">
         <v>1409</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>1410</v>
       </c>
-      <c r="C430" t="s">
+      <c r="D430" t="s">
         <v>1411</v>
-      </c>
-      <c r="D430" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B431" t="s">
         <v>1413</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
         <v>1414</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431" t="s">
         <v>1415</v>
-      </c>
-      <c r="D431" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B432" t="s">
         <v>1417</v>
       </c>
-      <c r="B432" t="s">
+      <c r="C432" t="s">
         <v>1418</v>
       </c>
-      <c r="C432" t="s">
+      <c r="D432" t="s">
         <v>1419</v>
-      </c>
-      <c r="D432" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B433" t="s">
         <v>1421</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
         <v>1422</v>
       </c>
-      <c r="C433" t="s">
+      <c r="D433" t="s">
         <v>1423</v>
-      </c>
-      <c r="D433" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B434" t="s">
         <v>262</v>
       </c>
       <c r="C434" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D434" t="s">
         <v>1425</v>
-      </c>
-      <c r="D434" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B435" t="s">
         <v>1427</v>
       </c>
-      <c r="B435" t="s">
+      <c r="C435" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D435" t="s">
         <v>1428</v>
-      </c>
-      <c r="C435" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D435" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
@@ -11584,7 +11603,7 @@
         <v>255</v>
       </c>
       <c r="C436" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D436" t="s">
         <v>257</v>
@@ -11592,44 +11611,44 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B437" t="s">
         <v>1431</v>
       </c>
-      <c r="B437" t="s">
+      <c r="C437" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D437" t="s">
         <v>1432</v>
-      </c>
-      <c r="C437" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D437" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B438" t="s">
         <v>1434</v>
       </c>
-      <c r="B438" t="s">
+      <c r="C438" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D438" t="s">
         <v>1435</v>
-      </c>
-      <c r="C438" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1436</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B439" t="s">
         <v>1191</v>
       </c>
-      <c r="B439" t="s">
-        <v>1192</v>
-      </c>
       <c r="C439" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D439" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
@@ -11662,100 +11681,100 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B442" t="s">
         <v>102</v>
       </c>
       <c r="C442" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D442" t="s">
         <v>1439</v>
-      </c>
-      <c r="D442" t="s">
-        <v>1440</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B443" t="s">
         <v>262</v>
       </c>
       <c r="C443" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D443" t="s">
         <v>1442</v>
-      </c>
-      <c r="D443" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B444" t="s">
         <v>83</v>
       </c>
       <c r="C444" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D444" t="s">
         <v>1444</v>
-      </c>
-      <c r="D444" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B445" t="s">
+        <v>791</v>
+      </c>
+      <c r="C445" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D445" t="s">
         <v>1446</v>
-      </c>
-      <c r="B445" t="s">
-        <v>792</v>
-      </c>
-      <c r="C445" t="s">
-        <v>1446</v>
-      </c>
-      <c r="D445" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B446" t="s">
         <v>1448</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D446" t="s">
         <v>1449</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B447" t="s">
         <v>610</v>
       </c>
       <c r="C447" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="D447" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B448" t="s">
         <v>112</v>
       </c>
       <c r="C448" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D448" t="s">
         <v>1453</v>
-      </c>
-      <c r="D448" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -11774,58 +11793,58 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B450" t="s">
         <v>1455</v>
       </c>
-      <c r="B450" t="s">
+      <c r="C450" t="s">
         <v>1456</v>
       </c>
-      <c r="C450" t="s">
+      <c r="D450" t="s">
         <v>1457</v>
-      </c>
-      <c r="D450" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B451" t="s">
         <v>1459</v>
       </c>
-      <c r="B451" t="s">
+      <c r="C451" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D451" t="s">
         <v>1460</v>
-      </c>
-      <c r="C451" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D451" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B452" t="s">
         <v>1462</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D452" t="s">
         <v>1463</v>
-      </c>
-      <c r="C452" t="s">
-        <v>1462</v>
-      </c>
-      <c r="D452" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B453" t="s">
         <v>531</v>
       </c>
       <c r="C453" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D453" t="s">
         <v>1466</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -11836,7 +11855,7 @@
         <v>531</v>
       </c>
       <c r="C454" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D454" t="s">
         <v>540</v>
@@ -11850,7 +11869,7 @@
         <v>531</v>
       </c>
       <c r="C455" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="D455" t="s">
         <v>533</v>
@@ -11858,329 +11877,329 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="B456" t="s">
         <v>531</v>
       </c>
       <c r="C456" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D456" t="s">
         <v>1471</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B457" t="s">
         <v>1473</v>
       </c>
-      <c r="B457" t="s">
+      <c r="C457" t="s">
         <v>1474</v>
       </c>
-      <c r="C457" t="s">
+      <c r="D457" t="s">
         <v>1475</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D458" t="s">
         <v>1477</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1474</v>
-      </c>
-      <c r="C458" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D458" t="s">
-        <v>1478</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C459" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D459" t="s">
         <v>1479</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C459" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D459" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B460" t="s">
         <v>1481</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>1482</v>
       </c>
-      <c r="C460" t="s">
+      <c r="D460" t="s">
         <v>1483</v>
-      </c>
-      <c r="D460" t="s">
-        <v>1484</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B461" t="s">
         <v>1485</v>
       </c>
-      <c r="B461" t="s">
+      <c r="C461" t="s">
         <v>1486</v>
       </c>
-      <c r="C461" t="s">
+      <c r="D461" t="s">
         <v>1487</v>
-      </c>
-      <c r="D461" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B462" t="s">
         <v>1489</v>
       </c>
-      <c r="B462" t="s">
+      <c r="C462" t="s">
         <v>1490</v>
       </c>
-      <c r="C462" t="s">
+      <c r="D462" t="s">
         <v>1491</v>
-      </c>
-      <c r="D462" t="s">
-        <v>1492</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B463" t="s">
         <v>1493</v>
       </c>
-      <c r="B463" t="s">
+      <c r="C463" t="s">
         <v>1494</v>
       </c>
-      <c r="C463" t="s">
+      <c r="D463" t="s">
         <v>1495</v>
-      </c>
-      <c r="D463" t="s">
-        <v>1496</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B464" t="s">
         <v>1497</v>
       </c>
-      <c r="B464" t="s">
+      <c r="C464" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D464" t="s">
         <v>1498</v>
-      </c>
-      <c r="C464" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B465" t="s">
         <v>1500</v>
       </c>
-      <c r="B465" t="s">
+      <c r="C465" t="s">
         <v>1501</v>
       </c>
-      <c r="C465" t="s">
+      <c r="D465" t="s">
         <v>1502</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B466" t="s">
         <v>1504</v>
       </c>
-      <c r="B466" t="s">
+      <c r="C466" t="s">
         <v>1505</v>
       </c>
-      <c r="C466" t="s">
+      <c r="D466" t="s">
         <v>1506</v>
-      </c>
-      <c r="D466" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B467" t="s">
         <v>1508</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
         <v>1509</v>
       </c>
-      <c r="C467" t="s">
+      <c r="D467" t="s">
         <v>1510</v>
-      </c>
-      <c r="D467" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B468" t="s">
         <v>1512</v>
       </c>
-      <c r="B468" t="s">
+      <c r="C468" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D468" t="s">
         <v>1513</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D468" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B469" t="s">
         <v>1515</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>1516</v>
       </c>
-      <c r="C469" t="s">
+      <c r="D469" t="s">
         <v>1517</v>
-      </c>
-      <c r="D469" t="s">
-        <v>1518</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B470" t="s">
         <v>1519</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D470" t="s">
         <v>1520</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1519</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B471" t="s">
         <v>1522</v>
       </c>
-      <c r="B471" t="s">
+      <c r="C471" t="s">
         <v>1523</v>
       </c>
-      <c r="C471" t="s">
+      <c r="D471" t="s">
         <v>1524</v>
-      </c>
-      <c r="D471" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B472" t="s">
         <v>1526</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C472" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D472" t="s">
         <v>1527</v>
-      </c>
-      <c r="C472" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D472" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B473" t="s">
         <v>1529</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
         <v>1530</v>
       </c>
-      <c r="C473" t="s">
+      <c r="D473" t="s">
         <v>1531</v>
-      </c>
-      <c r="D473" t="s">
-        <v>1532</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B474" t="s">
         <v>1533</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C474" t="s">
         <v>1534</v>
       </c>
-      <c r="C474" t="s">
+      <c r="D474" t="s">
         <v>1535</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1536</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B475" t="s">
         <v>1537</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>1538</v>
       </c>
-      <c r="C475" t="s">
+      <c r="D475" t="s">
         <v>1539</v>
-      </c>
-      <c r="D475" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B476" t="s">
         <v>1541</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>1542</v>
       </c>
-      <c r="C476" t="s">
+      <c r="D476" t="s">
         <v>1543</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B477" t="s">
         <v>1545</v>
       </c>
-      <c r="B477" t="s">
+      <c r="C477" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D477" t="s">
         <v>1546</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B478" t="s">
+        <v>851</v>
+      </c>
+      <c r="C478" t="s">
         <v>1548</v>
       </c>
-      <c r="B478" t="s">
-        <v>852</v>
-      </c>
-      <c r="C478" t="s">
+      <c r="D478" t="s">
         <v>1549</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="B479" t="s">
         <v>356</v>
@@ -12189,105 +12208,105 @@
         <v>626</v>
       </c>
       <c r="D479" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B480" t="s">
         <v>1553</v>
       </c>
-      <c r="B480" t="s">
+      <c r="C480" t="s">
         <v>1554</v>
       </c>
-      <c r="C480" t="s">
+      <c r="D480" t="s">
         <v>1555</v>
-      </c>
-      <c r="D480" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B481" t="s">
         <v>1557</v>
       </c>
-      <c r="B481" t="s">
+      <c r="C481" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D481" t="s">
         <v>1558</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B482" t="s">
         <v>1560</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>1561</v>
       </c>
-      <c r="C482" t="s">
+      <c r="D482" t="s">
         <v>1562</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B483" t="s">
         <v>1195</v>
       </c>
-      <c r="B483" t="s">
+      <c r="C483" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D483" t="s">
         <v>1196</v>
-      </c>
-      <c r="C483" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D483" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="B484" t="s">
         <v>681</v>
       </c>
       <c r="C484" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D484" t="s">
         <v>1565</v>
-      </c>
-      <c r="D484" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B485" t="s">
         <v>1567</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
         <v>1568</v>
       </c>
-      <c r="C485" t="s">
+      <c r="D485" t="s">
         <v>1569</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1570</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B486" t="s">
         <v>1571</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>1572</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" t="s">
         <v>1573</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -12298,7 +12317,7 @@
         <v>62</v>
       </c>
       <c r="C487" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D487" t="s">
         <v>64</v>
@@ -12306,49 +12325,49 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B488" t="s">
         <v>1576</v>
       </c>
-      <c r="B488" t="s">
+      <c r="C488" t="s">
         <v>1577</v>
       </c>
-      <c r="C488" t="s">
+      <c r="D488" t="s">
         <v>1578</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B489" t="s">
         <v>1580</v>
       </c>
-      <c r="B489" t="s">
+      <c r="C489" t="s">
         <v>1581</v>
       </c>
-      <c r="C489" t="s">
+      <c r="D489" t="s">
         <v>1582</v>
-      </c>
-      <c r="D489" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B490" t="s">
         <v>1584</v>
       </c>
-      <c r="B490" t="s">
+      <c r="C490" t="s">
         <v>1585</v>
       </c>
-      <c r="C490" t="s">
+      <c r="D490" t="s">
         <v>1586</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="B491" t="s">
         <v>460</v>
@@ -12357,21 +12376,21 @@
         <v>461</v>
       </c>
       <c r="D491" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B492" t="s">
         <v>1589</v>
       </c>
-      <c r="B492" t="s">
+      <c r="C492" t="s">
         <v>1590</v>
       </c>
-      <c r="C492" t="s">
+      <c r="D492" t="s">
         <v>1591</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1592</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -12382,7 +12401,7 @@
         <v>135</v>
       </c>
       <c r="C493" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D493" t="s">
         <v>137</v>
@@ -12390,198 +12409,198 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="B494" t="s">
         <v>255</v>
       </c>
       <c r="C494" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D494" t="s">
         <v>1595</v>
-      </c>
-      <c r="D494" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B495" t="s">
         <v>1597</v>
       </c>
-      <c r="B495" t="s">
+      <c r="C495" t="s">
         <v>1598</v>
       </c>
-      <c r="C495" t="s">
+      <c r="D495" t="s">
         <v>1599</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1600</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B496" t="s">
         <v>685</v>
       </c>
       <c r="C496" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D496" t="s">
         <v>1602</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B497" t="s">
         <v>1604</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>1605</v>
       </c>
-      <c r="C497" t="s">
+      <c r="D497" t="s">
         <v>1606</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B498" t="s">
         <v>1608</v>
       </c>
-      <c r="B498" t="s">
+      <c r="C498" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D498" t="s">
         <v>1609</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1608</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1610</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C499" t="s">
         <v>1611</v>
       </c>
-      <c r="B499" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C499" t="s">
+      <c r="D499" t="s">
         <v>1612</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B500" t="s">
         <v>435</v>
       </c>
       <c r="C500" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D500" t="s">
         <v>1614</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B501" t="s">
         <v>1616</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D501" t="s">
         <v>1617</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C502" t="s">
         <v>1619</v>
       </c>
-      <c r="B502" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C502" t="s">
+      <c r="D502" t="s">
         <v>1620</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D503" t="s">
         <v>1622</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1622</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B504" t="s">
         <v>1624</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504" t="s">
         <v>1625</v>
       </c>
-      <c r="C504" t="s">
+      <c r="D504" t="s">
         <v>1626</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1627</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B505" t="s">
         <v>1399</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
         <v>1400</v>
       </c>
-      <c r="C505" t="s">
+      <c r="D505" t="s">
         <v>1401</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1402</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B506" t="s">
         <v>1459</v>
       </c>
-      <c r="B506" t="s">
+      <c r="C506" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D506" t="s">
         <v>1460</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B507" t="s">
         <v>1628</v>
       </c>
-      <c r="B507" t="s">
+      <c r="C507" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D507" t="s">
         <v>1629</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1630</v>
       </c>
     </row>
   </sheetData>

--- a/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
+++ b/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB18485D-7764-4CB2-AF94-71D285FFD659}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20564AE0-620B-48F6-B0F2-F7522C29A877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3978,9 +3978,6 @@
     <t>GBHMU1600013</t>
   </si>
   <si>
-    <t>Africa - Radio Version</t>
-  </si>
-  <si>
     <t>BACALL</t>
   </si>
   <si>
@@ -5152,6 +5149,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Radio Version</t>
     </r>
   </si>
 </sst>
@@ -5493,8 +5513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="A332" sqref="A332"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A437" sqref="A437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5549,7 +5569,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -5563,7 +5583,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -5661,7 +5681,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -5675,7 +5695,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -5703,7 +5723,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -5759,7 +5779,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -5787,7 +5807,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -5829,7 +5849,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -7621,7 +7641,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B152" t="s">
         <v>516</v>
@@ -7831,7 +7851,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B167" t="s">
         <v>572</v>
@@ -8615,7 +8635,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B223" t="s">
         <v>758</v>
@@ -10154,7 +10174,7 @@
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
+      <c r="A333" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="B333" t="s">
@@ -10168,7 +10188,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
+      <c r="A334" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="B334" t="s">
@@ -10182,7 +10202,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
+      <c r="A335" s="1" t="s">
         <v>1115</v>
       </c>
       <c r="B335" t="s">
@@ -10196,7 +10216,7 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
+      <c r="A336" s="1" t="s">
         <v>1118</v>
       </c>
       <c r="B336" t="s">
@@ -10210,7 +10230,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
+      <c r="A337" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="B337" t="s">
@@ -10224,7 +10244,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
+      <c r="A338" s="2" t="s">
         <v>1125</v>
       </c>
       <c r="B338" t="s">
@@ -10238,7 +10258,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
+      <c r="A339" s="1" t="s">
         <v>1129</v>
       </c>
       <c r="B339" t="s">
@@ -10252,7 +10272,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
+      <c r="A340" s="1" t="s">
         <v>1133</v>
       </c>
       <c r="B340" t="s">
@@ -10266,7 +10286,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
+      <c r="A341" s="1" t="s">
         <v>1136</v>
       </c>
       <c r="B341" t="s">
@@ -10280,7 +10300,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
+      <c r="A342" s="2" t="s">
         <v>1140</v>
       </c>
       <c r="B342" t="s">
@@ -10294,7 +10314,7 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
+      <c r="A343" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="B343" t="s">
@@ -10308,7 +10328,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
+      <c r="A344" s="1" t="s">
         <v>1147</v>
       </c>
       <c r="B344" t="s">
@@ -10322,7 +10342,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
+      <c r="A345" s="1" t="s">
         <v>1150</v>
       </c>
       <c r="B345" t="s">
@@ -10336,7 +10356,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
+      <c r="A346" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="B346" t="s">
@@ -10350,7 +10370,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
+      <c r="A347" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="B347" t="s">
@@ -10364,7 +10384,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
+      <c r="A348" s="1" t="s">
         <v>1160</v>
       </c>
       <c r="B348" t="s">
@@ -10378,7 +10398,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
+      <c r="A349" s="1" t="s">
         <v>1164</v>
       </c>
       <c r="B349" t="s">
@@ -10392,7 +10412,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
+      <c r="A350" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="B350" t="s">
@@ -10406,7 +10426,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
+      <c r="A351" s="1" t="s">
         <v>1171</v>
       </c>
       <c r="B351" t="s">
@@ -10420,7 +10440,7 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
+      <c r="A352" s="1" t="s">
         <v>1174</v>
       </c>
       <c r="B352" t="s">
@@ -10434,7 +10454,7 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
+      <c r="A353" s="1" t="s">
         <v>1178</v>
       </c>
       <c r="B353" t="s">
@@ -10448,7 +10468,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
+      <c r="A354" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="B354" t="s">
@@ -10462,7 +10482,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
+      <c r="A355" s="1" t="s">
         <v>1186</v>
       </c>
       <c r="B355" t="s">
@@ -10476,7 +10496,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
+      <c r="A356" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="B356" t="s">
@@ -10490,7 +10510,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
+      <c r="A357" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="B357" t="s">
@@ -10504,7 +10524,7 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
+      <c r="A358" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="B358" t="s">
@@ -10518,7 +10538,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
+      <c r="A359" s="1" t="s">
         <v>1201</v>
       </c>
       <c r="B359" t="s">
@@ -10532,7 +10552,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
+      <c r="A360" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="B360" t="s">
@@ -10546,7 +10566,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
+      <c r="A361" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B361" t="s">
@@ -10560,7 +10580,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
+      <c r="A362" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="B362" t="s">
@@ -10574,7 +10594,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
+      <c r="A363" s="2" t="s">
         <v>1214</v>
       </c>
       <c r="B363" t="s">
@@ -10588,7 +10608,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
+      <c r="A364" s="1" t="s">
         <v>1218</v>
       </c>
       <c r="B364" t="s">
@@ -10602,7 +10622,7 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
+      <c r="A365" s="1" t="s">
         <v>1222</v>
       </c>
       <c r="B365" t="s">
@@ -10616,7 +10636,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
+      <c r="A366" s="1" t="s">
         <v>1226</v>
       </c>
       <c r="B366" t="s">
@@ -10630,7 +10650,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
+      <c r="A367" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="B367" t="s">
@@ -10644,7 +10664,7 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
+      <c r="A368" s="1" t="s">
         <v>1231</v>
       </c>
       <c r="B368" t="s">
@@ -10658,7 +10678,7 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
+      <c r="A369" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="B369" t="s">
@@ -10672,7 +10692,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
+      <c r="A370" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B370" t="s">
@@ -10686,7 +10706,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
+      <c r="A371" s="1" t="s">
         <v>1238</v>
       </c>
       <c r="B371" t="s">
@@ -10700,7 +10720,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
+      <c r="A372" s="1" t="s">
         <v>1241</v>
       </c>
       <c r="B372" t="s">
@@ -10714,7 +10734,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
+      <c r="A373" s="1" t="s">
         <v>1245</v>
       </c>
       <c r="B373" t="s">
@@ -10728,7 +10748,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
+      <c r="A374" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B374" t="s">
@@ -10742,7 +10762,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
+      <c r="A375" s="1" t="s">
         <v>1247</v>
       </c>
       <c r="B375" t="s">
@@ -10756,7 +10776,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
+      <c r="A376" s="2" t="s">
         <v>1249</v>
       </c>
       <c r="B376" t="s">
@@ -10770,7 +10790,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
+      <c r="A377" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="B377" t="s">
@@ -10784,7 +10804,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
+      <c r="A378" s="2" t="s">
         <v>1257</v>
       </c>
       <c r="B378" t="s">
@@ -10798,7 +10818,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
+      <c r="A379" s="1" t="s">
         <v>1260</v>
       </c>
       <c r="B379" t="s">
@@ -10812,7 +10832,7 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
+      <c r="A380" s="1" t="s">
         <v>1264</v>
       </c>
       <c r="B380" t="s">
@@ -10840,7 +10860,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
+      <c r="A382" s="1" t="s">
         <v>1269</v>
       </c>
       <c r="B382" t="s">
@@ -10854,7 +10874,7 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
+      <c r="A383" s="2" t="s">
         <v>1273</v>
       </c>
       <c r="B383" t="s">
@@ -10868,7 +10888,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
+      <c r="A384" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="B384" t="s">
@@ -10882,7 +10902,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
+      <c r="A385" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="B385" t="s">
@@ -10896,7 +10916,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
+      <c r="A386" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="B386" t="s">
@@ -10910,7 +10930,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
+      <c r="A387" s="1" t="s">
         <v>1288</v>
       </c>
       <c r="B387" t="s">
@@ -10924,7 +10944,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
+      <c r="A388" s="1" t="s">
         <v>1290</v>
       </c>
       <c r="B388" t="s">
@@ -10938,7 +10958,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
+      <c r="A389" s="2" t="s">
         <v>1293</v>
       </c>
       <c r="B389" t="s">
@@ -10952,7 +10972,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
+      <c r="A390" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="B390" t="s">
@@ -10966,7 +10986,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
+      <c r="A391" s="2" t="s">
         <v>1299</v>
       </c>
       <c r="B391" t="s">
@@ -10980,7 +11000,7 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
+      <c r="A392" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="B392" t="s">
@@ -10994,7 +11014,7 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
+      <c r="A393" s="1" t="s">
         <v>1304</v>
       </c>
       <c r="B393" t="s">
@@ -11008,7 +11028,7 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
+      <c r="A394" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="B394" t="s">
@@ -11022,7 +11042,7 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
+      <c r="A395" s="2" t="s">
         <v>1309</v>
       </c>
       <c r="B395" t="s">
@@ -11036,7 +11056,7 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
+      <c r="A396" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B396" t="s">
@@ -11051,314 +11071,314 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B397" t="s">
         <v>1312</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1313</v>
       </c>
       <c r="C397" t="s">
         <v>695</v>
       </c>
       <c r="D397" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
         <v>1314</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
+      <c r="B398" t="s">
         <v>1315</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>1316</v>
       </c>
-      <c r="C398" t="s">
+      <c r="D398" t="s">
         <v>1317</v>
       </c>
-      <c r="D398" t="s">
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
         <v>1318</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>1319</v>
       </c>
       <c r="B399" t="s">
         <v>177</v>
       </c>
       <c r="C399" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D399" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>1320</v>
+      <c r="A400" s="2" t="s">
+        <v>1319</v>
       </c>
       <c r="B400" t="s">
         <v>112</v>
       </c>
       <c r="C400" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D400" t="s">
         <v>1320</v>
       </c>
-      <c r="D400" t="s">
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
         <v>1321</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>1322</v>
       </c>
       <c r="B401" t="s">
         <v>155</v>
       </c>
       <c r="C401" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D401" t="s">
         <v>1323</v>
       </c>
-      <c r="D401" t="s">
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
+      <c r="B402" t="s">
         <v>1325</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>1326</v>
       </c>
-      <c r="C402" t="s">
+      <c r="D402" t="s">
         <v>1327</v>
       </c>
-      <c r="D402" t="s">
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
+      <c r="B403" t="s">
         <v>1329</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
         <v>1330</v>
       </c>
-      <c r="C403" t="s">
+      <c r="D403" t="s">
         <v>1331</v>
       </c>
-      <c r="D403" t="s">
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
+      <c r="B404" t="s">
         <v>1333</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" t="s">
         <v>1334</v>
       </c>
-      <c r="C404" t="s">
+      <c r="D404" t="s">
         <v>1335</v>
       </c>
-      <c r="D404" t="s">
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
+      <c r="B405" t="s">
         <v>1337</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D405" t="s">
         <v>1338</v>
       </c>
-      <c r="C405" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D405" t="s">
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
         <v>1339</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>1340</v>
       </c>
       <c r="B406" t="s">
         <v>112</v>
       </c>
       <c r="C406" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D406" t="s">
         <v>1340</v>
       </c>
-      <c r="D406" t="s">
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+      <c r="B407" t="s">
         <v>1342</v>
       </c>
-      <c r="B407" t="s">
+      <c r="C407" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D407" t="s">
         <v>1343</v>
       </c>
-      <c r="C407" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D407" t="s">
-        <v>1344</v>
-      </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
+      <c r="A408" s="1" t="s">
         <v>1111</v>
       </c>
       <c r="B408" t="s">
         <v>1112</v>
       </c>
       <c r="C408" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D408" t="s">
         <v>1345</v>
       </c>
-      <c r="D408" t="s">
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
+      <c r="B409" t="s">
         <v>1347</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D409" t="s">
         <v>1348</v>
       </c>
-      <c r="C409" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D409" t="s">
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
         <v>1349</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
+      <c r="B410" t="s">
         <v>1350</v>
       </c>
-      <c r="B410" t="s">
+      <c r="C410" t="s">
         <v>1351</v>
       </c>
-      <c r="C410" t="s">
+      <c r="D410" t="s">
         <v>1352</v>
       </c>
-      <c r="D410" t="s">
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
         <v>1353</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>1354</v>
       </c>
       <c r="B411" t="s">
         <v>162</v>
       </c>
       <c r="C411" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D411" t="s">
         <v>1354</v>
       </c>
-      <c r="D411" t="s">
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
+      <c r="B412" t="s">
         <v>1356</v>
       </c>
-      <c r="B412" t="s">
+      <c r="C412" t="s">
         <v>1357</v>
       </c>
-      <c r="C412" t="s">
+      <c r="D412" t="s">
         <v>1358</v>
       </c>
-      <c r="D412" t="s">
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
         <v>1359</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>1360</v>
       </c>
       <c r="B413" t="s">
         <v>791</v>
       </c>
       <c r="C413" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D413" t="s">
         <v>1360</v>
       </c>
-      <c r="D413" t="s">
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
         <v>1361</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>1362</v>
       </c>
       <c r="B414" t="s">
         <v>206</v>
       </c>
       <c r="C414" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D414" t="s">
         <v>1362</v>
       </c>
-      <c r="D414" t="s">
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
+      <c r="B415" t="s">
         <v>1364</v>
       </c>
-      <c r="B415" t="s">
+      <c r="C415" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D415" t="s">
         <v>1365</v>
       </c>
-      <c r="C415" t="s">
-        <v>1364</v>
-      </c>
-      <c r="D415" t="s">
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
+      <c r="B416" t="s">
         <v>1367</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D416" t="s">
         <v>1368</v>
       </c>
-      <c r="C416" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D416" t="s">
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
+      <c r="B417" t="s">
         <v>1370</v>
       </c>
-      <c r="B417" t="s">
+      <c r="C417" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D417" t="s">
         <v>1371</v>
       </c>
-      <c r="C417" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D417" t="s">
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
         <v>1372</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+      <c r="B418" t="s">
         <v>1373</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D418" t="s">
         <v>1374</v>
       </c>
-      <c r="C418" t="s">
-        <v>1373</v>
-      </c>
-      <c r="D418" t="s">
-        <v>1375</v>
-      </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
+      <c r="A419" s="1" t="s">
         <v>846</v>
       </c>
       <c r="B419" t="s">
@@ -11372,238 +11392,238 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
+      <c r="A420" s="2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B420" t="s">
         <v>1376</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
+        <v>1375</v>
+      </c>
+      <c r="D420" t="s">
         <v>1377</v>
       </c>
-      <c r="C420" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D420" t="s">
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
+      <c r="B421" t="s">
         <v>1379</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D421" t="s">
         <v>1380</v>
       </c>
-      <c r="C421" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D421" t="s">
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
+      <c r="B422" t="s">
         <v>1382</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C422" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D422" t="s">
         <v>1383</v>
       </c>
-      <c r="C422" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D422" t="s">
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
+      <c r="B423" t="s">
         <v>1385</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>1386</v>
       </c>
-      <c r="C423" t="s">
+      <c r="D423" t="s">
         <v>1387</v>
       </c>
-      <c r="D423" t="s">
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
+      <c r="B424" t="s">
         <v>1389</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>1390</v>
       </c>
-      <c r="C424" t="s">
+      <c r="D424" t="s">
         <v>1391</v>
       </c>
-      <c r="D424" t="s">
-        <v>1392</v>
-      </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
+      <c r="A425" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B425" t="s">
         <v>272</v>
       </c>
       <c r="C425" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D425" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
+      <c r="A426" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B426" t="s">
         <v>1394</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
         <v>1395</v>
       </c>
-      <c r="C426" t="s">
+      <c r="D426" t="s">
         <v>1396</v>
       </c>
-      <c r="D426" t="s">
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
+      <c r="B427" t="s">
         <v>1398</v>
       </c>
-      <c r="B427" t="s">
+      <c r="C427" t="s">
         <v>1399</v>
       </c>
-      <c r="C427" t="s">
+      <c r="D427" t="s">
         <v>1400</v>
       </c>
-      <c r="D427" t="s">
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
+      <c r="B428" t="s">
         <v>1402</v>
       </c>
-      <c r="B428" t="s">
+      <c r="C428" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D428" t="s">
         <v>1403</v>
       </c>
-      <c r="C428" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D428" t="s">
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
         <v>1404</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>1405</v>
       </c>
       <c r="B429" t="s">
         <v>155</v>
       </c>
       <c r="C429" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D429" t="s">
         <v>1406</v>
       </c>
-      <c r="D429" t="s">
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="B430" t="s">
         <v>1408</v>
       </c>
-      <c r="B430" t="s">
+      <c r="C430" t="s">
         <v>1409</v>
       </c>
-      <c r="C430" t="s">
+      <c r="D430" t="s">
         <v>1410</v>
       </c>
-      <c r="D430" t="s">
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
+      <c r="B431" t="s">
         <v>1412</v>
       </c>
-      <c r="B431" t="s">
+      <c r="C431" t="s">
         <v>1413</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431" t="s">
         <v>1414</v>
       </c>
-      <c r="D431" t="s">
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
+      <c r="B432" t="s">
         <v>1416</v>
       </c>
-      <c r="B432" t="s">
+      <c r="C432" t="s">
         <v>1417</v>
       </c>
-      <c r="C432" t="s">
+      <c r="D432" t="s">
         <v>1418</v>
       </c>
-      <c r="D432" t="s">
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
+      <c r="B433" t="s">
         <v>1420</v>
       </c>
-      <c r="B433" t="s">
+      <c r="C433" t="s">
         <v>1421</v>
       </c>
-      <c r="C433" t="s">
+      <c r="D433" t="s">
         <v>1422</v>
       </c>
-      <c r="D433" t="s">
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
         <v>1423</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>1424</v>
       </c>
       <c r="B434" t="s">
         <v>262</v>
       </c>
       <c r="C434" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D434" t="s">
         <v>1424</v>
       </c>
-      <c r="D434" t="s">
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
+      <c r="B435" t="s">
         <v>1426</v>
       </c>
-      <c r="B435" t="s">
+      <c r="C435" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D435" t="s">
         <v>1427</v>
       </c>
-      <c r="C435" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D435" t="s">
-        <v>1428</v>
-      </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
+      <c r="A436" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B436" t="s">
         <v>255</v>
       </c>
       <c r="C436" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D436" t="s">
         <v>257</v>
@@ -11611,30 +11631,30 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B437" t="s">
         <v>1430</v>
       </c>
-      <c r="B437" t="s">
+      <c r="C437" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D437" t="s">
         <v>1431</v>
-      </c>
-      <c r="C437" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D437" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B438" t="s">
         <v>1433</v>
       </c>
-      <c r="B438" t="s">
+      <c r="C438" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D438" t="s">
         <v>1434</v>
-      </c>
-      <c r="C438" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
@@ -11645,7 +11665,7 @@
         <v>1191</v>
       </c>
       <c r="C439" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D439" t="s">
         <v>1193</v>
@@ -11681,72 +11701,72 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="B442" t="s">
         <v>102</v>
       </c>
       <c r="C442" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D442" t="s">
         <v>1438</v>
-      </c>
-      <c r="D442" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B443" t="s">
         <v>262</v>
       </c>
       <c r="C443" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D443" t="s">
         <v>1441</v>
-      </c>
-      <c r="D443" t="s">
-        <v>1442</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B444" t="s">
         <v>83</v>
       </c>
       <c r="C444" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D444" t="s">
         <v>1443</v>
-      </c>
-      <c r="D444" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B445" t="s">
         <v>791</v>
       </c>
       <c r="C445" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D445" t="s">
         <v>1445</v>
-      </c>
-      <c r="D445" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B446" t="s">
         <v>1447</v>
       </c>
-      <c r="B446" t="s">
+      <c r="C446" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D446" t="s">
         <v>1448</v>
-      </c>
-      <c r="C446" t="s">
-        <v>1447</v>
-      </c>
-      <c r="D446" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
@@ -11757,7 +11777,7 @@
         <v>610</v>
       </c>
       <c r="C447" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D447" t="s">
         <v>794</v>
@@ -11765,16 +11785,16 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B448" t="s">
         <v>112</v>
       </c>
       <c r="C448" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D448" t="s">
         <v>1452</v>
-      </c>
-      <c r="D448" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
@@ -11793,58 +11813,58 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B450" t="s">
         <v>1454</v>
       </c>
-      <c r="B450" t="s">
+      <c r="C450" t="s">
         <v>1455</v>
       </c>
-      <c r="C450" t="s">
+      <c r="D450" t="s">
         <v>1456</v>
-      </c>
-      <c r="D450" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B451" t="s">
         <v>1458</v>
       </c>
-      <c r="B451" t="s">
+      <c r="C451" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D451" t="s">
         <v>1459</v>
-      </c>
-      <c r="C451" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D451" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B452" t="s">
         <v>1461</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D452" t="s">
         <v>1462</v>
-      </c>
-      <c r="C452" t="s">
-        <v>1461</v>
-      </c>
-      <c r="D452" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B453" t="s">
         <v>531</v>
       </c>
       <c r="C453" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D453" t="s">
         <v>1465</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1466</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
@@ -11855,7 +11875,7 @@
         <v>531</v>
       </c>
       <c r="C454" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D454" t="s">
         <v>540</v>
@@ -11869,7 +11889,7 @@
         <v>531</v>
       </c>
       <c r="C455" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="D455" t="s">
         <v>533</v>
@@ -11877,49 +11897,49 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="B456" t="s">
         <v>531</v>
       </c>
       <c r="C456" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D456" t="s">
         <v>1470</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B457" t="s">
         <v>1472</v>
       </c>
-      <c r="B457" t="s">
+      <c r="C457" t="s">
         <v>1473</v>
       </c>
-      <c r="C457" t="s">
+      <c r="D457" t="s">
         <v>1474</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D458" t="s">
         <v>1476</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C458" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D458" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="B459" t="s">
         <v>1161</v>
@@ -11928,278 +11948,278 @@
         <v>1162</v>
       </c>
       <c r="D459" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B460" t="s">
         <v>1480</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>1481</v>
       </c>
-      <c r="C460" t="s">
+      <c r="D460" t="s">
         <v>1482</v>
-      </c>
-      <c r="D460" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B461" t="s">
         <v>1484</v>
       </c>
-      <c r="B461" t="s">
+      <c r="C461" t="s">
         <v>1485</v>
       </c>
-      <c r="C461" t="s">
+      <c r="D461" t="s">
         <v>1486</v>
-      </c>
-      <c r="D461" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B462" t="s">
         <v>1488</v>
       </c>
-      <c r="B462" t="s">
+      <c r="C462" t="s">
         <v>1489</v>
       </c>
-      <c r="C462" t="s">
+      <c r="D462" t="s">
         <v>1490</v>
-      </c>
-      <c r="D462" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B463" t="s">
         <v>1492</v>
       </c>
-      <c r="B463" t="s">
+      <c r="C463" t="s">
         <v>1493</v>
       </c>
-      <c r="C463" t="s">
+      <c r="D463" t="s">
         <v>1494</v>
-      </c>
-      <c r="D463" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B464" t="s">
         <v>1496</v>
       </c>
-      <c r="B464" t="s">
+      <c r="C464" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D464" t="s">
         <v>1497</v>
-      </c>
-      <c r="C464" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D464" t="s">
-        <v>1498</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B465" t="s">
         <v>1499</v>
       </c>
-      <c r="B465" t="s">
+      <c r="C465" t="s">
         <v>1500</v>
       </c>
-      <c r="C465" t="s">
+      <c r="D465" t="s">
         <v>1501</v>
-      </c>
-      <c r="D465" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B466" t="s">
         <v>1503</v>
       </c>
-      <c r="B466" t="s">
+      <c r="C466" t="s">
         <v>1504</v>
       </c>
-      <c r="C466" t="s">
+      <c r="D466" t="s">
         <v>1505</v>
-      </c>
-      <c r="D466" t="s">
-        <v>1506</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B467" t="s">
         <v>1507</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
         <v>1508</v>
       </c>
-      <c r="C467" t="s">
+      <c r="D467" t="s">
         <v>1509</v>
-      </c>
-      <c r="D467" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B468" t="s">
         <v>1511</v>
       </c>
-      <c r="B468" t="s">
+      <c r="C468" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D468" t="s">
         <v>1512</v>
-      </c>
-      <c r="C468" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D468" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B469" t="s">
         <v>1514</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>1515</v>
       </c>
-      <c r="C469" t="s">
+      <c r="D469" t="s">
         <v>1516</v>
-      </c>
-      <c r="D469" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B470" t="s">
         <v>1518</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D470" t="s">
         <v>1519</v>
-      </c>
-      <c r="C470" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1520</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B471" t="s">
         <v>1521</v>
       </c>
-      <c r="B471" t="s">
+      <c r="C471" t="s">
         <v>1522</v>
       </c>
-      <c r="C471" t="s">
+      <c r="D471" t="s">
         <v>1523</v>
-      </c>
-      <c r="D471" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B472" t="s">
         <v>1525</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C472" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D472" t="s">
         <v>1526</v>
-      </c>
-      <c r="C472" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D472" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B473" t="s">
         <v>1528</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
         <v>1529</v>
       </c>
-      <c r="C473" t="s">
+      <c r="D473" t="s">
         <v>1530</v>
-      </c>
-      <c r="D473" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B474" t="s">
         <v>1532</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C474" t="s">
         <v>1533</v>
       </c>
-      <c r="C474" t="s">
+      <c r="D474" t="s">
         <v>1534</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B475" t="s">
         <v>1536</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>1537</v>
       </c>
-      <c r="C475" t="s">
+      <c r="D475" t="s">
         <v>1538</v>
-      </c>
-      <c r="D475" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B476" t="s">
         <v>1540</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>1541</v>
       </c>
-      <c r="C476" t="s">
+      <c r="D476" t="s">
         <v>1542</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B477" t="s">
         <v>1544</v>
       </c>
-      <c r="B477" t="s">
+      <c r="C477" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D477" t="s">
         <v>1545</v>
-      </c>
-      <c r="C477" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B478" t="s">
         <v>851</v>
       </c>
       <c r="C478" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D478" t="s">
         <v>1548</v>
-      </c>
-      <c r="D478" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="B479" t="s">
         <v>356</v>
@@ -12208,49 +12228,49 @@
         <v>626</v>
       </c>
       <c r="D479" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B480" t="s">
         <v>1552</v>
       </c>
-      <c r="B480" t="s">
+      <c r="C480" t="s">
         <v>1553</v>
       </c>
-      <c r="C480" t="s">
+      <c r="D480" t="s">
         <v>1554</v>
-      </c>
-      <c r="D480" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B481" t="s">
         <v>1556</v>
       </c>
-      <c r="B481" t="s">
+      <c r="C481" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D481" t="s">
         <v>1557</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D481" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B482" t="s">
         <v>1559</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>1560</v>
       </c>
-      <c r="C482" t="s">
+      <c r="D482" t="s">
         <v>1561</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
@@ -12269,44 +12289,44 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B484" t="s">
         <v>681</v>
       </c>
       <c r="C484" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D484" t="s">
         <v>1564</v>
-      </c>
-      <c r="D484" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B485" t="s">
         <v>1566</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
         <v>1567</v>
       </c>
-      <c r="C485" t="s">
+      <c r="D485" t="s">
         <v>1568</v>
-      </c>
-      <c r="D485" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B486" t="s">
         <v>1570</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>1571</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" t="s">
         <v>1572</v>
-      </c>
-      <c r="D486" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
@@ -12317,7 +12337,7 @@
         <v>62</v>
       </c>
       <c r="C487" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D487" t="s">
         <v>64</v>
@@ -12325,49 +12345,49 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B488" t="s">
         <v>1575</v>
       </c>
-      <c r="B488" t="s">
+      <c r="C488" t="s">
         <v>1576</v>
       </c>
-      <c r="C488" t="s">
+      <c r="D488" t="s">
         <v>1577</v>
-      </c>
-      <c r="D488" t="s">
-        <v>1578</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B489" t="s">
         <v>1579</v>
       </c>
-      <c r="B489" t="s">
+      <c r="C489" t="s">
         <v>1580</v>
       </c>
-      <c r="C489" t="s">
+      <c r="D489" t="s">
         <v>1581</v>
-      </c>
-      <c r="D489" t="s">
-        <v>1582</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B490" t="s">
         <v>1583</v>
       </c>
-      <c r="B490" t="s">
+      <c r="C490" t="s">
         <v>1584</v>
       </c>
-      <c r="C490" t="s">
+      <c r="D490" t="s">
         <v>1585</v>
-      </c>
-      <c r="D490" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B491" t="s">
         <v>460</v>
@@ -12381,16 +12401,16 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B492" t="s">
         <v>1588</v>
       </c>
-      <c r="B492" t="s">
+      <c r="C492" t="s">
         <v>1589</v>
       </c>
-      <c r="C492" t="s">
+      <c r="D492" t="s">
         <v>1590</v>
-      </c>
-      <c r="D492" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
@@ -12401,7 +12421,7 @@
         <v>135</v>
       </c>
       <c r="C493" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D493" t="s">
         <v>137</v>
@@ -12409,198 +12429,198 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="B494" t="s">
         <v>255</v>
       </c>
       <c r="C494" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D494" t="s">
         <v>1594</v>
-      </c>
-      <c r="D494" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B495" t="s">
         <v>1596</v>
       </c>
-      <c r="B495" t="s">
+      <c r="C495" t="s">
         <v>1597</v>
       </c>
-      <c r="C495" t="s">
+      <c r="D495" t="s">
         <v>1598</v>
-      </c>
-      <c r="D495" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B496" t="s">
         <v>685</v>
       </c>
       <c r="C496" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D496" t="s">
         <v>1601</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1602</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B497" t="s">
         <v>1603</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>1604</v>
       </c>
-      <c r="C497" t="s">
+      <c r="D497" t="s">
         <v>1605</v>
-      </c>
-      <c r="D497" t="s">
-        <v>1606</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B498" t="s">
         <v>1607</v>
       </c>
-      <c r="B498" t="s">
+      <c r="C498" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D498" t="s">
         <v>1608</v>
-      </c>
-      <c r="C498" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B499" t="s">
         <v>1029</v>
       </c>
       <c r="C499" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D499" t="s">
         <v>1611</v>
-      </c>
-      <c r="D499" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B500" t="s">
         <v>435</v>
       </c>
       <c r="C500" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D500" t="s">
         <v>1613</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1614</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B501" t="s">
         <v>1615</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D501" t="s">
         <v>1616</v>
-      </c>
-      <c r="C501" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B502" t="s">
         <v>1104</v>
       </c>
       <c r="C502" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D502" t="s">
         <v>1619</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1620</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D503" t="s">
         <v>1621</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1500</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1621</v>
-      </c>
-      <c r="D503" t="s">
-        <v>1622</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B504" t="s">
         <v>1623</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504" t="s">
         <v>1624</v>
       </c>
-      <c r="C504" t="s">
+      <c r="D504" t="s">
         <v>1625</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B505" t="s">
         <v>1398</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
         <v>1399</v>
       </c>
-      <c r="C505" t="s">
+      <c r="D505" t="s">
         <v>1400</v>
-      </c>
-      <c r="D505" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B506" t="s">
         <v>1458</v>
       </c>
-      <c r="B506" t="s">
+      <c r="C506" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D506" t="s">
         <v>1459</v>
-      </c>
-      <c r="C506" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B507" t="s">
         <v>1627</v>
       </c>
-      <c r="B507" t="s">
+      <c r="C507" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D507" t="s">
         <v>1628</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1629</v>
       </c>
     </row>
   </sheetData>

--- a/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
+++ b/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20564AE0-620B-48F6-B0F2-F7522C29A877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A37045C-F38F-466E-8E83-666DEFDE3D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4401,9 +4401,6 @@
     <t>GBAHS1701239</t>
   </si>
   <si>
-    <t>Keep On Movin'</t>
-  </si>
-  <si>
     <t>Five</t>
   </si>
   <si>
@@ -5154,14 +5151,13 @@
   <si>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Africa</t>
+      <t>Keep On Movin</t>
     </r>
     <r>
       <rPr>
@@ -5171,8 +5167,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Radio Version</t>
+      <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>Africa - Radio Version</t>
   </si>
 </sst>
 </file>
@@ -5195,20 +5194,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5220,15 +5223,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5513,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="A437" sqref="A437"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="A507" sqref="A507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5569,7 +5574,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -5583,7 +5588,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -5681,7 +5686,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -5695,7 +5700,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -5723,7 +5728,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -5779,7 +5784,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -5807,7 +5812,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -5849,7 +5854,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -7641,7 +7646,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B152" t="s">
         <v>516</v>
@@ -7851,7 +7856,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B167" t="s">
         <v>572</v>
@@ -8635,7 +8640,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B223" t="s">
         <v>758</v>
@@ -11070,7 +11075,7 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
+      <c r="A397" s="2" t="s">
         <v>1640</v>
       </c>
       <c r="B397" t="s">
@@ -11630,7 +11635,7 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="B437" t="s">
@@ -11644,7 +11649,7 @@
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
+      <c r="A438" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="B438" t="s">
@@ -11658,7 +11663,7 @@
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
+      <c r="A439" s="1" t="s">
         <v>1190</v>
       </c>
       <c r="B439" t="s">
@@ -11672,7 +11677,7 @@
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
+      <c r="A440" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B440" t="s">
@@ -11686,7 +11691,7 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
+      <c r="A441" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B441" t="s">
@@ -11700,7 +11705,7 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="A442" s="1" t="s">
         <v>1436</v>
       </c>
       <c r="B442" t="s">
@@ -11714,7 +11719,7 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
+      <c r="A443" s="1" t="s">
         <v>1439</v>
       </c>
       <c r="B443" t="s">
@@ -11728,7 +11733,7 @@
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
+      <c r="A444" s="1" t="s">
         <v>1442</v>
       </c>
       <c r="B444" t="s">
@@ -11742,7 +11747,7 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
+      <c r="A445" s="2" t="s">
         <v>1444</v>
       </c>
       <c r="B445" t="s">
@@ -11756,7 +11761,7 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
+      <c r="A446" s="2" t="s">
         <v>1446</v>
       </c>
       <c r="B446" t="s">
@@ -11770,7 +11775,7 @@
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
+      <c r="A447" s="2" t="s">
         <v>793</v>
       </c>
       <c r="B447" t="s">
@@ -11784,7 +11789,7 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
+      <c r="A448" s="1" t="s">
         <v>1450</v>
       </c>
       <c r="B448" t="s">
@@ -11798,7 +11803,7 @@
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+      <c r="A449" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B449" t="s">
@@ -11813,133 +11818,133 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B450" t="s">
         <v>1453</v>
       </c>
-      <c r="B450" t="s">
+      <c r="C450" t="s">
         <v>1454</v>
       </c>
-      <c r="C450" t="s">
+      <c r="D450" t="s">
         <v>1455</v>
       </c>
-      <c r="D450" t="s">
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
+      <c r="B451" t="s">
         <v>1457</v>
       </c>
-      <c r="B451" t="s">
+      <c r="C451" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D451" t="s">
         <v>1458</v>
       </c>
-      <c r="C451" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D451" t="s">
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
+      <c r="B452" t="s">
         <v>1460</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D452" t="s">
         <v>1461</v>
       </c>
-      <c r="C452" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D452" t="s">
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
         <v>1462</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>1463</v>
       </c>
       <c r="B453" t="s">
         <v>531</v>
       </c>
       <c r="C453" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D453" t="s">
         <v>1464</v>
       </c>
-      <c r="D453" t="s">
-        <v>1465</v>
-      </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
+      <c r="A454" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B454" t="s">
         <v>531</v>
       </c>
       <c r="C454" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="D454" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
+      <c r="A455" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B455" t="s">
         <v>531</v>
       </c>
       <c r="C455" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="D455" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>1468</v>
+      <c r="A456" s="1" t="s">
+        <v>1467</v>
       </c>
       <c r="B456" t="s">
         <v>531</v>
       </c>
       <c r="C456" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D456" t="s">
         <v>1469</v>
       </c>
-      <c r="D456" t="s">
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
+      <c r="B457" t="s">
         <v>1471</v>
       </c>
-      <c r="B457" t="s">
+      <c r="C457" t="s">
         <v>1472</v>
       </c>
-      <c r="C457" t="s">
+      <c r="D457" t="s">
         <v>1473</v>
       </c>
-      <c r="D457" t="s">
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
+      <c r="B458" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C458" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D458" t="s">
         <v>1475</v>
       </c>
-      <c r="B458" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C458" t="s">
-        <v>1473</v>
-      </c>
-      <c r="D458" t="s">
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
         <v>1476</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>1477</v>
       </c>
       <c r="B459" t="s">
         <v>1161</v>
@@ -11948,278 +11953,278 @@
         <v>1162</v>
       </c>
       <c r="D459" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
+      <c r="B460" t="s">
         <v>1479</v>
       </c>
-      <c r="B460" t="s">
+      <c r="C460" t="s">
         <v>1480</v>
       </c>
-      <c r="C460" t="s">
+      <c r="D460" t="s">
         <v>1481</v>
       </c>
-      <c r="D460" t="s">
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
+      <c r="B461" t="s">
         <v>1483</v>
       </c>
-      <c r="B461" t="s">
+      <c r="C461" t="s">
         <v>1484</v>
       </c>
-      <c r="C461" t="s">
+      <c r="D461" t="s">
         <v>1485</v>
       </c>
-      <c r="D461" t="s">
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
+      <c r="B462" t="s">
         <v>1487</v>
       </c>
-      <c r="B462" t="s">
+      <c r="C462" t="s">
         <v>1488</v>
       </c>
-      <c r="C462" t="s">
+      <c r="D462" t="s">
         <v>1489</v>
       </c>
-      <c r="D462" t="s">
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
+      <c r="B463" t="s">
         <v>1491</v>
       </c>
-      <c r="B463" t="s">
+      <c r="C463" t="s">
         <v>1492</v>
       </c>
-      <c r="C463" t="s">
+      <c r="D463" t="s">
         <v>1493</v>
       </c>
-      <c r="D463" t="s">
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
+      <c r="B464" t="s">
         <v>1495</v>
       </c>
-      <c r="B464" t="s">
+      <c r="C464" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D464" t="s">
         <v>1496</v>
       </c>
-      <c r="C464" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D464" t="s">
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
+      <c r="B465" t="s">
         <v>1498</v>
       </c>
-      <c r="B465" t="s">
+      <c r="C465" t="s">
         <v>1499</v>
       </c>
-      <c r="C465" t="s">
+      <c r="D465" t="s">
         <v>1500</v>
       </c>
-      <c r="D465" t="s">
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
+      <c r="B466" t="s">
         <v>1502</v>
       </c>
-      <c r="B466" t="s">
+      <c r="C466" t="s">
         <v>1503</v>
       </c>
-      <c r="C466" t="s">
+      <c r="D466" t="s">
         <v>1504</v>
       </c>
-      <c r="D466" t="s">
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
+      <c r="B467" t="s">
         <v>1506</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
         <v>1507</v>
       </c>
-      <c r="C467" t="s">
+      <c r="D467" t="s">
         <v>1508</v>
       </c>
-      <c r="D467" t="s">
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
+      <c r="B468" t="s">
         <v>1510</v>
       </c>
-      <c r="B468" t="s">
+      <c r="C468" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D468" t="s">
         <v>1511</v>
       </c>
-      <c r="C468" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D468" t="s">
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
+      <c r="B469" t="s">
         <v>1513</v>
       </c>
-      <c r="B469" t="s">
+      <c r="C469" t="s">
         <v>1514</v>
       </c>
-      <c r="C469" t="s">
+      <c r="D469" t="s">
         <v>1515</v>
       </c>
-      <c r="D469" t="s">
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
+      <c r="B470" t="s">
         <v>1517</v>
       </c>
-      <c r="B470" t="s">
+      <c r="C470" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D470" t="s">
         <v>1518</v>
       </c>
-      <c r="C470" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D470" t="s">
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
+      <c r="B471" t="s">
         <v>1520</v>
       </c>
-      <c r="B471" t="s">
+      <c r="C471" t="s">
         <v>1521</v>
       </c>
-      <c r="C471" t="s">
+      <c r="D471" t="s">
         <v>1522</v>
       </c>
-      <c r="D471" t="s">
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
+      <c r="B472" t="s">
         <v>1524</v>
       </c>
-      <c r="B472" t="s">
+      <c r="C472" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D472" t="s">
         <v>1525</v>
       </c>
-      <c r="C472" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D472" t="s">
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
+      <c r="B473" t="s">
         <v>1527</v>
       </c>
-      <c r="B473" t="s">
+      <c r="C473" t="s">
         <v>1528</v>
       </c>
-      <c r="C473" t="s">
+      <c r="D473" t="s">
         <v>1529</v>
       </c>
-      <c r="D473" t="s">
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
+      <c r="B474" t="s">
         <v>1531</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C474" t="s">
         <v>1532</v>
       </c>
-      <c r="C474" t="s">
+      <c r="D474" t="s">
         <v>1533</v>
       </c>
-      <c r="D474" t="s">
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
+      <c r="B475" t="s">
         <v>1535</v>
       </c>
-      <c r="B475" t="s">
+      <c r="C475" t="s">
         <v>1536</v>
       </c>
-      <c r="C475" t="s">
+      <c r="D475" t="s">
         <v>1537</v>
       </c>
-      <c r="D475" t="s">
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
+      <c r="B476" t="s">
         <v>1539</v>
       </c>
-      <c r="B476" t="s">
+      <c r="C476" t="s">
         <v>1540</v>
       </c>
-      <c r="C476" t="s">
+      <c r="D476" t="s">
         <v>1541</v>
       </c>
-      <c r="D476" t="s">
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
+      <c r="B477" t="s">
         <v>1543</v>
       </c>
-      <c r="B477" t="s">
+      <c r="C477" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D477" t="s">
         <v>1544</v>
       </c>
-      <c r="C477" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D477" t="s">
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
         <v>1545</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>1546</v>
       </c>
       <c r="B478" t="s">
         <v>851</v>
       </c>
       <c r="C478" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D478" t="s">
         <v>1547</v>
       </c>
-      <c r="D478" t="s">
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
         <v>1548</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>1549</v>
       </c>
       <c r="B479" t="s">
         <v>356</v>
@@ -12228,53 +12233,53 @@
         <v>626</v>
       </c>
       <c r="D479" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
+      <c r="B480" t="s">
         <v>1551</v>
       </c>
-      <c r="B480" t="s">
+      <c r="C480" t="s">
         <v>1552</v>
       </c>
-      <c r="C480" t="s">
+      <c r="D480" t="s">
         <v>1553</v>
       </c>
-      <c r="D480" t="s">
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
+      <c r="B481" t="s">
         <v>1555</v>
       </c>
-      <c r="B481" t="s">
+      <c r="C481" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D481" t="s">
         <v>1556</v>
       </c>
-      <c r="C481" t="s">
-        <v>1556</v>
-      </c>
-      <c r="D481" t="s">
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
+      <c r="B482" t="s">
         <v>1558</v>
       </c>
-      <c r="B482" t="s">
+      <c r="C482" t="s">
         <v>1559</v>
       </c>
-      <c r="C482" t="s">
+      <c r="D482" t="s">
         <v>1560</v>
       </c>
-      <c r="D482" t="s">
-        <v>1561</v>
-      </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
+      <c r="A483" s="1" t="s">
         <v>1194</v>
       </c>
       <c r="B483" t="s">
@@ -12288,106 +12293,106 @@
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>1562</v>
+      <c r="A484" s="1" t="s">
+        <v>1561</v>
       </c>
       <c r="B484" t="s">
         <v>681</v>
       </c>
       <c r="C484" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D484" t="s">
         <v>1563</v>
       </c>
-      <c r="D484" t="s">
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
+      <c r="B485" t="s">
         <v>1565</v>
       </c>
-      <c r="B485" t="s">
+      <c r="C485" t="s">
         <v>1566</v>
       </c>
-      <c r="C485" t="s">
+      <c r="D485" t="s">
         <v>1567</v>
       </c>
-      <c r="D485" t="s">
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
+      <c r="B486" t="s">
         <v>1569</v>
       </c>
-      <c r="B486" t="s">
+      <c r="C486" t="s">
         <v>1570</v>
       </c>
-      <c r="C486" t="s">
+      <c r="D486" t="s">
         <v>1571</v>
       </c>
-      <c r="D486" t="s">
-        <v>1572</v>
-      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
+      <c r="A487" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B487" t="s">
         <v>62</v>
       </c>
       <c r="C487" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D487" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
+      <c r="A488" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B488" t="s">
         <v>1574</v>
       </c>
-      <c r="B488" t="s">
+      <c r="C488" t="s">
         <v>1575</v>
       </c>
-      <c r="C488" t="s">
+      <c r="D488" t="s">
         <v>1576</v>
       </c>
-      <c r="D488" t="s">
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
+      <c r="B489" t="s">
         <v>1578</v>
       </c>
-      <c r="B489" t="s">
+      <c r="C489" t="s">
         <v>1579</v>
       </c>
-      <c r="C489" t="s">
+      <c r="D489" t="s">
         <v>1580</v>
       </c>
-      <c r="D489" t="s">
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
+      <c r="B490" t="s">
         <v>1582</v>
       </c>
-      <c r="B490" t="s">
+      <c r="C490" t="s">
         <v>1583</v>
       </c>
-      <c r="C490" t="s">
+      <c r="D490" t="s">
         <v>1584</v>
       </c>
-      <c r="D490" t="s">
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
         <v>1585</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>1586</v>
       </c>
       <c r="B491" t="s">
         <v>460</v>
@@ -12400,189 +12405,189 @@
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
+      <c r="A492" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B492" t="s">
         <v>1587</v>
       </c>
-      <c r="B492" t="s">
+      <c r="C492" t="s">
         <v>1588</v>
       </c>
-      <c r="C492" t="s">
+      <c r="D492" t="s">
         <v>1589</v>
       </c>
-      <c r="D492" t="s">
-        <v>1590</v>
-      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
+      <c r="A493" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B493" t="s">
         <v>135</v>
       </c>
       <c r="C493" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D493" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>1592</v>
+      <c r="A494" s="1" t="s">
+        <v>1591</v>
       </c>
       <c r="B494" t="s">
         <v>255</v>
       </c>
       <c r="C494" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D494" t="s">
         <v>1593</v>
       </c>
-      <c r="D494" t="s">
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
+      <c r="B495" t="s">
         <v>1595</v>
       </c>
-      <c r="B495" t="s">
+      <c r="C495" t="s">
         <v>1596</v>
       </c>
-      <c r="C495" t="s">
+      <c r="D495" t="s">
         <v>1597</v>
       </c>
-      <c r="D495" t="s">
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
         <v>1598</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>1599</v>
       </c>
       <c r="B496" t="s">
         <v>685</v>
       </c>
       <c r="C496" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D496" t="s">
         <v>1600</v>
       </c>
-      <c r="D496" t="s">
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
+      <c r="B497" t="s">
         <v>1602</v>
       </c>
-      <c r="B497" t="s">
+      <c r="C497" t="s">
         <v>1603</v>
       </c>
-      <c r="C497" t="s">
+      <c r="D497" t="s">
         <v>1604</v>
       </c>
-      <c r="D497" t="s">
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
         <v>1605</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
+      <c r="B498" t="s">
         <v>1606</v>
       </c>
-      <c r="B498" t="s">
+      <c r="C498" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D498" t="s">
         <v>1607</v>
       </c>
-      <c r="C498" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D498" t="s">
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
         <v>1608</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>1609</v>
       </c>
       <c r="B499" t="s">
         <v>1029</v>
       </c>
       <c r="C499" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D499" t="s">
         <v>1610</v>
       </c>
-      <c r="D499" t="s">
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
         <v>1611</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>1612</v>
       </c>
       <c r="B500" t="s">
         <v>435</v>
       </c>
       <c r="C500" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D500" t="s">
         <v>1612</v>
       </c>
-      <c r="D500" t="s">
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
+      <c r="B501" t="s">
         <v>1614</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D501" t="s">
         <v>1615</v>
       </c>
-      <c r="C501" t="s">
-        <v>1614</v>
-      </c>
-      <c r="D501" t="s">
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
         <v>1616</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>1617</v>
       </c>
       <c r="B502" t="s">
         <v>1104</v>
       </c>
       <c r="C502" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D502" t="s">
         <v>1618</v>
       </c>
-      <c r="D502" t="s">
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
+      <c r="B503" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C503" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D503" t="s">
         <v>1620</v>
       </c>
-      <c r="B503" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C503" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D503" t="s">
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
         <v>1621</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
+      <c r="B504" t="s">
         <v>1622</v>
       </c>
-      <c r="B504" t="s">
+      <c r="C504" t="s">
         <v>1623</v>
       </c>
-      <c r="C504" t="s">
+      <c r="D504" t="s">
         <v>1624</v>
       </c>
-      <c r="D504" t="s">
-        <v>1625</v>
-      </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
+      <c r="A505" s="1" t="s">
         <v>1397</v>
       </c>
       <c r="B505" t="s">
@@ -12596,31 +12601,31 @@
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
+      <c r="A506" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B506" t="s">
         <v>1457</v>
       </c>
-      <c r="B506" t="s">
+      <c r="C506" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D506" t="s">
         <v>1458</v>
       </c>
-      <c r="C506" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D506" t="s">
-        <v>1459</v>
-      </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
+      <c r="A507" s="2" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B507" t="s">
         <v>1626</v>
       </c>
-      <c r="B507" t="s">
+      <c r="C507" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D507" t="s">
         <v>1627</v>
-      </c>
-      <c r="C507" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D507" t="s">
-        <v>1628</v>
       </c>
     </row>
   </sheetData>

--- a/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
+++ b/Live_Projects/DJ/Events/01_Active/20190511_Hochzeit0_DanielLisaMarie_Nottuln/Playlists.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20343"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A37045C-F38F-466E-8E83-666DEFDE3D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A813CFBC-13DE-4DFF-9523-19CC446C928B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="1636">
   <si>
     <t>Track name</t>
   </si>
@@ -4926,269 +4926,38 @@
     <t>DEVQ71800002</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>All I Do Is Win</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Feat. T-Pain, Ludacris, Snoop Dogg &amp; Rick Ross</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Call on Me</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Ryan Riback Remix</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Praise You</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Radio Edit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>See You Again</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (feat. Charlie Puth)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sowieso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Radio Version</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Zusammen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> feat. Clueso</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Je ne parle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pas franÃ§ais - Beatgees Remix</t>
-    </r>
-  </si>
-  <si>
     <t>Phänomenal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Don't Stop Believin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>White Wedding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Pt. 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>When Did Your Heart Go Missing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Keep On Movin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
     <t>Africa - Radio Version</t>
+  </si>
+  <si>
+    <t>All I Do Is Win - Feat. T-Pain, Ludacris, Snoop Dogg &amp; Rick Ross</t>
+  </si>
+  <si>
+    <t>Je ne parle pas franÃ§ais - Beatgees Remix</t>
+  </si>
+  <si>
+    <t>Don't Stop Believin'</t>
+  </si>
+  <si>
+    <t>White Wedding - Pt. 1</t>
+  </si>
+  <si>
+    <t>When Did Your Heart Go Missing?</t>
+  </si>
+  <si>
+    <t>Keep On Movin'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5200,8 +4969,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5211,6 +5010,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5223,17 +5033,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5518,8 +5336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="A507" sqref="A507"/>
+    <sheetView tabSelected="1" topLeftCell="A499" workbookViewId="0">
+      <selection activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5531,7 +5349,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -5544,8 +5362,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
@@ -5558,8 +5376,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
@@ -5572,9 +5390,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1628</v>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1630</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -5586,9 +5404,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1629</v>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -5600,8 +5418,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
@@ -5614,8 +5432,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
@@ -5628,8 +5446,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
@@ -5642,8 +5460,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
@@ -5656,8 +5474,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
@@ -5670,8 +5488,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B11" t="s">
@@ -5684,9 +5502,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1630</v>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -5698,9 +5516,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1631</v>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
@@ -5712,8 +5530,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B14" t="s">
@@ -5726,9 +5544,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1632</v>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -5740,8 +5558,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
@@ -5754,8 +5572,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B17" t="s">
@@ -5768,8 +5586,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B18" t="s">
@@ -5782,9 +5600,9 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1633</v>
+    <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -5796,8 +5614,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B20" t="s">
@@ -5810,9 +5628,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1634</v>
+    <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>1631</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -5824,8 +5642,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B22" t="s">
@@ -5838,8 +5656,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B23" t="s">
@@ -5852,9 +5670,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>1635</v>
+    <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>1628</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -5866,8 +5684,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B25" t="s">
@@ -5880,8 +5698,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B26" t="s">
@@ -5894,8 +5712,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B27" t="s">
@@ -5908,8 +5726,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B28" t="s">
@@ -5922,8 +5740,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B29" t="s">
@@ -5936,8 +5754,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B30" t="s">
@@ -5950,8 +5768,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B31" t="s">
@@ -5964,8 +5782,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B32" t="s">
@@ -5978,8 +5796,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B33" t="s">
@@ -5992,8 +5810,8 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B34" t="s">
@@ -6006,8 +5824,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B35" t="s">
@@ -6020,8 +5838,8 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B36" t="s">
@@ -6034,8 +5852,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B37" t="s">
@@ -6048,8 +5866,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B38" t="s">
@@ -6062,8 +5880,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B39" t="s">
@@ -6076,8 +5894,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B40" t="s">
@@ -6090,8 +5908,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B41" t="s">
@@ -6104,8 +5922,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B42" t="s">
@@ -6118,8 +5936,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B43" t="s">
@@ -6132,8 +5950,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B44" t="s">
@@ -6146,8 +5964,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B45" t="s">
@@ -6160,8 +5978,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B46" t="s">
@@ -6174,8 +5992,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B47" t="s">
@@ -6188,8 +6006,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B48" t="s">
@@ -6202,8 +6020,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B49" t="s">
@@ -6216,8 +6034,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B50" t="s">
@@ -6231,7 +6049,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B51" t="s">
@@ -6245,7 +6063,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B52" t="s">
@@ -6259,7 +6077,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B53" t="s">
@@ -6273,7 +6091,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B54" t="s">
@@ -6287,7 +6105,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="6" t="s">
         <v>196</v>
       </c>
       <c r="B55" t="s">
@@ -6301,7 +6119,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="6" t="s">
         <v>198</v>
       </c>
       <c r="B56" t="s">
@@ -6315,7 +6133,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B57" t="s">
@@ -6329,7 +6147,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="6" t="s">
         <v>205</v>
       </c>
       <c r="B58" t="s">
@@ -6343,7 +6161,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="6" t="s">
         <v>208</v>
       </c>
       <c r="B59" t="s">
@@ -6357,7 +6175,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="6" t="s">
         <v>212</v>
       </c>
       <c r="B60" t="s">
@@ -6371,7 +6189,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B61" t="s">
@@ -6385,7 +6203,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B62" t="s">
@@ -6399,7 +6217,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B63" t="s">
@@ -6413,7 +6231,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="6" t="s">
         <v>228</v>
       </c>
       <c r="B64" t="s">
@@ -6427,7 +6245,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="6" t="s">
         <v>232</v>
       </c>
       <c r="B65" t="s">
@@ -6441,7 +6259,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="6" t="s">
         <v>236</v>
       </c>
       <c r="B66" t="s">
@@ -6455,7 +6273,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B67" t="s">
@@ -6469,7 +6287,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="6" t="s">
         <v>243</v>
       </c>
       <c r="B68" t="s">
@@ -6483,7 +6301,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="6" t="s">
         <v>246</v>
       </c>
       <c r="B69" t="s">
@@ -6497,7 +6315,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="6" t="s">
         <v>250</v>
       </c>
       <c r="B70" t="s">
@@ -6511,7 +6329,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B71" t="s">
@@ -6525,7 +6343,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="6" t="s">
         <v>258</v>
       </c>
       <c r="B72" t="s">
@@ -6539,7 +6357,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="6" t="s">
         <v>261</v>
       </c>
       <c r="B73" t="s">
@@ -6553,7 +6371,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B74" t="s">
@@ -6567,7 +6385,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="6" t="s">
         <v>268</v>
       </c>
       <c r="B75" t="s">
@@ -6581,7 +6399,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B76" t="s">
@@ -6595,7 +6413,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B77" t="s">
@@ -6609,7 +6427,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="6" t="s">
         <v>277</v>
       </c>
       <c r="B78" t="s">
@@ -6623,7 +6441,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B79" t="s">
@@ -6637,7 +6455,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="6" t="s">
         <v>282</v>
       </c>
       <c r="B80" t="s">
@@ -6651,7 +6469,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="6" t="s">
         <v>285</v>
       </c>
       <c r="B81" t="s">
@@ -6665,7 +6483,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="7" t="s">
         <v>288</v>
       </c>
       <c r="B82" t="s">
@@ -6679,7 +6497,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="6" t="s">
         <v>292</v>
       </c>
       <c r="B83" t="s">
@@ -6693,7 +6511,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="6" t="s">
         <v>295</v>
       </c>
       <c r="B84" t="s">
@@ -6707,7 +6525,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="6" t="s">
         <v>298</v>
       </c>
       <c r="B85" t="s">
@@ -6721,7 +6539,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="6" t="s">
         <v>300</v>
       </c>
       <c r="B86" t="s">
@@ -6735,7 +6553,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B87" t="s">
@@ -6749,7 +6567,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="7" t="s">
         <v>307</v>
       </c>
       <c r="B88" t="s">
@@ -6763,7 +6581,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="6" t="s">
         <v>311</v>
       </c>
       <c r="B89" t="s">
@@ -6777,7 +6595,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="6" t="s">
         <v>314</v>
       </c>
       <c r="B90" t="s">
@@ -6791,7 +6609,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="6" t="s">
         <v>317</v>
       </c>
       <c r="B91" t="s">
@@ -6805,7 +6623,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="6" t="s">
         <v>320</v>
       </c>
       <c r="B92" t="s">
@@ -6819,7 +6637,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="6" t="s">
         <v>323</v>
       </c>
       <c r="B93" t="s">
@@ -6833,7 +6651,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="7" t="s">
         <v>326</v>
       </c>
       <c r="B94" t="s">
@@ -6847,7 +6665,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="6" t="s">
         <v>330</v>
       </c>
       <c r="B95" t="s">
@@ -6861,7 +6679,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="6" t="s">
         <v>332</v>
       </c>
       <c r="B96" t="s">
@@ -6875,7 +6693,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="6" t="s">
         <v>336</v>
       </c>
       <c r="B97" t="s">
@@ -6889,7 +6707,7 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="6" t="s">
         <v>339</v>
       </c>
       <c r="B98" t="s">
@@ -6903,7 +6721,7 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="7" t="s">
         <v>343</v>
       </c>
       <c r="B99" t="s">
@@ -6917,7 +6735,7 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="6" t="s">
         <v>346</v>
       </c>
       <c r="B100" t="s">
@@ -6931,7 +6749,7 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B101" t="s">
@@ -6945,7 +6763,7 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="6" t="s">
         <v>350</v>
       </c>
       <c r="B102" t="s">
@@ -6959,7 +6777,7 @@
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="6" t="s">
         <v>353</v>
       </c>
       <c r="B103" t="s">
@@ -6973,7 +6791,7 @@
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="6" t="s">
         <v>355</v>
       </c>
       <c r="B104" t="s">
@@ -6987,7 +6805,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="6" t="s">
         <v>359</v>
       </c>
       <c r="B105" t="s">
@@ -7001,7 +6819,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="6" t="s">
         <v>361</v>
       </c>
       <c r="B106" t="s">
@@ -7015,7 +6833,7 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="7" t="s">
         <v>365</v>
       </c>
       <c r="B107" t="s">
@@ -7029,7 +6847,7 @@
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="6" t="s">
         <v>368</v>
       </c>
       <c r="B108" t="s">
@@ -7043,7 +6861,7 @@
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="6" t="s">
         <v>371</v>
       </c>
       <c r="B109" t="s">
@@ -7057,7 +6875,7 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="6" t="s">
         <v>375</v>
       </c>
       <c r="B110" t="s">
@@ -7071,7 +6889,7 @@
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="6" t="s">
         <v>378</v>
       </c>
       <c r="B111" t="s">
@@ -7085,7 +6903,7 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="6" t="s">
         <v>382</v>
       </c>
       <c r="B112" t="s">
@@ -7099,7 +6917,7 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="7" t="s">
         <v>385</v>
       </c>
       <c r="B113" t="s">
@@ -7113,7 +6931,7 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="6" t="s">
         <v>388</v>
       </c>
       <c r="B114" t="s">
@@ -7127,7 +6945,7 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="6" t="s">
         <v>390</v>
       </c>
       <c r="B115" t="s">
@@ -7141,7 +6959,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="6" t="s">
         <v>393</v>
       </c>
       <c r="B116" t="s">
@@ -7155,7 +6973,7 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="6" t="s">
         <v>396</v>
       </c>
       <c r="B117" t="s">
@@ -7169,7 +6987,7 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="6" t="s">
         <v>400</v>
       </c>
       <c r="B118" t="s">
@@ -7183,7 +7001,7 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B119" t="s">
@@ -7197,7 +7015,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="6" t="s">
         <v>408</v>
       </c>
       <c r="B120" t="s">
@@ -7211,7 +7029,7 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="6" t="s">
         <v>412</v>
       </c>
       <c r="B121" t="s">
@@ -7225,7 +7043,7 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="6" t="s">
         <v>416</v>
       </c>
       <c r="B122" t="s">
@@ -7239,7 +7057,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="6" t="s">
         <v>420</v>
       </c>
       <c r="B123" t="s">
@@ -7253,7 +7071,7 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="6" t="s">
         <v>424</v>
       </c>
       <c r="B124" t="s">
@@ -7267,7 +7085,7 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="6" t="s">
         <v>427</v>
       </c>
       <c r="B125" t="s">
@@ -7281,7 +7099,7 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="6" t="s">
         <v>431</v>
       </c>
       <c r="B126" t="s">
@@ -7295,7 +7113,7 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="6" t="s">
         <v>434</v>
       </c>
       <c r="B127" t="s">
@@ -7309,7 +7127,7 @@
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="6" t="s">
         <v>437</v>
       </c>
       <c r="B128" t="s">
@@ -7323,7 +7141,7 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="6" t="s">
         <v>441</v>
       </c>
       <c r="B129" t="s">
@@ -7337,7 +7155,7 @@
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="6" t="s">
         <v>445</v>
       </c>
       <c r="B130" t="s">
@@ -7351,7 +7169,7 @@
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B131" t="s">
@@ -7365,7 +7183,7 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="6" t="s">
         <v>452</v>
       </c>
       <c r="B132" t="s">
@@ -7379,7 +7197,7 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="6" t="s">
         <v>455</v>
       </c>
       <c r="B133" t="s">
@@ -7393,7 +7211,7 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="6" t="s">
         <v>459</v>
       </c>
       <c r="B134" t="s">
@@ -7407,7 +7225,7 @@
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="6" t="s">
         <v>463</v>
       </c>
       <c r="B135" t="s">
@@ -7421,7 +7239,7 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="6" t="s">
         <v>467</v>
       </c>
       <c r="B136" t="s">
@@ -7435,7 +7253,7 @@
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="6" t="s">
         <v>471</v>
       </c>
       <c r="B137" t="s">
@@ -7449,7 +7267,7 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="6" t="s">
         <v>474</v>
       </c>
       <c r="B138" t="s">
@@ -7463,7 +7281,7 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="7" t="s">
         <v>476</v>
       </c>
       <c r="B139" t="s">
@@ -7477,7 +7295,7 @@
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="6" t="s">
         <v>480</v>
       </c>
       <c r="B140" t="s">
@@ -7491,7 +7309,7 @@
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="6" t="s">
         <v>484</v>
       </c>
       <c r="B141" t="s">
@@ -7505,7 +7323,7 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="6" t="s">
         <v>487</v>
       </c>
       <c r="B142" t="s">
@@ -7519,7 +7337,7 @@
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="6" t="s">
         <v>490</v>
       </c>
       <c r="B143" t="s">
@@ -7533,7 +7351,7 @@
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="6" t="s">
         <v>493</v>
       </c>
       <c r="B144" t="s">
@@ -7547,7 +7365,7 @@
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="6" t="s">
         <v>497</v>
       </c>
       <c r="B145" t="s">
@@ -7561,7 +7379,7 @@
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="6" t="s">
         <v>501</v>
       </c>
       <c r="B146" t="s">
@@ -7575,7 +7393,7 @@
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="7" t="s">
         <v>504</v>
       </c>
       <c r="B147" t="s">
@@ -7589,7 +7407,7 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="6" t="s">
         <v>499</v>
       </c>
       <c r="B148" t="s">
@@ -7603,7 +7421,7 @@
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="6" t="s">
         <v>508</v>
       </c>
       <c r="B149" t="s">
@@ -7617,7 +7435,7 @@
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="6" t="s">
         <v>510</v>
       </c>
       <c r="B150" t="s">
@@ -7631,7 +7449,7 @@
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="6" t="s">
         <v>513</v>
       </c>
       <c r="B151" t="s">
@@ -7645,8 +7463,8 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>1636</v>
+      <c r="A152" s="6" t="s">
+        <v>1632</v>
       </c>
       <c r="B152" t="s">
         <v>516</v>
@@ -7659,7 +7477,7 @@
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="6" t="s">
         <v>519</v>
       </c>
       <c r="B153" t="s">
@@ -7673,7 +7491,7 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="6" t="s">
         <v>523</v>
       </c>
       <c r="B154" t="s">
@@ -7687,7 +7505,7 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="6" t="s">
         <v>526</v>
       </c>
       <c r="B155" t="s">
@@ -7701,7 +7519,7 @@
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="6" t="s">
         <v>530</v>
       </c>
       <c r="B156" t="s">
@@ -7715,7 +7533,7 @@
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="7" t="s">
         <v>534</v>
       </c>
       <c r="B157" t="s">
@@ -7729,7 +7547,7 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B158" t="s">
@@ -7743,7 +7561,7 @@
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="7" t="s">
         <v>541</v>
       </c>
       <c r="B159" t="s">
@@ -7757,7 +7575,7 @@
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="6" t="s">
         <v>545</v>
       </c>
       <c r="B160" t="s">
@@ -7771,7 +7589,7 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="6" t="s">
         <v>549</v>
       </c>
       <c r="B161" t="s">
@@ -7785,7 +7603,7 @@
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="6" t="s">
         <v>552</v>
       </c>
       <c r="B162" t="s">
@@ -7799,7 +7617,7 @@
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="6" t="s">
         <v>556</v>
       </c>
       <c r="B163" t="s">
@@ -7813,7 +7631,7 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="6" t="s">
         <v>560</v>
       </c>
       <c r="B164" t="s">
@@ -7827,7 +7645,7 @@
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="6" t="s">
         <v>564</v>
       </c>
       <c r="B165" t="s">
@@ -7841,7 +7659,7 @@
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="6" t="s">
         <v>568</v>
       </c>
       <c r="B166" t="s">
@@ -7855,8 +7673,8 @@
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>1637</v>
+      <c r="A167" s="6" t="s">
+        <v>1633</v>
       </c>
       <c r="B167" t="s">
         <v>572</v>
@@ -7869,7 +7687,7 @@
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="6" t="s">
         <v>574</v>
       </c>
       <c r="B168" t="s">
@@ -7883,7 +7701,7 @@
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="6" t="s">
         <v>578</v>
       </c>
       <c r="B169" t="s">
@@ -7897,7 +7715,7 @@
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="6" t="s">
         <v>582</v>
       </c>
       <c r="B170" t="s">
@@ -7911,7 +7729,7 @@
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="6" t="s">
         <v>586</v>
       </c>
       <c r="B171" t="s">
@@ -7925,7 +7743,7 @@
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="6" t="s">
         <v>590</v>
       </c>
       <c r="B172" t="s">
@@ -7939,7 +7757,7 @@
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="6" t="s">
         <v>594</v>
       </c>
       <c r="B173" t="s">
@@ -7953,7 +7771,7 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="6" t="s">
         <v>598</v>
       </c>
       <c r="B174" t="s">
@@ -7967,7 +7785,7 @@
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="6" t="s">
         <v>602</v>
       </c>
       <c r="B175" t="s">
@@ -7981,7 +7799,7 @@
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="6" t="s">
         <v>606</v>
       </c>
       <c r="B176" t="s">
@@ -7995,7 +7813,7 @@
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="6" t="s">
         <v>519</v>
       </c>
       <c r="B177" t="s">
@@ -8009,7 +7827,7 @@
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="6" t="s">
         <v>609</v>
       </c>
       <c r="B178" t="s">
@@ -8023,7 +7841,7 @@
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="7" t="s">
         <v>613</v>
       </c>
       <c r="B179" t="s">
@@ -8037,7 +7855,7 @@
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B180" t="s">
@@ -8051,7 +7869,7 @@
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="6" t="s">
         <v>618</v>
       </c>
       <c r="B181" t="s">
@@ -8065,7 +7883,7 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="6" t="s">
         <v>621</v>
       </c>
       <c r="B182" t="s">
@@ -8079,7 +7897,7 @@
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="6" t="s">
         <v>625</v>
       </c>
       <c r="B183" t="s">
@@ -8093,7 +7911,7 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="6" t="s">
         <v>628</v>
       </c>
       <c r="B184" t="s">
@@ -8107,7 +7925,7 @@
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B185" t="s">
@@ -8121,7 +7939,7 @@
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="6" t="s">
         <v>633</v>
       </c>
       <c r="B186" t="s">
@@ -8135,7 +7953,7 @@
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="7" t="s">
         <v>637</v>
       </c>
       <c r="B187" t="s">
@@ -8149,7 +7967,7 @@
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="6" t="s">
         <v>640</v>
       </c>
       <c r="B188" t="s">
@@ -8163,7 +7981,7 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B189" t="s">
@@ -8177,7 +7995,7 @@
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="6" t="s">
         <v>644</v>
       </c>
       <c r="B190" t="s">
@@ -8191,7 +8009,7 @@
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="6" t="s">
         <v>648</v>
       </c>
       <c r="B191" t="s">
@@ -8205,7 +8023,7 @@
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="6" t="s">
         <v>651</v>
       </c>
       <c r="B192" t="s">
@@ -8219,7 +8037,7 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="6" t="s">
         <v>655</v>
       </c>
       <c r="B193" t="s">
@@ -8233,7 +8051,7 @@
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="6" t="s">
         <v>658</v>
       </c>
       <c r="B194" t="s">
@@ -8247,7 +8065,7 @@
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="6" t="s">
         <v>662</v>
       </c>
       <c r="B195" t="s">
@@ -8261,7 +8079,7 @@
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="6" t="s">
         <v>666</v>
       </c>
       <c r="B196" t="s">
@@ -8275,7 +8093,7 @@
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="6" t="s">
         <v>670</v>
       </c>
       <c r="B197" t="s">
@@ -8289,7 +8107,7 @@
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="6" t="s">
         <v>673</v>
       </c>
       <c r="B198" t="s">
@@ -8303,7 +8121,7 @@
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="7" t="s">
         <v>676</v>
       </c>
       <c r="B199" t="s">
@@ -8317,7 +8135,7 @@
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="6" t="s">
         <v>680</v>
       </c>
       <c r="B200" t="s">
@@ -8331,7 +8149,7 @@
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="6" t="s">
         <v>684</v>
       </c>
       <c r="B201" t="s">
@@ -8345,7 +8163,7 @@
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="6" t="s">
         <v>687</v>
       </c>
       <c r="B202" t="s">
@@ -8359,7 +8177,7 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="6" t="s">
         <v>463</v>
       </c>
       <c r="B203" t="s">
@@ -8373,7 +8191,7 @@
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="7" t="s">
         <v>691</v>
       </c>
       <c r="B204" t="s">
@@ -8387,7 +8205,7 @@
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="6" t="s">
         <v>695</v>
       </c>
       <c r="B205" t="s">
@@ -8401,7 +8219,7 @@
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="6" t="s">
         <v>699</v>
       </c>
       <c r="B206" t="s">
@@ -8415,7 +8233,7 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="6" t="s">
         <v>703</v>
       </c>
       <c r="B207" t="s">
@@ -8429,7 +8247,7 @@
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="6" t="s">
         <v>707</v>
       </c>
       <c r="B208" t="s">
@@ -8443,7 +8261,7 @@
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="6" t="s">
         <v>711</v>
       </c>
       <c r="B209" t="s">
@@ -8457,7 +8275,7 @@
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="6" t="s">
         <v>715</v>
       </c>
       <c r="B210" t="s">
@@ -8471,7 +8289,7 @@
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="6" t="s">
         <v>719</v>
       </c>
       <c r="B211" t="s">
@@ -8485,7 +8303,7 @@
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="6" t="s">
         <v>721</v>
       </c>
       <c r="B212" t="s">
@@ -8499,7 +8317,7 @@
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="6" t="s">
         <v>725</v>
       </c>
       <c r="B213" t="s">
@@ -8513,7 +8331,7 @@
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="6" t="s">
         <v>728</v>
       </c>
       <c r="B214" t="s">
@@ -8527,7 +8345,7 @@
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="6" t="s">
         <v>732</v>
       </c>
       <c r="B215" t="s">
@@ -8541,7 +8359,7 @@
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B216" t="s">
@@ -8555,7 +8373,7 @@
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="6" t="s">
         <v>737</v>
       </c>
       <c r="B217" t="s">
@@ -8569,7 +8387,7 @@
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="6" t="s">
         <v>741</v>
       </c>
       <c r="B218" t="s">
@@ -8583,7 +8401,7 @@
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="6" t="s">
         <v>743</v>
       </c>
       <c r="B219" t="s">
@@ -8597,7 +8415,7 @@
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="7" t="s">
         <v>747</v>
       </c>
       <c r="B220" t="s">
@@ -8611,7 +8429,7 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="6" t="s">
         <v>750</v>
       </c>
       <c r="B221" t="s">
@@ -8625,7 +8443,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="6" t="s">
         <v>754</v>
       </c>
       <c r="B222" t="s">
@@ -8639,8 +8457,8 @@
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>1638</v>
+      <c r="A223" s="6" t="s">
+        <v>1634</v>
       </c>
       <c r="B223" t="s">
         <v>758</v>
@@ -8653,7 +8471,7 @@
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="6" t="s">
         <v>761</v>
       </c>
       <c r="B224" t="s">
@@ -8667,7 +8485,7 @@
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="7" t="s">
         <v>765</v>
       </c>
       <c r="B225" t="s">
@@ -8681,7 +8499,7 @@
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="6" t="s">
         <v>769</v>
       </c>
       <c r="B226" t="s">
@@ -8695,7 +8513,7 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="6" t="s">
         <v>773</v>
       </c>
       <c r="B227" t="s">
@@ -8709,7 +8527,7 @@
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="7" t="s">
         <v>776</v>
       </c>
       <c r="B228" t="s">
@@ -8723,7 +8541,7 @@
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="6" t="s">
         <v>780</v>
       </c>
       <c r="B229" t="s">
@@ -8737,7 +8555,7 @@
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="6" t="s">
         <v>784</v>
       </c>
       <c r="B230" t="s">
@@ -8751,7 +8569,7 @@
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="6">
         <v>2002</v>
       </c>
       <c r="B231" t="s">
@@ -8765,7 +8583,7 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="6" t="s">
         <v>790</v>
       </c>
       <c r="B232" t="s">
@@ -8779,7 +8597,7 @@
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="7" t="s">
         <v>793</v>
       </c>
       <c r="B233" t="s">
@@ -8793,7 +8611,7 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="6" t="s">
         <v>795</v>
       </c>
       <c r="B234" t="s">
@@ -8807,7 +8625,7 @@
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="6" t="s">
         <v>798</v>
       </c>
       <c r="B235" t="s">
@@ -8821,7 +8639,7 @@
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="6" t="s">
         <v>801</v>
       </c>
       <c r="B236" t="s">
@@ -8835,7 +8653,7 @@
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="7" t="s">
         <v>803</v>
       </c>
       <c r="B237" t="s">
@@ -8849,7 +8667,7 @@
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="6" t="s">
         <v>805</v>
       </c>
       <c r="B238" t="s">
@@ -8863,7 +8681,7 @@
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="6" t="s">
         <v>808</v>
       </c>
       <c r="B239" t="s">
@@ -8877,7 +8695,7 @@
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="6" t="s">
         <v>811</v>
       </c>
       <c r="B240" t="s">
@@ -8891,7 +8709,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="6" t="s">
         <v>813</v>
       </c>
       <c r="B241" t="s">
@@ -8905,7 +8723,7 @@
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="6" t="s">
         <v>816</v>
       </c>
       <c r="B242" t="s">
@@ -8919,7 +8737,7 @@
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="7" t="s">
         <v>818</v>
       </c>
       <c r="B243" t="s">
@@ -8933,7 +8751,7 @@
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="6" t="s">
         <v>821</v>
       </c>
       <c r="B244" t="s">
@@ -8947,7 +8765,7 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B245" t="s">
@@ -8961,7 +8779,7 @@
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="6" t="s">
         <v>824</v>
       </c>
       <c r="B246" t="s">
@@ -8975,7 +8793,7 @@
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="6" t="s">
         <v>828</v>
       </c>
       <c r="B247" t="s">
@@ -8989,7 +8807,7 @@
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="6" t="s">
         <v>831</v>
       </c>
       <c r="B248" t="s">
@@ -9003,7 +8821,7 @@
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="6" t="s">
         <v>834</v>
       </c>
       <c r="B249" t="s">
@@ -9017,7 +8835,7 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="6" t="s">
         <v>836</v>
       </c>
       <c r="B250" t="s">
@@ -9031,7 +8849,7 @@
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="7" t="s">
         <v>838</v>
       </c>
       <c r="B251" t="s">
@@ -9045,7 +8863,7 @@
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="6" t="s">
         <v>298</v>
       </c>
       <c r="B252" t="s">
@@ -9059,7 +8877,7 @@
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="6" t="s">
         <v>842</v>
       </c>
       <c r="B253" t="s">
@@ -9073,7 +8891,7 @@
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="6" t="s">
         <v>846</v>
       </c>
       <c r="B254" t="s">
@@ -9087,7 +8905,7 @@
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="6" t="s">
         <v>850</v>
       </c>
       <c r="B255" t="s">
@@ -9101,7 +8919,7 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B256" t="s">
@@ -9115,7 +8933,7 @@
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="6" t="s">
         <v>854</v>
       </c>
       <c r="B257" t="s">
@@ -9129,7 +8947,7 @@
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="6" t="s">
         <v>857</v>
       </c>
       <c r="B258" t="s">
@@ -9143,7 +8961,7 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="6" t="s">
         <v>861</v>
       </c>
       <c r="B259" t="s">
@@ -9157,7 +8975,7 @@
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="6" t="s">
         <v>865</v>
       </c>
       <c r="B260" t="s">
@@ -9171,7 +8989,7 @@
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="6" t="s">
         <v>868</v>
       </c>
       <c r="B261" t="s">
@@ -9185,7 +9003,7 @@
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="A262" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B262" t="s">
@@ -9199,7 +9017,7 @@
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="6" t="s">
         <v>872</v>
       </c>
       <c r="B263" t="s">
@@ -9213,7 +9031,7 @@
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="6" t="s">
         <v>876</v>
       </c>
       <c r="B264" t="s">
@@ -9227,7 +9045,7 @@
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="6" t="s">
         <v>879</v>
       </c>
       <c r="B265" t="s">
@@ -9241,7 +9059,7 @@
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="6" t="s">
         <v>882</v>
       </c>
       <c r="B266" t="s">
@@ -9255,7 +9073,7 @@
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
+      <c r="A267" s="7" t="s">
         <v>885</v>
       </c>
       <c r="B267" t="s">
@@ -9269,7 +9087,7 @@
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="6" t="s">
         <v>889</v>
       </c>
       <c r="B268" t="s">
@@ -9283,7 +9101,7 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="6" t="s">
         <v>893</v>
       </c>
       <c r="B269" t="s">
@@ -9297,7 +9115,7 @@
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="6" t="s">
         <v>897</v>
       </c>
       <c r="B270" t="s">
@@ -9311,7 +9129,7 @@
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="6" t="s">
         <v>901</v>
       </c>
       <c r="B271" t="s">
@@ -9325,7 +9143,7 @@
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="6" t="s">
         <v>904</v>
       </c>
       <c r="B272" t="s">
@@ -9339,7 +9157,7 @@
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="6" t="s">
         <v>906</v>
       </c>
       <c r="B273" t="s">
@@ -9353,7 +9171,7 @@
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="6" t="s">
         <v>909</v>
       </c>
       <c r="B274" t="s">
@@ -9367,7 +9185,7 @@
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="6" t="s">
         <v>913</v>
       </c>
       <c r="B275" t="s">
@@ -9381,7 +9199,7 @@
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="A276" s="6" t="s">
         <v>917</v>
       </c>
       <c r="B276" t="s">
@@ -9395,7 +9213,7 @@
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="A277" s="6" t="s">
         <v>920</v>
       </c>
       <c r="B277" t="s">
@@ -9409,7 +9227,7 @@
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="A278" s="6" t="s">
         <v>923</v>
       </c>
       <c r="B278" t="s">
@@ -9423,7 +9241,7 @@
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="A279" s="6" t="s">
         <v>926</v>
       </c>
       <c r="B279" t="s">
@@ -9437,7 +9255,7 @@
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" s="6" t="s">
         <v>929</v>
       </c>
       <c r="B280" t="s">
@@ -9451,7 +9269,7 @@
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="6" t="s">
         <v>932</v>
       </c>
       <c r="B281" t="s">
@@ -9465,7 +9283,7 @@
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+      <c r="A282" s="6" t="s">
         <v>936</v>
       </c>
       <c r="B282" t="s">
@@ -9479,7 +9297,7 @@
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="A283" s="6" t="s">
         <v>940</v>
       </c>
       <c r="B283" t="s">
@@ -9493,7 +9311,7 @@
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="6" t="s">
         <v>944</v>
       </c>
       <c r="B284" t="s">
@@ -9507,7 +9325,7 @@
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="6" t="s">
         <v>948</v>
       </c>
       <c r="B285" t="s">
@@ -9521,7 +9339,7 @@
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="6" t="s">
         <v>952</v>
       </c>
       <c r="B286" t="s">
@@ -9535,7 +9353,7 @@
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="6" t="s">
         <v>955</v>
       </c>
       <c r="B287" t="s">
@@ -9549,7 +9367,7 @@
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="6" t="s">
         <v>959</v>
       </c>
       <c r="B288" t="s">
@@ -9563,7 +9381,7 @@
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="6" t="s">
         <v>962</v>
       </c>
       <c r="B289" t="s">
@@ -9577,7 +9395,7 @@
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="6" t="s">
         <v>964</v>
       </c>
       <c r="B290" t="s">
@@ -9591,7 +9409,7 @@
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="6" t="s">
         <v>968</v>
       </c>
       <c r="B291" t="s">
@@ -9605,7 +9423,7 @@
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B292" t="s">
@@ -9619,7 +9437,7 @@
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="6" t="s">
         <v>973</v>
       </c>
       <c r="B293" t="s">
@@ -9633,7 +9451,7 @@
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="6" t="s">
         <v>976</v>
       </c>
       <c r="B294" t="s">
@@ -9647,7 +9465,7 @@
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="6" t="s">
         <v>980</v>
       </c>
       <c r="B295" t="s">
@@ -9661,7 +9479,7 @@
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="6" t="s">
         <v>984</v>
       </c>
       <c r="B296" t="s">
@@ -9675,7 +9493,7 @@
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="6" t="s">
         <v>988</v>
       </c>
       <c r="B297" t="s">
@@ -9689,7 +9507,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="6" t="s">
         <v>992</v>
       </c>
       <c r="B298" t="s">
@@ -9703,7 +9521,7 @@
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="6" t="s">
         <v>995</v>
       </c>
       <c r="B299" t="s">
@@ -9717,7 +9535,7 @@
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="6" t="s">
         <v>998</v>
       </c>
       <c r="B300" t="s">
@@ -9731,7 +9549,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="6" t="s">
         <v>1002</v>
       </c>
       <c r="B301" t="s">
@@ -9745,7 +9563,7 @@
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="6" t="s">
         <v>1005</v>
       </c>
       <c r="B302" t="s">
@@ -9759,7 +9577,7 @@
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="6" t="s">
         <v>1009</v>
       </c>
       <c r="B303" t="s">
@@ -9773,7 +9591,7 @@
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="6" t="s">
         <v>1013</v>
       </c>
       <c r="B304" t="s">
@@ -9787,7 +9605,7 @@
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="6" t="s">
         <v>1017</v>
       </c>
       <c r="B305" t="s">
@@ -9801,7 +9619,7 @@
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="6" t="s">
         <v>1019</v>
       </c>
       <c r="B306" t="s">
@@ -9815,7 +9633,7 @@
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="6" t="s">
         <v>1021</v>
       </c>
       <c r="B307" t="s">
@@ -9829,7 +9647,7 @@
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="6" t="s">
         <v>1025</v>
       </c>
       <c r="B308" t="s">
@@ -9843,7 +9661,7 @@
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="6" t="s">
         <v>1029</v>
       </c>
       <c r="B309" t="s">
@@ -9857,7 +9675,7 @@
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="6" t="s">
         <v>1032</v>
       </c>
       <c r="B310" t="s">
@@ -9871,7 +9689,7 @@
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
+      <c r="A311" s="7" t="s">
         <v>1035</v>
       </c>
       <c r="B311" t="s">
@@ -9885,7 +9703,7 @@
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="6" t="s">
         <v>1038</v>
       </c>
       <c r="B312" t="s">
@@ -9899,7 +9717,7 @@
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="6" t="s">
         <v>1041</v>
       </c>
       <c r="B313" t="s">
@@ -9913,7 +9731,7 @@
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="6" t="s">
         <v>1045</v>
       </c>
       <c r="B314" t="s">
@@ -9927,7 +9745,7 @@
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="6" t="s">
         <v>1047</v>
       </c>
       <c r="B315" t="s">
@@ -9941,7 +9759,7 @@
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="6" t="s">
         <v>1050</v>
       </c>
       <c r="B316" t="s">
@@ -9955,7 +9773,7 @@
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="6" t="s">
         <v>1053</v>
       </c>
       <c r="B317" t="s">
@@ -9969,7 +9787,7 @@
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+      <c r="A318" s="6" t="s">
         <v>1057</v>
       </c>
       <c r="B318" t="s">
@@ -9983,7 +9801,7 @@
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="A319" s="6" t="s">
         <v>1061</v>
       </c>
       <c r="B319" t="s">
@@ -9997,7 +9815,7 @@
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="A320" s="6" t="s">
         <v>1064</v>
       </c>
       <c r="B320" t="s">
@@ -10011,7 +9829,7 @@
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="6" t="s">
         <v>1068</v>
       </c>
       <c r="B321" t="s">
@@ -10025,7 +9843,7 @@
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="6" t="s">
         <v>1072</v>
       </c>
       <c r="B322" t="s">
@@ -10039,7 +9857,7 @@
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="6" t="s">
         <v>1075</v>
       </c>
       <c r="B323" t="s">
@@ -10053,7 +9871,7 @@
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="6" t="s">
         <v>1079</v>
       </c>
       <c r="B324" t="s">
@@ -10067,7 +9885,7 @@
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="A325" s="6" t="s">
         <v>1083</v>
       </c>
       <c r="B325" t="s">
@@ -10081,7 +9899,7 @@
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="A326" s="6" t="s">
         <v>1087</v>
       </c>
       <c r="B326" t="s">
@@ -10095,7 +9913,7 @@
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="A327" s="6" t="s">
         <v>1089</v>
       </c>
       <c r="B327" t="s">
@@ -10109,7 +9927,7 @@
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
+      <c r="A328" s="7" t="s">
         <v>1092</v>
       </c>
       <c r="B328" t="s">
@@ -10123,7 +9941,7 @@
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="6" t="s">
         <v>1094</v>
       </c>
       <c r="B329" t="s">
@@ -10137,7 +9955,7 @@
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="6" t="s">
         <v>1098</v>
       </c>
       <c r="B330" t="s">
@@ -10151,7 +9969,7 @@
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="6" t="s">
         <v>1101</v>
       </c>
       <c r="B331" t="s">
@@ -10164,22 +9982,22 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+    <row r="332" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="8" t="s">
         <v>1103</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C332" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="1" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="A333" s="6" t="s">
         <v>1107</v>
       </c>
       <c r="B333" t="s">
@@ -10193,7 +10011,7 @@
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="6" t="s">
         <v>1111</v>
       </c>
       <c r="B334" t="s">
@@ -10207,7 +10025,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="6" t="s">
         <v>1115</v>
       </c>
       <c r="B335" t="s">
@@ -10221,7 +10039,7 @@
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="6" t="s">
         <v>1118</v>
       </c>
       <c r="B336" t="s">
@@ -10235,7 +10053,7 @@
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="6" t="s">
         <v>1121</v>
       </c>
       <c r="B337" t="s">
@@ -10249,7 +10067,7 @@
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
+      <c r="A338" s="7" t="s">
         <v>1125</v>
       </c>
       <c r="B338" t="s">
@@ -10263,7 +10081,7 @@
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" s="6" t="s">
         <v>1129</v>
       </c>
       <c r="B339" t="s">
@@ -10277,7 +10095,7 @@
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="6" t="s">
         <v>1133</v>
       </c>
       <c r="B340" t="s">
@@ -10291,7 +10109,7 @@
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="B341" t="s">
@@ -10305,7 +10123,7 @@
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
+      <c r="A342" s="7" t="s">
         <v>1140</v>
       </c>
       <c r="B342" t="s">
@@ -10319,7 +10137,7 @@
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="6" t="s">
         <v>1143</v>
       </c>
       <c r="B343" t="s">
@@ -10333,7 +10151,7 @@
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="A344" s="6" t="s">
         <v>1147</v>
       </c>
       <c r="B344" t="s">
@@ -10347,7 +10165,7 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="A345" s="6" t="s">
         <v>1150</v>
       </c>
       <c r="B345" t="s">
@@ -10361,7 +10179,7 @@
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="6" t="s">
         <v>1152</v>
       </c>
       <c r="B346" t="s">
@@ -10375,7 +10193,7 @@
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="6" t="s">
         <v>1156</v>
       </c>
       <c r="B347" t="s">
@@ -10389,7 +10207,7 @@
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="6" t="s">
         <v>1160</v>
       </c>
       <c r="B348" t="s">
@@ -10403,7 +10221,7 @@
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="6" t="s">
         <v>1164</v>
       </c>
       <c r="B349" t="s">
@@ -10417,7 +10235,7 @@
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="A350" s="6" t="s">
         <v>1168</v>
       </c>
       <c r="B350" t="s">
@@ -10431,7 +10249,7 @@
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+      <c r="A351" s="6" t="s">
         <v>1171</v>
       </c>
       <c r="B351" t="s">
@@ -10445,7 +10263,7 @@
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="6" t="s">
         <v>1174</v>
       </c>
       <c r="B352" t="s">
@@ -10459,7 +10277,7 @@
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="6" t="s">
         <v>1178</v>
       </c>
       <c r="B353" t="s">
@@ -10473,7 +10291,7 @@
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="6" t="s">
         <v>1182</v>
       </c>
       <c r="B354" t="s">
@@ -10487,7 +10305,7 @@
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="6" t="s">
         <v>1186</v>
       </c>
       <c r="B355" t="s">
@@ -10501,7 +10319,7 @@
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="A356" s="6" t="s">
         <v>1190</v>
       </c>
       <c r="B356" t="s">
@@ -10515,7 +10333,7 @@
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="A357" s="6" t="s">
         <v>1194</v>
       </c>
       <c r="B357" t="s">
@@ -10529,7 +10347,7 @@
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="6" t="s">
         <v>1197</v>
       </c>
       <c r="B358" t="s">
@@ -10543,7 +10361,7 @@
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="6" t="s">
         <v>1201</v>
       </c>
       <c r="B359" t="s">
@@ -10557,7 +10375,7 @@
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="6" t="s">
         <v>1205</v>
       </c>
       <c r="B360" t="s">
@@ -10571,7 +10389,7 @@
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B361" t="s">
@@ -10585,7 +10403,7 @@
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+      <c r="A362" s="6" t="s">
         <v>1210</v>
       </c>
       <c r="B362" t="s">
@@ -10599,7 +10417,7 @@
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
+      <c r="A363" s="7" t="s">
         <v>1214</v>
       </c>
       <c r="B363" t="s">
@@ -10613,7 +10431,7 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="6" t="s">
         <v>1218</v>
       </c>
       <c r="B364" t="s">
@@ -10627,7 +10445,7 @@
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="6" t="s">
         <v>1222</v>
       </c>
       <c r="B365" t="s">
@@ -10641,7 +10459,7 @@
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="6" t="s">
         <v>1226</v>
       </c>
       <c r="B366" t="s">
@@ -10655,7 +10473,7 @@
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="6" t="s">
         <v>1229</v>
       </c>
       <c r="B367" t="s">
@@ -10669,7 +10487,7 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="A368" s="6" t="s">
         <v>1231</v>
       </c>
       <c r="B368" t="s">
@@ -10683,7 +10501,7 @@
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+      <c r="A369" s="6" t="s">
         <v>1233</v>
       </c>
       <c r="B369" t="s">
@@ -10697,7 +10515,7 @@
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+      <c r="A370" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B370" t="s">
@@ -10711,7 +10529,7 @@
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="A371" s="6" t="s">
         <v>1238</v>
       </c>
       <c r="B371" t="s">
@@ -10725,7 +10543,7 @@
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+      <c r="A372" s="6" t="s">
         <v>1241</v>
       </c>
       <c r="B372" t="s">
@@ -10739,7 +10557,7 @@
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="6" t="s">
         <v>1245</v>
       </c>
       <c r="B373" t="s">
@@ -10753,7 +10571,7 @@
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="6" t="s">
         <v>320</v>
       </c>
       <c r="B374" t="s">
@@ -10767,7 +10585,7 @@
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="6" t="s">
         <v>1247</v>
       </c>
       <c r="B375" t="s">
@@ -10781,7 +10599,7 @@
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+      <c r="A376" s="7" t="s">
         <v>1249</v>
       </c>
       <c r="B376" t="s">
@@ -10795,7 +10613,7 @@
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="6" t="s">
         <v>1253</v>
       </c>
       <c r="B377" t="s">
@@ -10809,7 +10627,7 @@
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
+      <c r="A378" s="7" t="s">
         <v>1257</v>
       </c>
       <c r="B378" t="s">
@@ -10823,7 +10641,7 @@
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="A379" s="6" t="s">
         <v>1260</v>
       </c>
       <c r="B379" t="s">
@@ -10837,7 +10655,7 @@
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
+      <c r="A380" s="6" t="s">
         <v>1264</v>
       </c>
       <c r="B380" t="s">
@@ -10851,7 +10669,7 @@
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="6">
         <v>17</v>
       </c>
       <c r="B381" t="s">
@@ -10865,7 +10683,7 @@
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="6" t="s">
         <v>1269</v>
       </c>
       <c r="B382" t="s">
@@ -10879,7 +10697,7 @@
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+      <c r="A383" s="7" t="s">
         <v>1273</v>
       </c>
       <c r="B383" t="s">
@@ -10893,7 +10711,7 @@
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="6" t="s">
         <v>1277</v>
       </c>
       <c r="B384" t="s">
@@ -10907,7 +10725,7 @@
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="6" t="s">
         <v>1281</v>
       </c>
       <c r="B385" t="s">
@@ -10921,7 +10739,7 @@
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="6" t="s">
         <v>1285</v>
       </c>
       <c r="B386" t="s">
@@ -10935,7 +10753,7 @@
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="6" t="s">
         <v>1288</v>
       </c>
       <c r="B387" t="s">
@@ -10949,7 +10767,7 @@
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
+      <c r="A388" s="6" t="s">
         <v>1290</v>
       </c>
       <c r="B388" t="s">
@@ -10963,7 +10781,7 @@
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389" s="2" t="s">
+      <c r="A389" s="7" t="s">
         <v>1293</v>
       </c>
       <c r="B389" t="s">
@@ -10977,7 +10795,7 @@
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
+      <c r="A390" s="6" t="s">
         <v>1297</v>
       </c>
       <c r="B390" t="s">
@@ -10991,7 +10809,7 @@
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391" s="2" t="s">
+      <c r="A391" s="7" t="s">
         <v>1299</v>
       </c>
       <c r="B391" t="s">
@@ -11005,7 +10823,7 @@
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+      <c r="A392" s="6" t="s">
         <v>1302</v>
       </c>
       <c r="B392" t="s">
@@ -11019,7 +10837,7 @@
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="6" t="s">
         <v>1304</v>
       </c>
       <c r="B393" t="s">
@@ -11033,7 +10851,7 @@
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="6" t="s">
         <v>1306</v>
       </c>
       <c r="B394" t="s">
@@ -11047,7 +10865,7 @@
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395" s="2" t="s">
+      <c r="A395" s="7" t="s">
         <v>1309</v>
       </c>
       <c r="B395" t="s">
@@ -11061,7 +10879,7 @@
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B396" t="s">
@@ -11075,8 +10893,8 @@
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397" s="2" t="s">
-        <v>1640</v>
+      <c r="A397" s="7" t="s">
+        <v>1629</v>
       </c>
       <c r="B397" t="s">
         <v>1312</v>
@@ -11089,7 +10907,7 @@
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="6" t="s">
         <v>1314</v>
       </c>
       <c r="B398" t="s">
@@ -11103,7 +10921,7 @@
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="6" t="s">
         <v>1318</v>
       </c>
       <c r="B399" t="s">
@@ -11117,7 +10935,7 @@
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400" s="2" t="s">
+      <c r="A400" s="7" t="s">
         <v>1319</v>
       </c>
       <c r="B400" t="s">
@@ -11131,7 +10949,7 @@
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="6" t="s">
         <v>1321</v>
       </c>
       <c r="B401" t="s">
@@ -11145,7 +10963,7 @@
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="6" t="s">
         <v>1324</v>
       </c>
       <c r="B402" t="s">
@@ -11159,7 +10977,7 @@
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
+      <c r="A403" s="7" t="s">
         <v>1328</v>
       </c>
       <c r="B403" t="s">
@@ -11173,7 +10991,7 @@
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
+      <c r="A404" s="7" t="s">
         <v>1332</v>
       </c>
       <c r="B404" t="s">
@@ -11187,7 +11005,7 @@
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405" s="2" t="s">
+      <c r="A405" s="7" t="s">
         <v>1336</v>
       </c>
       <c r="B405" t="s">
@@ -11201,7 +11019,7 @@
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406" s="2" t="s">
+      <c r="A406" s="7" t="s">
         <v>1339</v>
       </c>
       <c r="B406" t="s">
@@ -11215,7 +11033,7 @@
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
+      <c r="A407" s="6" t="s">
         <v>1341</v>
       </c>
       <c r="B407" t="s">
@@ -11229,7 +11047,7 @@
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="6" t="s">
         <v>1111</v>
       </c>
       <c r="B408" t="s">
@@ -11243,7 +11061,7 @@
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="6" t="s">
         <v>1346</v>
       </c>
       <c r="B409" t="s">
@@ -11257,7 +11075,7 @@
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="6" t="s">
         <v>1349</v>
       </c>
       <c r="B410" t="s">
@@ -11271,7 +11089,7 @@
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411" s="2" t="s">
+      <c r="A411" s="7" t="s">
         <v>1353</v>
       </c>
       <c r="B411" t="s">
@@ -11285,7 +11103,7 @@
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="6" t="s">
         <v>1355</v>
       </c>
       <c r="B412" t="s">
@@ -11299,7 +11117,7 @@
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="6" t="s">
         <v>1359</v>
       </c>
       <c r="B413" t="s">
@@ -11313,7 +11131,7 @@
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="6" t="s">
         <v>1361</v>
       </c>
       <c r="B414" t="s">
@@ -11327,7 +11145,7 @@
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415" s="2" t="s">
+      <c r="A415" s="7" t="s">
         <v>1363</v>
       </c>
       <c r="B415" t="s">
@@ -11341,7 +11159,7 @@
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A416" s="2" t="s">
+      <c r="A416" s="7" t="s">
         <v>1366</v>
       </c>
       <c r="B416" t="s">
@@ -11355,7 +11173,7 @@
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417" s="2" t="s">
+      <c r="A417" s="7" t="s">
         <v>1369</v>
       </c>
       <c r="B417" t="s">
@@ -11369,7 +11187,7 @@
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="2" t="s">
+      <c r="A418" s="7" t="s">
         <v>1372</v>
       </c>
       <c r="B418" t="s">
@@ -11383,7 +11201,7 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+      <c r="A419" s="6" t="s">
         <v>846</v>
       </c>
       <c r="B419" t="s">
@@ -11397,7 +11215,7 @@
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="7" t="s">
         <v>1375</v>
       </c>
       <c r="B420" t="s">
@@ -11411,7 +11229,7 @@
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="6" t="s">
         <v>1378</v>
       </c>
       <c r="B421" t="s">
@@ -11425,7 +11243,7 @@
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="2" t="s">
+      <c r="A422" s="7" t="s">
         <v>1381</v>
       </c>
       <c r="B422" t="s">
@@ -11439,7 +11257,7 @@
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="2" t="s">
+      <c r="A423" s="7" t="s">
         <v>1384</v>
       </c>
       <c r="B423" t="s">
@@ -11453,7 +11271,7 @@
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="2" t="s">
+      <c r="A424" s="7" t="s">
         <v>1388</v>
       </c>
       <c r="B424" t="s">
@@ -11467,7 +11285,7 @@
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
+      <c r="A425" s="6" t="s">
         <v>271</v>
       </c>
       <c r="B425" t="s">
@@ -11481,7 +11299,7 @@
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
+      <c r="A426" s="6" t="s">
         <v>1393</v>
       </c>
       <c r="B426" t="s">
@@ -11495,7 +11313,7 @@
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
+      <c r="A427" s="6" t="s">
         <v>1397</v>
       </c>
       <c r="B427" t="s">
@@ -11509,7 +11327,7 @@
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="2" t="s">
+      <c r="A428" s="7" t="s">
         <v>1401</v>
       </c>
       <c r="B428" t="s">
@@ -11523,7 +11341,7 @@
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="6" t="s">
         <v>1404</v>
       </c>
       <c r="B429" t="s">
@@ -11537,7 +11355,7 @@
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="6" t="s">
         <v>1407</v>
       </c>
       <c r="B430" t="s">
@@ -11551,7 +11369,7 @@
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="2" t="s">
+      <c r="A431" s="7" t="s">
         <v>1411</v>
       </c>
       <c r="B431" t="s">
@@ -11565,7 +11383,7 @@
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="6" t="s">
         <v>1415</v>
       </c>
       <c r="B432" t="s">
@@ -11579,7 +11397,7 @@
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="6" t="s">
         <v>1419</v>
       </c>
       <c r="B433" t="s">
@@ -11593,7 +11411,7 @@
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="2" t="s">
+      <c r="A434" s="7" t="s">
         <v>1423</v>
       </c>
       <c r="B434" t="s">
@@ -11607,7 +11425,7 @@
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="2" t="s">
+      <c r="A435" s="7" t="s">
         <v>1425</v>
       </c>
       <c r="B435" t="s">
@@ -11621,7 +11439,7 @@
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
+      <c r="A436" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B436" t="s">
@@ -11635,7 +11453,7 @@
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
+      <c r="A437" s="6" t="s">
         <v>1429</v>
       </c>
       <c r="B437" t="s">
@@ -11649,7 +11467,7 @@
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
+      <c r="A438" s="6" t="s">
         <v>1432</v>
       </c>
       <c r="B438" t="s">
@@ -11663,7 +11481,7 @@
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
+      <c r="A439" s="6" t="s">
         <v>1190</v>
       </c>
       <c r="B439" t="s">
@@ -11677,7 +11495,7 @@
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
+      <c r="A440" s="6" t="s">
         <v>202</v>
       </c>
       <c r="B440" t="s">
@@ -11691,7 +11509,7 @@
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="6" t="s">
         <v>497</v>
       </c>
       <c r="B441" t="s">
@@ -11705,7 +11523,7 @@
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="6" t="s">
         <v>1436</v>
       </c>
       <c r="B442" t="s">
@@ -11719,7 +11537,7 @@
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="6" t="s">
         <v>1439</v>
       </c>
       <c r="B443" t="s">
@@ -11733,7 +11551,7 @@
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="6" t="s">
         <v>1442</v>
       </c>
       <c r="B444" t="s">
@@ -11747,7 +11565,7 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="2" t="s">
+      <c r="A445" s="7" t="s">
         <v>1444</v>
       </c>
       <c r="B445" t="s">
@@ -11761,7 +11579,7 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="2" t="s">
+      <c r="A446" s="7" t="s">
         <v>1446</v>
       </c>
       <c r="B446" t="s">
@@ -11775,7 +11593,7 @@
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="2" t="s">
+      <c r="A447" s="7" t="s">
         <v>793</v>
       </c>
       <c r="B447" t="s">
@@ -11789,7 +11607,7 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="6" t="s">
         <v>1450</v>
       </c>
       <c r="B448" t="s">
@@ -11803,7 +11621,7 @@
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="6" t="s">
         <v>609</v>
       </c>
       <c r="B449" t="s">
@@ -11817,8 +11635,8 @@
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>1639</v>
+      <c r="A450" s="6" t="s">
+        <v>1635</v>
       </c>
       <c r="B450" t="s">
         <v>1453</v>
@@ -11831,7 +11649,7 @@
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A451" s="2" t="s">
+      <c r="A451" s="7" t="s">
         <v>1456</v>
       </c>
       <c r="B451" t="s">
@@ -11845,7 +11663,7 @@
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
+      <c r="A452" s="6" t="s">
         <v>1459</v>
       </c>
       <c r="B452" t="s">
@@ -11859,7 +11677,7 @@
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="6" t="s">
         <v>1462</v>
       </c>
       <c r="B453" t="s">
@@ -11873,7 +11691,7 @@
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="6" t="s">
         <v>538</v>
       </c>
       <c r="B454" t="s">
@@ -11887,7 +11705,7 @@
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="6" t="s">
         <v>530</v>
       </c>
       <c r="B455" t="s">
@@ -11901,7 +11719,7 @@
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="6" t="s">
         <v>1467</v>
       </c>
       <c r="B456" t="s">
@@ -11915,7 +11733,7 @@
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
+      <c r="A457" s="6" t="s">
         <v>1470</v>
       </c>
       <c r="B457" t="s">
@@ -11929,7 +11747,7 @@
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A458" s="2" t="s">
+      <c r="A458" s="7" t="s">
         <v>1474</v>
       </c>
       <c r="B458" t="s">
@@ -11943,7 +11761,7 @@
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="6" t="s">
         <v>1476</v>
       </c>
       <c r="B459" t="s">
@@ -11957,7 +11775,7 @@
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="6" t="s">
         <v>1478</v>
       </c>
       <c r="B460" t="s">
@@ -11971,7 +11789,7 @@
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="6" t="s">
         <v>1482</v>
       </c>
       <c r="B461" t="s">
@@ -11985,7 +11803,7 @@
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A462" s="2" t="s">
+      <c r="A462" s="7" t="s">
         <v>1486</v>
       </c>
       <c r="B462" t="s">
@@ -11999,7 +11817,7 @@
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
+      <c r="A463" s="6" t="s">
         <v>1490</v>
       </c>
       <c r="B463" t="s">
@@ -12013,7 +11831,7 @@
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
+      <c r="A464" s="6" t="s">
         <v>1494</v>
       </c>
       <c r="B464" t="s">
@@ -12027,7 +11845,7 @@
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
+      <c r="A465" s="6" t="s">
         <v>1497</v>
       </c>
       <c r="B465" t="s">
@@ -12041,7 +11859,7 @@
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466" s="2" t="s">
+      <c r="A466" s="7" t="s">
         <v>1501</v>
       </c>
       <c r="B466" t="s">
@@ -12055,7 +11873,7 @@
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
+      <c r="A467" s="6" t="s">
         <v>1505</v>
       </c>
       <c r="B467" t="s">
@@ -12069,7 +11887,7 @@
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468" s="2" t="s">
+      <c r="A468" s="7" t="s">
         <v>1509</v>
       </c>
       <c r="B468" t="s">
@@ -12083,7 +11901,7 @@
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469" s="2" t="s">
+      <c r="A469" s="7" t="s">
         <v>1512</v>
       </c>
       <c r="B469" t="s">
@@ -12097,7 +11915,7 @@
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
+      <c r="A470" s="6" t="s">
         <v>1516</v>
       </c>
       <c r="B470" t="s">
@@ -12111,7 +11929,7 @@
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471" s="2" t="s">
+      <c r="A471" s="7" t="s">
         <v>1519</v>
       </c>
       <c r="B471" t="s">
@@ -12125,7 +11943,7 @@
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
+      <c r="A472" s="6" t="s">
         <v>1523</v>
       </c>
       <c r="B472" t="s">
@@ -12139,7 +11957,7 @@
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
+      <c r="A473" s="6" t="s">
         <v>1526</v>
       </c>
       <c r="B473" t="s">
@@ -12153,7 +11971,7 @@
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474" s="2" t="s">
+      <c r="A474" s="7" t="s">
         <v>1530</v>
       </c>
       <c r="B474" t="s">
@@ -12167,7 +11985,7 @@
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475" s="2" t="s">
+      <c r="A475" s="7" t="s">
         <v>1534</v>
       </c>
       <c r="B475" t="s">
@@ -12181,7 +11999,7 @@
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
+      <c r="A476" s="6" t="s">
         <v>1538</v>
       </c>
       <c r="B476" t="s">
@@ -12195,7 +12013,7 @@
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
+      <c r="A477" s="6" t="s">
         <v>1542</v>
       </c>
       <c r="B477" t="s">
@@ -12209,7 +12027,7 @@
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478" s="2" t="s">
+      <c r="A478" s="7" t="s">
         <v>1545</v>
       </c>
       <c r="B478" t="s">
@@ -12223,7 +12041,7 @@
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
+      <c r="A479" s="6" t="s">
         <v>1548</v>
       </c>
       <c r="B479" t="s">
@@ -12237,7 +12055,7 @@
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
+      <c r="A480" s="6" t="s">
         <v>1550</v>
       </c>
       <c r="B480" t="s">
@@ -12251,7 +12069,7 @@
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
+      <c r="A481" s="6" t="s">
         <v>1554</v>
       </c>
       <c r="B481" t="s">
@@ -12265,7 +12083,7 @@
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
+      <c r="A482" s="6" t="s">
         <v>1557</v>
       </c>
       <c r="B482" t="s">
@@ -12279,7 +12097,7 @@
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
+      <c r="A483" s="6" t="s">
         <v>1194</v>
       </c>
       <c r="B483" t="s">
@@ -12293,7 +12111,7 @@
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
+      <c r="A484" s="6" t="s">
         <v>1561</v>
       </c>
       <c r="B484" t="s">
@@ -12307,7 +12125,7 @@
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
+      <c r="A485" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="B485" t="s">
@@ -12321,7 +12139,7 @@
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
+      <c r="A486" s="6" t="s">
         <v>1568</v>
       </c>
       <c r="B486" t="s">
@@ -12335,7 +12153,7 @@
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
+      <c r="A487" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B487" t="s">
@@ -12349,7 +12167,7 @@
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
+      <c r="A488" s="6" t="s">
         <v>1573</v>
       </c>
       <c r="B488" t="s">
@@ -12363,7 +12181,7 @@
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
+      <c r="A489" s="6" t="s">
         <v>1577</v>
       </c>
       <c r="B489" t="s">
@@ -12377,7 +12195,7 @@
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
+      <c r="A490" s="6" t="s">
         <v>1581</v>
       </c>
       <c r="B490" t="s">
@@ -12391,7 +12209,7 @@
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
+      <c r="A491" s="6" t="s">
         <v>1585</v>
       </c>
       <c r="B491" t="s">
@@ -12405,7 +12223,7 @@
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
+      <c r="A492" s="6" t="s">
         <v>1586</v>
       </c>
       <c r="B492" t="s">
@@ -12419,7 +12237,7 @@
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
+      <c r="A493" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B493" t="s">
@@ -12433,7 +12251,7 @@
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
+      <c r="A494" s="6" t="s">
         <v>1591</v>
       </c>
       <c r="B494" t="s">
@@ -12447,7 +12265,7 @@
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
+      <c r="A495" s="6" t="s">
         <v>1594</v>
       </c>
       <c r="B495" t="s">
@@ -12461,7 +12279,7 @@
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
+      <c r="A496" s="6" t="s">
         <v>1598</v>
       </c>
       <c r="B496" t="s">
@@ -12475,7 +12293,7 @@
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
+      <c r="A497" s="6" t="s">
         <v>1601</v>
       </c>
       <c r="B497" t="s">
@@ -12489,7 +12307,7 @@
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
+      <c r="A498" s="6" t="s">
         <v>1605</v>
       </c>
       <c r="B498" t="s">
@@ -12503,7 +12321,7 @@
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
+      <c r="A499" s="6" t="s">
         <v>1608</v>
       </c>
       <c r="B499" t="s">
@@ -12517,7 +12335,7 @@
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
+      <c r="A500" s="6" t="s">
         <v>1611</v>
       </c>
       <c r="B500" t="s">
@@ -12531,7 +12349,7 @@
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
+      <c r="A501" s="6" t="s">
         <v>1613</v>
       </c>
       <c r="B501" t="s">
@@ -12545,7 +12363,7 @@
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
+      <c r="A502" s="6" t="s">
         <v>1616</v>
       </c>
       <c r="B502" t="s">
@@ -12559,7 +12377,7 @@
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
+      <c r="A503" s="8" t="s">
         <v>1619</v>
       </c>
       <c r="B503" t="s">
@@ -12573,7 +12391,7 @@
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
+      <c r="A504" s="6" t="s">
         <v>1621</v>
       </c>
       <c r="B504" t="s">
@@ -12587,7 +12405,7 @@
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
+      <c r="A505" s="6" t="s">
         <v>1397</v>
       </c>
       <c r="B505" t="s">
@@ -12601,7 +12419,7 @@
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A506" s="2" t="s">
+      <c r="A506" s="7" t="s">
         <v>1456</v>
       </c>
       <c r="B506" t="s">
@@ -12615,7 +12433,7 @@
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A507" s="2" t="s">
+      <c r="A507" s="7" t="s">
         <v>1625</v>
       </c>
       <c r="B507" t="s">
